--- a/states_experiences/states.xlsx
+++ b/states_experiences/states.xlsx
@@ -1,34 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c035cf340ce42004/Documents/GitHub/bolsa_meu/states_experiences/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FCA93295DD4CD3B83C483AB725DCE254B5FA685B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CFF8FD-7005-4AA2-93D8-2599896C7E12}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Projetos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Técnicos" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Projetos" sheetId="1" r:id="rId1"/>
+    <sheet name="Técnicos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Project id</t>
+  </si>
+  <si>
+    <t>Área</t>
+  </si>
+  <si>
+    <t>Fase atual</t>
+  </si>
+  <si>
+    <t>Técnico de análise</t>
+  </si>
+  <si>
+    <t>Gestor de projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fase atual </t>
+  </si>
+  <si>
+    <t>Sem resposta de análise</t>
+  </si>
+  <si>
+    <t>Projeto Aprovado</t>
+  </si>
+  <si>
+    <t>Projeto Rejeitado</t>
+  </si>
+  <si>
+    <t>Técnico id</t>
+  </si>
+  <si>
+    <t>Área temática</t>
+  </si>
+  <si>
+    <t>Projetos atribuídos</t>
+  </si>
+  <si>
+    <t>None ; Análise4 ; Análise3 ; Acompanhamento5</t>
+  </si>
+  <si>
+    <t>None ; Análise7 ; Análise6 ; Análise9</t>
+  </si>
+  <si>
+    <t>None ; Análise5 ; Análise2 ; Análise10 ; Acompanhamento3 ; Acompanhamento4 ; Análise11</t>
+  </si>
+  <si>
+    <t>None ; Análise1 ; Análise8 ; Acompanhamento2 ; Acompanhamento9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +118,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,350 +432,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="19.109375" customWidth="1" min="4" max="4"/>
-    <col width="16.109375" customWidth="1" min="5" max="5"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Project id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Área</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Fase atual</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Técnico de análise</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Gestor de projeto</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fase atual </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="n">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Sem resposta de análise</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Projeto Aprovado</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Projeto Rejeitado</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13"/>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="12.21875" customWidth="1" min="1" max="1"/>
-    <col width="14.88671875" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Técnico id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Área temática</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Projetos atribuídos</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>None ; Análise4 ; Análise3 ; Acompanhamento5</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None ; Análise7 ; Análise6 ; Análise9</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None ; Análise5 ; Análise2 ; Análise10 ; Acompanhamento3 ; Acompanhamento4 ; Análise11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None ; Análise1 ; Análise8 ; Acompanhamento2 ; Acompanhamento9</t>
-        </is>
-      </c>
-    </row>
-    <row r="7"/>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/states_experiences/states.xlsx
+++ b/states_experiences/states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\bolsa_meu\states_experiences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC2610C-2579-4FEF-BA8B-1FC94B2AC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87818E-D49B-4DB1-9557-A86E6F6AED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projetos" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Técnico id</t>
   </si>
   <si>
-    <t>Área temática</t>
-  </si>
-  <si>
     <t>Projetos atribuídos</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
   </si>
   <si>
     <t>Projeto completado</t>
+  </si>
+  <si>
+    <t>Disponível para a próxima alocação? (0=não,1=sim)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +528,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -759,14 +759,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +774,10 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +826,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +842,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,12 +853,12 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2:AO2">IF(TRANSPOSE(Técnicos!A2:A40)&lt;&gt;"",TRANSPOSE(Técnicos!A2:A40),"")</f>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,12 +1375,12 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2:AO2">IF(TRANSPOSE(Técnicos!A2:A40)&lt;&gt;"",TRANSPOSE(Técnicos!A2:A40),"")</f>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,12 +1897,12 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" cm="1">
         <f t="array" ref="C2:AO2">IF(TRANSPOSE(Técnicos!A2:A40)&lt;&gt;"",TRANSPOSE(Técnicos!A2:A40),"")</f>
@@ -2029,107 +2029,111 @@
         <v>1</v>
       </c>
       <c r="C3" cm="1">
-        <f t="array" ref="C3">IF(OR($B3="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!C3,Matriz_Esforço_Acompanhamento!C3)))</f>
+        <f t="array" ref="C3">IF(OR($B3="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!C3,Matriz_Esforço_Acompanhamento!C3)))</f>
         <v>7</v>
       </c>
       <c r="D3" cm="1">
-        <f t="array" ref="D3">IF(OR($B3="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!D3,Matriz_Esforço_Acompanhamento!D3)))</f>
+        <f t="array" ref="D3">IF(OR($B3="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!D3,Matriz_Esforço_Acompanhamento!D3)))</f>
         <v>9</v>
       </c>
       <c r="E3" cm="1">
-        <f t="array" ref="E3">IF(OR($B3="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!E3,Matriz_Esforço_Acompanhamento!E3)))</f>
+        <f t="array" ref="E3">IF(OR($B3="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!E3,Matriz_Esforço_Acompanhamento!E3)))</f>
         <v>8</v>
       </c>
       <c r="F3" cm="1">
-        <f t="array" ref="F3">IF(OR($B3="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!F3,Matriz_Esforço_Acompanhamento!F3)))</f>
+        <f t="array" ref="F3">IF(OR($B3="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!F3,Matriz_Esforço_Acompanhamento!F3)))</f>
         <v>9</v>
       </c>
-      <c r="G3" cm="1">
-        <f t="array" ref="G3">IF(OR($B3="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!G3,Matriz_Esforço_Acompanhamento!G3)))</f>
-        <v>7</v>
+      <c r="G3" t="str" cm="1">
+        <f t="array" ref="G3">IF(OR($B3="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!G3,Matriz_Esforço_Acompanhamento!G3)))</f>
+        <v/>
       </c>
       <c r="H3" t="str" cm="1">
-        <f t="array" ref="H3">IF(OR($B3="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!H3,Matriz_Esforço_Acompanhamento!H3)))</f>
+        <f t="array" ref="H3">IF(OR($B3="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!H3,Matriz_Esforço_Acompanhamento!H3)))</f>
         <v/>
       </c>
       <c r="I3" t="str" cm="1">
-        <f t="array" ref="I3">IF(OR($B3="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!I3,Matriz_Esforço_Acompanhamento!I3)))</f>
+        <f t="array" ref="I3">IF(OR($B3="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!I3,Matriz_Esforço_Acompanhamento!I3)))</f>
         <v/>
       </c>
       <c r="J3" t="str" cm="1">
-        <f t="array" ref="J3">IF(OR($B3="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!J3,Matriz_Esforço_Acompanhamento!J3)))</f>
+        <f t="array" ref="J3">IF(OR($B3="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!J3,Matriz_Esforço_Acompanhamento!J3)))</f>
         <v/>
       </c>
       <c r="K3" t="str" cm="1">
-        <f t="array" ref="K3">IF(OR($B3="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!K3,Matriz_Esforço_Acompanhamento!K3)))</f>
+        <f t="array" ref="K3">IF(OR($B3="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!K3,Matriz_Esforço_Acompanhamento!K3)))</f>
         <v/>
       </c>
       <c r="L3" t="str" cm="1">
-        <f t="array" ref="L3">IF(OR($B3="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!L3,Matriz_Esforço_Acompanhamento!L3)))</f>
+        <f t="array" ref="L3">IF(OR($B3="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!L3,Matriz_Esforço_Acompanhamento!L3)))</f>
         <v/>
       </c>
       <c r="M3" t="str" cm="1">
-        <f t="array" ref="M3">IF(OR($B3="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!M3,Matriz_Esforço_Acompanhamento!M3)))</f>
+        <f t="array" ref="M3">IF(OR($B3="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!M3,Matriz_Esforço_Acompanhamento!M3)))</f>
         <v/>
       </c>
       <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">IF(OR($B3="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!N3,Matriz_Esforço_Acompanhamento!N3)))</f>
+        <f t="array" ref="N3">IF(OR($B3="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!N3,Matriz_Esforço_Acompanhamento!N3)))</f>
         <v/>
       </c>
       <c r="O3" t="str" cm="1">
-        <f t="array" ref="O3">IF(OR($B3="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!O3,Matriz_Esforço_Acompanhamento!O3)))</f>
+        <f t="array" ref="O3">IF(OR($B3="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!O3,Matriz_Esforço_Acompanhamento!O3)))</f>
         <v/>
       </c>
       <c r="P3" t="str" cm="1">
-        <f t="array" ref="P3">IF(OR($B3="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!P3,Matriz_Esforço_Acompanhamento!P3)))</f>
+        <f t="array" ref="P3">IF(OR($B3="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!P3,Matriz_Esforço_Acompanhamento!P3)))</f>
         <v/>
       </c>
       <c r="Q3" t="str" cm="1">
-        <f t="array" ref="Q3">IF(OR($B3="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Q3,Matriz_Esforço_Acompanhamento!Q3)))</f>
+        <f t="array" ref="Q3">IF(OR($B3="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Q3,Matriz_Esforço_Acompanhamento!Q3)))</f>
         <v/>
       </c>
       <c r="R3" t="str" cm="1">
-        <f t="array" ref="R3">IF(OR($B3="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!R3,Matriz_Esforço_Acompanhamento!R3)))</f>
+        <f t="array" ref="R3">IF(OR($B3="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!R3,Matriz_Esforço_Acompanhamento!R3)))</f>
         <v/>
       </c>
       <c r="S3" t="str" cm="1">
-        <f t="array" ref="S3">IF(OR($B3="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!S3,Matriz_Esforço_Acompanhamento!S3)))</f>
+        <f t="array" ref="S3">IF(OR($B3="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!S3,Matriz_Esforço_Acompanhamento!S3)))</f>
         <v/>
       </c>
       <c r="T3" t="str" cm="1">
-        <f t="array" ref="T3">IF(OR($B3="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!T3,Matriz_Esforço_Acompanhamento!T3)))</f>
+        <f t="array" ref="T3">IF(OR($B3="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!T3,Matriz_Esforço_Acompanhamento!T3)))</f>
         <v/>
       </c>
       <c r="U3" t="str" cm="1">
-        <f t="array" ref="U3">IF(OR($B3="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!U3,Matriz_Esforço_Acompanhamento!U3)))</f>
+        <f t="array" ref="U3">IF(OR($B3="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!U3,Matriz_Esforço_Acompanhamento!U3)))</f>
         <v/>
       </c>
       <c r="V3" t="str" cm="1">
-        <f t="array" ref="V3">IF(OR($B3="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!V3,Matriz_Esforço_Acompanhamento!V3)))</f>
+        <f t="array" ref="V3">IF(OR($B3="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!V3,Matriz_Esforço_Acompanhamento!V3)))</f>
         <v/>
       </c>
       <c r="W3" t="str" cm="1">
-        <f t="array" ref="W3">IF(OR($B3="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!W3,Matriz_Esforço_Acompanhamento!W3)))</f>
+        <f t="array" ref="W3">IF(OR($B3="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!W3,Matriz_Esforço_Acompanhamento!W3)))</f>
         <v/>
       </c>
       <c r="X3" t="str" cm="1">
-        <f t="array" ref="X3">IF(OR($B3="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!X3,Matriz_Esforço_Acompanhamento!X3)))</f>
+        <f t="array" ref="X3">IF(OR($B3="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!X3,Matriz_Esforço_Acompanhamento!X3)))</f>
         <v/>
       </c>
       <c r="Y3" t="str" cm="1">
-        <f t="array" ref="Y3">IF(OR($B3="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Y3,Matriz_Esforço_Acompanhamento!Y3)))</f>
+        <f t="array" ref="Y3">IF(OR($B3="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Y3,Matriz_Esforço_Acompanhamento!Y3)))</f>
         <v/>
       </c>
       <c r="Z3" t="str" cm="1">
-        <f t="array" ref="Z3">IF(OR($B3="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Z3,Matriz_Esforço_Acompanhamento!Z3)))</f>
+        <f t="array" ref="Z3">IF(OR($B3="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!Z3,Matriz_Esforço_Acompanhamento!Z3)))</f>
         <v/>
       </c>
       <c r="AA3" t="str" cm="1">
-        <f t="array" ref="AA3">IF(OR($B3="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!AA3,Matriz_Esforço_Acompanhamento!AA3)))</f>
+        <f t="array" ref="AA3">IF(OR($B3="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!AA3,Matriz_Esforço_Acompanhamento!AA3)))</f>
         <v/>
       </c>
       <c r="AB3" t="str" cm="1">
-        <f t="array" ref="AB3">IF(OR($B3="",AB$2=""),"",IF(INDEX(Projetos!AB2:AB35,Matriz_Esforço_Atual!$B3)=2,"",IF(INDEX(Projetos!AB2:AB35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!AB3,Matriz_Esforço_Acompanhamento!AB3)))</f>
+        <f t="array" ref="AB3">IF(OR($B3="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!AB3,Matriz_Esforço_Acompanhamento!AB3)))</f>
+        <v/>
+      </c>
+      <c r="AC3" t="str" cm="1">
+        <f t="array" ref="AC3">IF(OR($B3="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B3)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B3)=0,Matriz_Esforço_Análise!AC3,Matriz_Esforço_Acompanhamento!AC3)))</f>
         <v/>
       </c>
     </row>
@@ -2139,107 +2143,111 @@
         <v>2</v>
       </c>
       <c r="C4" t="str" cm="1">
-        <f t="array" ref="C4">IF(OR($B4="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!C4,Matriz_Esforço_Acompanhamento!C4)))</f>
+        <f t="array" ref="C4">IF(OR($B4="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!C4,Matriz_Esforço_Acompanhamento!C4)))</f>
         <v/>
       </c>
       <c r="D4" t="str" cm="1">
-        <f t="array" ref="D4">IF(OR($B4="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!D4,Matriz_Esforço_Acompanhamento!D4)))</f>
+        <f t="array" ref="D4">IF(OR($B4="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!D4,Matriz_Esforço_Acompanhamento!D4)))</f>
         <v/>
       </c>
       <c r="E4" t="str" cm="1">
-        <f t="array" ref="E4">IF(OR($B4="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!E4,Matriz_Esforço_Acompanhamento!E4)))</f>
+        <f t="array" ref="E4">IF(OR($B4="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!E4,Matriz_Esforço_Acompanhamento!E4)))</f>
         <v/>
       </c>
       <c r="F4" t="str" cm="1">
-        <f t="array" ref="F4">IF(OR($B4="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!F4,Matriz_Esforço_Acompanhamento!F4)))</f>
+        <f t="array" ref="F4">IF(OR($B4="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!F4,Matriz_Esforço_Acompanhamento!F4)))</f>
         <v/>
       </c>
       <c r="G4" t="str" cm="1">
-        <f t="array" ref="G4">IF(OR($B4="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!G4,Matriz_Esforço_Acompanhamento!G4)))</f>
+        <f t="array" ref="G4">IF(OR($B4="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!G4,Matriz_Esforço_Acompanhamento!G4)))</f>
         <v/>
       </c>
       <c r="H4" t="str" cm="1">
-        <f t="array" ref="H4">IF(OR($B4="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!H4,Matriz_Esforço_Acompanhamento!H4)))</f>
+        <f t="array" ref="H4">IF(OR($B4="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!H4,Matriz_Esforço_Acompanhamento!H4)))</f>
         <v/>
       </c>
       <c r="I4" t="str" cm="1">
-        <f t="array" ref="I4">IF(OR($B4="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!I4,Matriz_Esforço_Acompanhamento!I4)))</f>
+        <f t="array" ref="I4">IF(OR($B4="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!I4,Matriz_Esforço_Acompanhamento!I4)))</f>
         <v/>
       </c>
       <c r="J4" t="str" cm="1">
-        <f t="array" ref="J4">IF(OR($B4="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!J4,Matriz_Esforço_Acompanhamento!J4)))</f>
+        <f t="array" ref="J4">IF(OR($B4="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!J4,Matriz_Esforço_Acompanhamento!J4)))</f>
         <v/>
       </c>
       <c r="K4" t="str" cm="1">
-        <f t="array" ref="K4">IF(OR($B4="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!K4,Matriz_Esforço_Acompanhamento!K4)))</f>
+        <f t="array" ref="K4">IF(OR($B4="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!K4,Matriz_Esforço_Acompanhamento!K4)))</f>
         <v/>
       </c>
       <c r="L4" t="str" cm="1">
-        <f t="array" ref="L4">IF(OR($B4="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!L4,Matriz_Esforço_Acompanhamento!L4)))</f>
+        <f t="array" ref="L4">IF(OR($B4="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!L4,Matriz_Esforço_Acompanhamento!L4)))</f>
         <v/>
       </c>
       <c r="M4" t="str" cm="1">
-        <f t="array" ref="M4">IF(OR($B4="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!M4,Matriz_Esforço_Acompanhamento!M4)))</f>
+        <f t="array" ref="M4">IF(OR($B4="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!M4,Matriz_Esforço_Acompanhamento!M4)))</f>
         <v/>
       </c>
       <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">IF(OR($B4="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!N4,Matriz_Esforço_Acompanhamento!N4)))</f>
+        <f t="array" ref="N4">IF(OR($B4="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!N4,Matriz_Esforço_Acompanhamento!N4)))</f>
         <v/>
       </c>
       <c r="O4" t="str" cm="1">
-        <f t="array" ref="O4">IF(OR($B4="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!O4,Matriz_Esforço_Acompanhamento!O4)))</f>
+        <f t="array" ref="O4">IF(OR($B4="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!O4,Matriz_Esforço_Acompanhamento!O4)))</f>
         <v/>
       </c>
       <c r="P4" t="str" cm="1">
-        <f t="array" ref="P4">IF(OR($B4="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!P4,Matriz_Esforço_Acompanhamento!P4)))</f>
+        <f t="array" ref="P4">IF(OR($B4="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!P4,Matriz_Esforço_Acompanhamento!P4)))</f>
         <v/>
       </c>
       <c r="Q4" t="str" cm="1">
-        <f t="array" ref="Q4">IF(OR($B4="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Q4,Matriz_Esforço_Acompanhamento!Q4)))</f>
+        <f t="array" ref="Q4">IF(OR($B4="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Q4,Matriz_Esforço_Acompanhamento!Q4)))</f>
         <v/>
       </c>
       <c r="R4" t="str" cm="1">
-        <f t="array" ref="R4">IF(OR($B4="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!R4,Matriz_Esforço_Acompanhamento!R4)))</f>
+        <f t="array" ref="R4">IF(OR($B4="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!R4,Matriz_Esforço_Acompanhamento!R4)))</f>
         <v/>
       </c>
       <c r="S4" t="str" cm="1">
-        <f t="array" ref="S4">IF(OR($B4="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!S4,Matriz_Esforço_Acompanhamento!S4)))</f>
+        <f t="array" ref="S4">IF(OR($B4="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!S4,Matriz_Esforço_Acompanhamento!S4)))</f>
         <v/>
       </c>
       <c r="T4" t="str" cm="1">
-        <f t="array" ref="T4">IF(OR($B4="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!T4,Matriz_Esforço_Acompanhamento!T4)))</f>
+        <f t="array" ref="T4">IF(OR($B4="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!T4,Matriz_Esforço_Acompanhamento!T4)))</f>
         <v/>
       </c>
       <c r="U4" t="str" cm="1">
-        <f t="array" ref="U4">IF(OR($B4="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!U4,Matriz_Esforço_Acompanhamento!U4)))</f>
+        <f t="array" ref="U4">IF(OR($B4="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!U4,Matriz_Esforço_Acompanhamento!U4)))</f>
         <v/>
       </c>
       <c r="V4" t="str" cm="1">
-        <f t="array" ref="V4">IF(OR($B4="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!V4,Matriz_Esforço_Acompanhamento!V4)))</f>
+        <f t="array" ref="V4">IF(OR($B4="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!V4,Matriz_Esforço_Acompanhamento!V4)))</f>
         <v/>
       </c>
       <c r="W4" t="str" cm="1">
-        <f t="array" ref="W4">IF(OR($B4="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!W4,Matriz_Esforço_Acompanhamento!W4)))</f>
+        <f t="array" ref="W4">IF(OR($B4="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!W4,Matriz_Esforço_Acompanhamento!W4)))</f>
         <v/>
       </c>
       <c r="X4" t="str" cm="1">
-        <f t="array" ref="X4">IF(OR($B4="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!X4,Matriz_Esforço_Acompanhamento!X4)))</f>
+        <f t="array" ref="X4">IF(OR($B4="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!X4,Matriz_Esforço_Acompanhamento!X4)))</f>
         <v/>
       </c>
       <c r="Y4" t="str" cm="1">
-        <f t="array" ref="Y4">IF(OR($B4="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Y4,Matriz_Esforço_Acompanhamento!Y4)))</f>
+        <f t="array" ref="Y4">IF(OR($B4="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Y4,Matriz_Esforço_Acompanhamento!Y4)))</f>
         <v/>
       </c>
       <c r="Z4" t="str" cm="1">
-        <f t="array" ref="Z4">IF(OR($B4="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Z4,Matriz_Esforço_Acompanhamento!Z4)))</f>
+        <f t="array" ref="Z4">IF(OR($B4="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!Z4,Matriz_Esforço_Acompanhamento!Z4)))</f>
         <v/>
       </c>
       <c r="AA4" t="str" cm="1">
-        <f t="array" ref="AA4">IF(OR($B4="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!AA4,Matriz_Esforço_Acompanhamento!AA4)))</f>
+        <f t="array" ref="AA4">IF(OR($B4="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!AA4,Matriz_Esforço_Acompanhamento!AA4)))</f>
         <v/>
       </c>
       <c r="AB4" t="str" cm="1">
-        <f t="array" ref="AB4">IF(OR($B4="",AB$2=""),"",IF(INDEX(Projetos!AB3:AB36,Matriz_Esforço_Atual!$B4)=2,"",IF(INDEX(Projetos!AB3:AB36,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!AB4,Matriz_Esforço_Acompanhamento!AB4)))</f>
+        <f t="array" ref="AB4">IF(OR($B4="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!AB4,Matriz_Esforço_Acompanhamento!AB4)))</f>
+        <v/>
+      </c>
+      <c r="AC4" t="str" cm="1">
+        <f t="array" ref="AC4">IF(OR($B4="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B4)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B4)=0,Matriz_Esforço_Análise!AC4,Matriz_Esforço_Acompanhamento!AC4)))</f>
         <v/>
       </c>
     </row>
@@ -2248,108 +2256,112 @@
         <f>IF(Projetos!A4&lt;&gt;"",Projetos!A4,"")</f>
         <v>3</v>
       </c>
-      <c r="C5" cm="1">
-        <f t="array" ref="C5">IF(OR($B5="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!C5,Matriz_Esforço_Acompanhamento!C5)))</f>
-        <v>11</v>
+      <c r="C5" t="str" cm="1">
+        <f t="array" ref="C5">IF(OR($B5="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!C5,Matriz_Esforço_Acompanhamento!C5)))</f>
+        <v/>
       </c>
       <c r="D5" cm="1">
-        <f t="array" ref="D5">IF(OR($B5="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!D5,Matriz_Esforço_Acompanhamento!D5)))</f>
+        <f t="array" ref="D5">IF(OR($B5="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!D5,Matriz_Esforço_Acompanhamento!D5)))</f>
         <v>23</v>
       </c>
       <c r="E5" cm="1">
-        <f t="array" ref="E5">IF(OR($B5="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!E5,Matriz_Esforço_Acompanhamento!E5)))</f>
+        <f t="array" ref="E5">IF(OR($B5="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!E5,Matriz_Esforço_Acompanhamento!E5)))</f>
         <v>28</v>
       </c>
       <c r="F5" cm="1">
-        <f t="array" ref="F5">IF(OR($B5="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!F5,Matriz_Esforço_Acompanhamento!F5)))</f>
+        <f t="array" ref="F5">IF(OR($B5="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!F5,Matriz_Esforço_Acompanhamento!F5)))</f>
         <v>19</v>
       </c>
       <c r="G5" cm="1">
-        <f t="array" ref="G5">IF(OR($B5="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!G5,Matriz_Esforço_Acompanhamento!G5)))</f>
+        <f t="array" ref="G5">IF(OR($B5="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!G5,Matriz_Esforço_Acompanhamento!G5)))</f>
         <v>12</v>
       </c>
       <c r="H5" t="str" cm="1">
-        <f t="array" ref="H5">IF(OR($B5="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!H5,Matriz_Esforço_Acompanhamento!H5)))</f>
+        <f t="array" ref="H5">IF(OR($B5="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!H5,Matriz_Esforço_Acompanhamento!H5)))</f>
         <v/>
       </c>
       <c r="I5" t="str" cm="1">
-        <f t="array" ref="I5">IF(OR($B5="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!I5,Matriz_Esforço_Acompanhamento!I5)))</f>
+        <f t="array" ref="I5">IF(OR($B5="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!I5,Matriz_Esforço_Acompanhamento!I5)))</f>
         <v/>
       </c>
       <c r="J5" t="str" cm="1">
-        <f t="array" ref="J5">IF(OR($B5="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!J5,Matriz_Esforço_Acompanhamento!J5)))</f>
+        <f t="array" ref="J5">IF(OR($B5="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!J5,Matriz_Esforço_Acompanhamento!J5)))</f>
         <v/>
       </c>
       <c r="K5" t="str" cm="1">
-        <f t="array" ref="K5">IF(OR($B5="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!K5,Matriz_Esforço_Acompanhamento!K5)))</f>
+        <f t="array" ref="K5">IF(OR($B5="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!K5,Matriz_Esforço_Acompanhamento!K5)))</f>
         <v/>
       </c>
       <c r="L5" t="str" cm="1">
-        <f t="array" ref="L5">IF(OR($B5="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!L5,Matriz_Esforço_Acompanhamento!L5)))</f>
+        <f t="array" ref="L5">IF(OR($B5="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!L5,Matriz_Esforço_Acompanhamento!L5)))</f>
         <v/>
       </c>
       <c r="M5" t="str" cm="1">
-        <f t="array" ref="M5">IF(OR($B5="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!M5,Matriz_Esforço_Acompanhamento!M5)))</f>
+        <f t="array" ref="M5">IF(OR($B5="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!M5,Matriz_Esforço_Acompanhamento!M5)))</f>
         <v/>
       </c>
       <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">IF(OR($B5="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!N5,Matriz_Esforço_Acompanhamento!N5)))</f>
+        <f t="array" ref="N5">IF(OR($B5="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!N5,Matriz_Esforço_Acompanhamento!N5)))</f>
         <v/>
       </c>
       <c r="O5" t="str" cm="1">
-        <f t="array" ref="O5">IF(OR($B5="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!O5,Matriz_Esforço_Acompanhamento!O5)))</f>
+        <f t="array" ref="O5">IF(OR($B5="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!O5,Matriz_Esforço_Acompanhamento!O5)))</f>
         <v/>
       </c>
       <c r="P5" t="str" cm="1">
-        <f t="array" ref="P5">IF(OR($B5="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!P5,Matriz_Esforço_Acompanhamento!P5)))</f>
+        <f t="array" ref="P5">IF(OR($B5="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!P5,Matriz_Esforço_Acompanhamento!P5)))</f>
         <v/>
       </c>
       <c r="Q5" t="str" cm="1">
-        <f t="array" ref="Q5">IF(OR($B5="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Q5,Matriz_Esforço_Acompanhamento!Q5)))</f>
+        <f t="array" ref="Q5">IF(OR($B5="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Q5,Matriz_Esforço_Acompanhamento!Q5)))</f>
         <v/>
       </c>
       <c r="R5" t="str" cm="1">
-        <f t="array" ref="R5">IF(OR($B5="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!R5,Matriz_Esforço_Acompanhamento!R5)))</f>
+        <f t="array" ref="R5">IF(OR($B5="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!R5,Matriz_Esforço_Acompanhamento!R5)))</f>
         <v/>
       </c>
       <c r="S5" t="str" cm="1">
-        <f t="array" ref="S5">IF(OR($B5="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!S5,Matriz_Esforço_Acompanhamento!S5)))</f>
+        <f t="array" ref="S5">IF(OR($B5="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!S5,Matriz_Esforço_Acompanhamento!S5)))</f>
         <v/>
       </c>
       <c r="T5" t="str" cm="1">
-        <f t="array" ref="T5">IF(OR($B5="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!T5,Matriz_Esforço_Acompanhamento!T5)))</f>
+        <f t="array" ref="T5">IF(OR($B5="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!T5,Matriz_Esforço_Acompanhamento!T5)))</f>
         <v/>
       </c>
       <c r="U5" t="str" cm="1">
-        <f t="array" ref="U5">IF(OR($B5="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!U5,Matriz_Esforço_Acompanhamento!U5)))</f>
+        <f t="array" ref="U5">IF(OR($B5="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!U5,Matriz_Esforço_Acompanhamento!U5)))</f>
         <v/>
       </c>
       <c r="V5" t="str" cm="1">
-        <f t="array" ref="V5">IF(OR($B5="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!V5,Matriz_Esforço_Acompanhamento!V5)))</f>
+        <f t="array" ref="V5">IF(OR($B5="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!V5,Matriz_Esforço_Acompanhamento!V5)))</f>
         <v/>
       </c>
       <c r="W5" t="str" cm="1">
-        <f t="array" ref="W5">IF(OR($B5="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!W5,Matriz_Esforço_Acompanhamento!W5)))</f>
+        <f t="array" ref="W5">IF(OR($B5="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!W5,Matriz_Esforço_Acompanhamento!W5)))</f>
         <v/>
       </c>
       <c r="X5" t="str" cm="1">
-        <f t="array" ref="X5">IF(OR($B5="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!X5,Matriz_Esforço_Acompanhamento!X5)))</f>
+        <f t="array" ref="X5">IF(OR($B5="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!X5,Matriz_Esforço_Acompanhamento!X5)))</f>
         <v/>
       </c>
       <c r="Y5" t="str" cm="1">
-        <f t="array" ref="Y5">IF(OR($B5="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Y5,Matriz_Esforço_Acompanhamento!Y5)))</f>
+        <f t="array" ref="Y5">IF(OR($B5="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Y5,Matriz_Esforço_Acompanhamento!Y5)))</f>
         <v/>
       </c>
       <c r="Z5" t="str" cm="1">
-        <f t="array" ref="Z5">IF(OR($B5="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Z5,Matriz_Esforço_Acompanhamento!Z5)))</f>
+        <f t="array" ref="Z5">IF(OR($B5="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!Z5,Matriz_Esforço_Acompanhamento!Z5)))</f>
         <v/>
       </c>
       <c r="AA5" t="str" cm="1">
-        <f t="array" ref="AA5">IF(OR($B5="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!AA5,Matriz_Esforço_Acompanhamento!AA5)))</f>
+        <f t="array" ref="AA5">IF(OR($B5="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!AA5,Matriz_Esforço_Acompanhamento!AA5)))</f>
         <v/>
       </c>
       <c r="AB5" t="str" cm="1">
-        <f t="array" ref="AB5">IF(OR($B5="",AB$2=""),"",IF(INDEX(Projetos!AB4:AB37,Matriz_Esforço_Atual!$B5)=2,"",IF(INDEX(Projetos!AB4:AB37,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!AB5,Matriz_Esforço_Acompanhamento!AB5)))</f>
+        <f t="array" ref="AB5">IF(OR($B5="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!AB5,Matriz_Esforço_Acompanhamento!AB5)))</f>
+        <v/>
+      </c>
+      <c r="AC5" t="str" cm="1">
+        <f t="array" ref="AC5">IF(OR($B5="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B5)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B5)=0,Matriz_Esforço_Análise!AC5,Matriz_Esforço_Acompanhamento!AC5)))</f>
         <v/>
       </c>
     </row>
@@ -2358,108 +2370,112 @@
         <f>IF(Projetos!A5&lt;&gt;"",Projetos!A5,"")</f>
         <v>4</v>
       </c>
-      <c r="C6" cm="1">
-        <f t="array" ref="C6">IF(OR($B6="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!C6,Matriz_Esforço_Acompanhamento!C6)))</f>
-        <v>28</v>
+      <c r="C6" t="str" cm="1">
+        <f t="array" ref="C6">IF(OR($B6="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!C6,Matriz_Esforço_Acompanhamento!C6)))</f>
+        <v/>
       </c>
       <c r="D6" cm="1">
-        <f t="array" ref="D6">IF(OR($B6="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!D6,Matriz_Esforço_Acompanhamento!D6)))</f>
+        <f t="array" ref="D6">IF(OR($B6="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!D6,Matriz_Esforço_Acompanhamento!D6)))</f>
         <v>12</v>
       </c>
       <c r="E6" cm="1">
-        <f t="array" ref="E6">IF(OR($B6="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!E6,Matriz_Esforço_Acompanhamento!E6)))</f>
+        <f t="array" ref="E6">IF(OR($B6="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!E6,Matriz_Esforço_Acompanhamento!E6)))</f>
         <v>20</v>
       </c>
       <c r="F6" cm="1">
-        <f t="array" ref="F6">IF(OR($B6="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!F6,Matriz_Esforço_Acompanhamento!F6)))</f>
+        <f t="array" ref="F6">IF(OR($B6="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!F6,Matriz_Esforço_Acompanhamento!F6)))</f>
         <v>24</v>
       </c>
       <c r="G6" cm="1">
-        <f t="array" ref="G6">IF(OR($B6="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!G6,Matriz_Esforço_Acompanhamento!G6)))</f>
+        <f t="array" ref="G6">IF(OR($B6="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!G6,Matriz_Esforço_Acompanhamento!G6)))</f>
         <v>19</v>
       </c>
       <c r="H6" t="str" cm="1">
-        <f t="array" ref="H6">IF(OR($B6="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!H6,Matriz_Esforço_Acompanhamento!H6)))</f>
+        <f t="array" ref="H6">IF(OR($B6="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!H6,Matriz_Esforço_Acompanhamento!H6)))</f>
         <v/>
       </c>
       <c r="I6" t="str" cm="1">
-        <f t="array" ref="I6">IF(OR($B6="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!I6,Matriz_Esforço_Acompanhamento!I6)))</f>
+        <f t="array" ref="I6">IF(OR($B6="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!I6,Matriz_Esforço_Acompanhamento!I6)))</f>
         <v/>
       </c>
       <c r="J6" t="str" cm="1">
-        <f t="array" ref="J6">IF(OR($B6="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!J6,Matriz_Esforço_Acompanhamento!J6)))</f>
+        <f t="array" ref="J6">IF(OR($B6="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!J6,Matriz_Esforço_Acompanhamento!J6)))</f>
         <v/>
       </c>
       <c r="K6" t="str" cm="1">
-        <f t="array" ref="K6">IF(OR($B6="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!K6,Matriz_Esforço_Acompanhamento!K6)))</f>
+        <f t="array" ref="K6">IF(OR($B6="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!K6,Matriz_Esforço_Acompanhamento!K6)))</f>
         <v/>
       </c>
       <c r="L6" t="str" cm="1">
-        <f t="array" ref="L6">IF(OR($B6="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!L6,Matriz_Esforço_Acompanhamento!L6)))</f>
+        <f t="array" ref="L6">IF(OR($B6="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!L6,Matriz_Esforço_Acompanhamento!L6)))</f>
         <v/>
       </c>
       <c r="M6" t="str" cm="1">
-        <f t="array" ref="M6">IF(OR($B6="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!M6,Matriz_Esforço_Acompanhamento!M6)))</f>
+        <f t="array" ref="M6">IF(OR($B6="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!M6,Matriz_Esforço_Acompanhamento!M6)))</f>
         <v/>
       </c>
       <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">IF(OR($B6="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!N6,Matriz_Esforço_Acompanhamento!N6)))</f>
+        <f t="array" ref="N6">IF(OR($B6="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!N6,Matriz_Esforço_Acompanhamento!N6)))</f>
         <v/>
       </c>
       <c r="O6" t="str" cm="1">
-        <f t="array" ref="O6">IF(OR($B6="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!O6,Matriz_Esforço_Acompanhamento!O6)))</f>
+        <f t="array" ref="O6">IF(OR($B6="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!O6,Matriz_Esforço_Acompanhamento!O6)))</f>
         <v/>
       </c>
       <c r="P6" t="str" cm="1">
-        <f t="array" ref="P6">IF(OR($B6="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!P6,Matriz_Esforço_Acompanhamento!P6)))</f>
+        <f t="array" ref="P6">IF(OR($B6="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!P6,Matriz_Esforço_Acompanhamento!P6)))</f>
         <v/>
       </c>
       <c r="Q6" t="str" cm="1">
-        <f t="array" ref="Q6">IF(OR($B6="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Q6,Matriz_Esforço_Acompanhamento!Q6)))</f>
+        <f t="array" ref="Q6">IF(OR($B6="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Q6,Matriz_Esforço_Acompanhamento!Q6)))</f>
         <v/>
       </c>
       <c r="R6" t="str" cm="1">
-        <f t="array" ref="R6">IF(OR($B6="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!R6,Matriz_Esforço_Acompanhamento!R6)))</f>
+        <f t="array" ref="R6">IF(OR($B6="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!R6,Matriz_Esforço_Acompanhamento!R6)))</f>
         <v/>
       </c>
       <c r="S6" t="str" cm="1">
-        <f t="array" ref="S6">IF(OR($B6="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!S6,Matriz_Esforço_Acompanhamento!S6)))</f>
+        <f t="array" ref="S6">IF(OR($B6="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!S6,Matriz_Esforço_Acompanhamento!S6)))</f>
         <v/>
       </c>
       <c r="T6" t="str" cm="1">
-        <f t="array" ref="T6">IF(OR($B6="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!T6,Matriz_Esforço_Acompanhamento!T6)))</f>
+        <f t="array" ref="T6">IF(OR($B6="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!T6,Matriz_Esforço_Acompanhamento!T6)))</f>
         <v/>
       </c>
       <c r="U6" t="str" cm="1">
-        <f t="array" ref="U6">IF(OR($B6="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!U6,Matriz_Esforço_Acompanhamento!U6)))</f>
+        <f t="array" ref="U6">IF(OR($B6="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!U6,Matriz_Esforço_Acompanhamento!U6)))</f>
         <v/>
       </c>
       <c r="V6" t="str" cm="1">
-        <f t="array" ref="V6">IF(OR($B6="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!V6,Matriz_Esforço_Acompanhamento!V6)))</f>
+        <f t="array" ref="V6">IF(OR($B6="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!V6,Matriz_Esforço_Acompanhamento!V6)))</f>
         <v/>
       </c>
       <c r="W6" t="str" cm="1">
-        <f t="array" ref="W6">IF(OR($B6="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!W6,Matriz_Esforço_Acompanhamento!W6)))</f>
+        <f t="array" ref="W6">IF(OR($B6="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!W6,Matriz_Esforço_Acompanhamento!W6)))</f>
         <v/>
       </c>
       <c r="X6" t="str" cm="1">
-        <f t="array" ref="X6">IF(OR($B6="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!X6,Matriz_Esforço_Acompanhamento!X6)))</f>
+        <f t="array" ref="X6">IF(OR($B6="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!X6,Matriz_Esforço_Acompanhamento!X6)))</f>
         <v/>
       </c>
       <c r="Y6" t="str" cm="1">
-        <f t="array" ref="Y6">IF(OR($B6="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Y6,Matriz_Esforço_Acompanhamento!Y6)))</f>
+        <f t="array" ref="Y6">IF(OR($B6="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Y6,Matriz_Esforço_Acompanhamento!Y6)))</f>
         <v/>
       </c>
       <c r="Z6" t="str" cm="1">
-        <f t="array" ref="Z6">IF(OR($B6="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Z6,Matriz_Esforço_Acompanhamento!Z6)))</f>
+        <f t="array" ref="Z6">IF(OR($B6="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!Z6,Matriz_Esforço_Acompanhamento!Z6)))</f>
         <v/>
       </c>
       <c r="AA6" t="str" cm="1">
-        <f t="array" ref="AA6">IF(OR($B6="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!AA6,Matriz_Esforço_Acompanhamento!AA6)))</f>
+        <f t="array" ref="AA6">IF(OR($B6="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!AA6,Matriz_Esforço_Acompanhamento!AA6)))</f>
         <v/>
       </c>
       <c r="AB6" t="str" cm="1">
-        <f t="array" ref="AB6">IF(OR($B6="",AB$2=""),"",IF(INDEX(Projetos!AB5:AB38,Matriz_Esforço_Atual!$B6)=2,"",IF(INDEX(Projetos!AB5:AB38,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!AB6,Matriz_Esforço_Acompanhamento!AB6)))</f>
+        <f t="array" ref="AB6">IF(OR($B6="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!AB6,Matriz_Esforço_Acompanhamento!AB6)))</f>
+        <v/>
+      </c>
+      <c r="AC6" t="str" cm="1">
+        <f t="array" ref="AC6">IF(OR($B6="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B6)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B6)=0,Matriz_Esforço_Análise!AC6,Matriz_Esforço_Acompanhamento!AC6)))</f>
         <v/>
       </c>
     </row>
@@ -2469,107 +2485,111 @@
         <v>5</v>
       </c>
       <c r="C7" cm="1">
-        <f t="array" ref="C7">IF(OR($B7="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!C7,Matriz_Esforço_Acompanhamento!C7)))</f>
+        <f t="array" ref="C7">IF(OR($B7="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!C7,Matriz_Esforço_Acompanhamento!C7)))</f>
         <v>27</v>
       </c>
       <c r="D7" cm="1">
-        <f t="array" ref="D7">IF(OR($B7="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!D7,Matriz_Esforço_Acompanhamento!D7)))</f>
+        <f t="array" ref="D7">IF(OR($B7="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!D7,Matriz_Esforço_Acompanhamento!D7)))</f>
         <v>23</v>
       </c>
       <c r="E7" cm="1">
-        <f t="array" ref="E7">IF(OR($B7="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!E7,Matriz_Esforço_Acompanhamento!E7)))</f>
+        <f t="array" ref="E7">IF(OR($B7="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!E7,Matriz_Esforço_Acompanhamento!E7)))</f>
         <v>25</v>
       </c>
-      <c r="F7" cm="1">
-        <f t="array" ref="F7">IF(OR($B7="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!F7,Matriz_Esforço_Acompanhamento!F7)))</f>
-        <v>19</v>
+      <c r="F7" t="str" cm="1">
+        <f t="array" ref="F7">IF(OR($B7="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!F7,Matriz_Esforço_Acompanhamento!F7)))</f>
+        <v/>
       </c>
       <c r="G7" cm="1">
-        <f t="array" ref="G7">IF(OR($B7="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!G7,Matriz_Esforço_Acompanhamento!G7)))</f>
+        <f t="array" ref="G7">IF(OR($B7="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!G7,Matriz_Esforço_Acompanhamento!G7)))</f>
         <v>16</v>
       </c>
       <c r="H7" t="str" cm="1">
-        <f t="array" ref="H7">IF(OR($B7="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!H7,Matriz_Esforço_Acompanhamento!H7)))</f>
+        <f t="array" ref="H7">IF(OR($B7="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!H7,Matriz_Esforço_Acompanhamento!H7)))</f>
         <v/>
       </c>
       <c r="I7" t="str" cm="1">
-        <f t="array" ref="I7">IF(OR($B7="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!I7,Matriz_Esforço_Acompanhamento!I7)))</f>
+        <f t="array" ref="I7">IF(OR($B7="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!I7,Matriz_Esforço_Acompanhamento!I7)))</f>
         <v/>
       </c>
       <c r="J7" t="str" cm="1">
-        <f t="array" ref="J7">IF(OR($B7="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!J7,Matriz_Esforço_Acompanhamento!J7)))</f>
+        <f t="array" ref="J7">IF(OR($B7="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!J7,Matriz_Esforço_Acompanhamento!J7)))</f>
         <v/>
       </c>
       <c r="K7" t="str" cm="1">
-        <f t="array" ref="K7">IF(OR($B7="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!K7,Matriz_Esforço_Acompanhamento!K7)))</f>
+        <f t="array" ref="K7">IF(OR($B7="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!K7,Matriz_Esforço_Acompanhamento!K7)))</f>
         <v/>
       </c>
       <c r="L7" t="str" cm="1">
-        <f t="array" ref="L7">IF(OR($B7="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!L7,Matriz_Esforço_Acompanhamento!L7)))</f>
+        <f t="array" ref="L7">IF(OR($B7="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!L7,Matriz_Esforço_Acompanhamento!L7)))</f>
         <v/>
       </c>
       <c r="M7" t="str" cm="1">
-        <f t="array" ref="M7">IF(OR($B7="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!M7,Matriz_Esforço_Acompanhamento!M7)))</f>
+        <f t="array" ref="M7">IF(OR($B7="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!M7,Matriz_Esforço_Acompanhamento!M7)))</f>
         <v/>
       </c>
       <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">IF(OR($B7="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!N7,Matriz_Esforço_Acompanhamento!N7)))</f>
+        <f t="array" ref="N7">IF(OR($B7="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!N7,Matriz_Esforço_Acompanhamento!N7)))</f>
         <v/>
       </c>
       <c r="O7" t="str" cm="1">
-        <f t="array" ref="O7">IF(OR($B7="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!O7,Matriz_Esforço_Acompanhamento!O7)))</f>
+        <f t="array" ref="O7">IF(OR($B7="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!O7,Matriz_Esforço_Acompanhamento!O7)))</f>
         <v/>
       </c>
       <c r="P7" t="str" cm="1">
-        <f t="array" ref="P7">IF(OR($B7="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!P7,Matriz_Esforço_Acompanhamento!P7)))</f>
+        <f t="array" ref="P7">IF(OR($B7="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!P7,Matriz_Esforço_Acompanhamento!P7)))</f>
         <v/>
       </c>
       <c r="Q7" t="str" cm="1">
-        <f t="array" ref="Q7">IF(OR($B7="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Q7,Matriz_Esforço_Acompanhamento!Q7)))</f>
+        <f t="array" ref="Q7">IF(OR($B7="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Q7,Matriz_Esforço_Acompanhamento!Q7)))</f>
         <v/>
       </c>
       <c r="R7" t="str" cm="1">
-        <f t="array" ref="R7">IF(OR($B7="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!R7,Matriz_Esforço_Acompanhamento!R7)))</f>
+        <f t="array" ref="R7">IF(OR($B7="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!R7,Matriz_Esforço_Acompanhamento!R7)))</f>
         <v/>
       </c>
       <c r="S7" t="str" cm="1">
-        <f t="array" ref="S7">IF(OR($B7="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!S7,Matriz_Esforço_Acompanhamento!S7)))</f>
+        <f t="array" ref="S7">IF(OR($B7="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!S7,Matriz_Esforço_Acompanhamento!S7)))</f>
         <v/>
       </c>
       <c r="T7" t="str" cm="1">
-        <f t="array" ref="T7">IF(OR($B7="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!T7,Matriz_Esforço_Acompanhamento!T7)))</f>
+        <f t="array" ref="T7">IF(OR($B7="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!T7,Matriz_Esforço_Acompanhamento!T7)))</f>
         <v/>
       </c>
       <c r="U7" t="str" cm="1">
-        <f t="array" ref="U7">IF(OR($B7="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!U7,Matriz_Esforço_Acompanhamento!U7)))</f>
+        <f t="array" ref="U7">IF(OR($B7="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!U7,Matriz_Esforço_Acompanhamento!U7)))</f>
         <v/>
       </c>
       <c r="V7" t="str" cm="1">
-        <f t="array" ref="V7">IF(OR($B7="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!V7,Matriz_Esforço_Acompanhamento!V7)))</f>
+        <f t="array" ref="V7">IF(OR($B7="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!V7,Matriz_Esforço_Acompanhamento!V7)))</f>
         <v/>
       </c>
       <c r="W7" t="str" cm="1">
-        <f t="array" ref="W7">IF(OR($B7="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!W7,Matriz_Esforço_Acompanhamento!W7)))</f>
+        <f t="array" ref="W7">IF(OR($B7="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!W7,Matriz_Esforço_Acompanhamento!W7)))</f>
         <v/>
       </c>
       <c r="X7" t="str" cm="1">
-        <f t="array" ref="X7">IF(OR($B7="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!X7,Matriz_Esforço_Acompanhamento!X7)))</f>
+        <f t="array" ref="X7">IF(OR($B7="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!X7,Matriz_Esforço_Acompanhamento!X7)))</f>
         <v/>
       </c>
       <c r="Y7" t="str" cm="1">
-        <f t="array" ref="Y7">IF(OR($B7="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Y7,Matriz_Esforço_Acompanhamento!Y7)))</f>
+        <f t="array" ref="Y7">IF(OR($B7="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Y7,Matriz_Esforço_Acompanhamento!Y7)))</f>
         <v/>
       </c>
       <c r="Z7" t="str" cm="1">
-        <f t="array" ref="Z7">IF(OR($B7="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Z7,Matriz_Esforço_Acompanhamento!Z7)))</f>
+        <f t="array" ref="Z7">IF(OR($B7="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!Z7,Matriz_Esforço_Acompanhamento!Z7)))</f>
         <v/>
       </c>
       <c r="AA7" t="str" cm="1">
-        <f t="array" ref="AA7">IF(OR($B7="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!AA7,Matriz_Esforço_Acompanhamento!AA7)))</f>
+        <f t="array" ref="AA7">IF(OR($B7="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!AA7,Matriz_Esforço_Acompanhamento!AA7)))</f>
         <v/>
       </c>
       <c r="AB7" t="str" cm="1">
-        <f t="array" ref="AB7">IF(OR($B7="",AB$2=""),"",IF(INDEX(Projetos!AB6:AB39,Matriz_Esforço_Atual!$B7)=2,"",IF(INDEX(Projetos!AB6:AB39,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!AB7,Matriz_Esforço_Acompanhamento!AB7)))</f>
+        <f t="array" ref="AB7">IF(OR($B7="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!AB7,Matriz_Esforço_Acompanhamento!AB7)))</f>
+        <v/>
+      </c>
+      <c r="AC7" t="str" cm="1">
+        <f t="array" ref="AC7">IF(OR($B7="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B7)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B7)=0,Matriz_Esforço_Análise!AC7,Matriz_Esforço_Acompanhamento!AC7)))</f>
         <v/>
       </c>
     </row>
@@ -2579,107 +2599,111 @@
         <v>6</v>
       </c>
       <c r="C8" cm="1">
-        <f t="array" ref="C8">IF(OR($B8="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!C8,Matriz_Esforço_Acompanhamento!C8)))</f>
+        <f t="array" ref="C8">IF(OR($B8="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!C8,Matriz_Esforço_Acompanhamento!C8)))</f>
         <v>7</v>
       </c>
-      <c r="D8" cm="1">
-        <f t="array" ref="D8">IF(OR($B8="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!D8,Matriz_Esforço_Acompanhamento!D8)))</f>
-        <v>8</v>
+      <c r="D8" t="str" cm="1">
+        <f t="array" ref="D8">IF(OR($B8="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!D8,Matriz_Esforço_Acompanhamento!D8)))</f>
+        <v/>
       </c>
       <c r="E8" cm="1">
-        <f t="array" ref="E8">IF(OR($B8="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!E8,Matriz_Esforço_Acompanhamento!E8)))</f>
+        <f t="array" ref="E8">IF(OR($B8="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!E8,Matriz_Esforço_Acompanhamento!E8)))</f>
         <v>7</v>
       </c>
       <c r="F8" cm="1">
-        <f t="array" ref="F8">IF(OR($B8="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!F8,Matriz_Esforço_Acompanhamento!F8)))</f>
+        <f t="array" ref="F8">IF(OR($B8="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!F8,Matriz_Esforço_Acompanhamento!F8)))</f>
         <v>6</v>
       </c>
       <c r="G8" cm="1">
-        <f t="array" ref="G8">IF(OR($B8="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!G8,Matriz_Esforço_Acompanhamento!G8)))</f>
+        <f t="array" ref="G8">IF(OR($B8="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!G8,Matriz_Esforço_Acompanhamento!G8)))</f>
         <v>9</v>
       </c>
       <c r="H8" t="str" cm="1">
-        <f t="array" ref="H8">IF(OR($B8="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!H8,Matriz_Esforço_Acompanhamento!H8)))</f>
+        <f t="array" ref="H8">IF(OR($B8="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!H8,Matriz_Esforço_Acompanhamento!H8)))</f>
         <v/>
       </c>
       <c r="I8" t="str" cm="1">
-        <f t="array" ref="I8">IF(OR($B8="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!I8,Matriz_Esforço_Acompanhamento!I8)))</f>
+        <f t="array" ref="I8">IF(OR($B8="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!I8,Matriz_Esforço_Acompanhamento!I8)))</f>
         <v/>
       </c>
       <c r="J8" t="str" cm="1">
-        <f t="array" ref="J8">IF(OR($B8="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!J8,Matriz_Esforço_Acompanhamento!J8)))</f>
+        <f t="array" ref="J8">IF(OR($B8="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!J8,Matriz_Esforço_Acompanhamento!J8)))</f>
         <v/>
       </c>
       <c r="K8" t="str" cm="1">
-        <f t="array" ref="K8">IF(OR($B8="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!K8,Matriz_Esforço_Acompanhamento!K8)))</f>
+        <f t="array" ref="K8">IF(OR($B8="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!K8,Matriz_Esforço_Acompanhamento!K8)))</f>
         <v/>
       </c>
       <c r="L8" t="str" cm="1">
-        <f t="array" ref="L8">IF(OR($B8="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!L8,Matriz_Esforço_Acompanhamento!L8)))</f>
+        <f t="array" ref="L8">IF(OR($B8="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!L8,Matriz_Esforço_Acompanhamento!L8)))</f>
         <v/>
       </c>
       <c r="M8" t="str" cm="1">
-        <f t="array" ref="M8">IF(OR($B8="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!M8,Matriz_Esforço_Acompanhamento!M8)))</f>
+        <f t="array" ref="M8">IF(OR($B8="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!M8,Matriz_Esforço_Acompanhamento!M8)))</f>
         <v/>
       </c>
       <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">IF(OR($B8="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!N8,Matriz_Esforço_Acompanhamento!N8)))</f>
+        <f t="array" ref="N8">IF(OR($B8="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!N8,Matriz_Esforço_Acompanhamento!N8)))</f>
         <v/>
       </c>
       <c r="O8" t="str" cm="1">
-        <f t="array" ref="O8">IF(OR($B8="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!O8,Matriz_Esforço_Acompanhamento!O8)))</f>
+        <f t="array" ref="O8">IF(OR($B8="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!O8,Matriz_Esforço_Acompanhamento!O8)))</f>
         <v/>
       </c>
       <c r="P8" t="str" cm="1">
-        <f t="array" ref="P8">IF(OR($B8="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!P8,Matriz_Esforço_Acompanhamento!P8)))</f>
+        <f t="array" ref="P8">IF(OR($B8="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!P8,Matriz_Esforço_Acompanhamento!P8)))</f>
         <v/>
       </c>
       <c r="Q8" t="str" cm="1">
-        <f t="array" ref="Q8">IF(OR($B8="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Q8,Matriz_Esforço_Acompanhamento!Q8)))</f>
+        <f t="array" ref="Q8">IF(OR($B8="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Q8,Matriz_Esforço_Acompanhamento!Q8)))</f>
         <v/>
       </c>
       <c r="R8" t="str" cm="1">
-        <f t="array" ref="R8">IF(OR($B8="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!R8,Matriz_Esforço_Acompanhamento!R8)))</f>
+        <f t="array" ref="R8">IF(OR($B8="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!R8,Matriz_Esforço_Acompanhamento!R8)))</f>
         <v/>
       </c>
       <c r="S8" t="str" cm="1">
-        <f t="array" ref="S8">IF(OR($B8="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!S8,Matriz_Esforço_Acompanhamento!S8)))</f>
+        <f t="array" ref="S8">IF(OR($B8="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!S8,Matriz_Esforço_Acompanhamento!S8)))</f>
         <v/>
       </c>
       <c r="T8" t="str" cm="1">
-        <f t="array" ref="T8">IF(OR($B8="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!T8,Matriz_Esforço_Acompanhamento!T8)))</f>
+        <f t="array" ref="T8">IF(OR($B8="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!T8,Matriz_Esforço_Acompanhamento!T8)))</f>
         <v/>
       </c>
       <c r="U8" t="str" cm="1">
-        <f t="array" ref="U8">IF(OR($B8="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!U8,Matriz_Esforço_Acompanhamento!U8)))</f>
+        <f t="array" ref="U8">IF(OR($B8="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!U8,Matriz_Esforço_Acompanhamento!U8)))</f>
         <v/>
       </c>
       <c r="V8" t="str" cm="1">
-        <f t="array" ref="V8">IF(OR($B8="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!V8,Matriz_Esforço_Acompanhamento!V8)))</f>
+        <f t="array" ref="V8">IF(OR($B8="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!V8,Matriz_Esforço_Acompanhamento!V8)))</f>
         <v/>
       </c>
       <c r="W8" t="str" cm="1">
-        <f t="array" ref="W8">IF(OR($B8="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!W8,Matriz_Esforço_Acompanhamento!W8)))</f>
+        <f t="array" ref="W8">IF(OR($B8="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!W8,Matriz_Esforço_Acompanhamento!W8)))</f>
         <v/>
       </c>
       <c r="X8" t="str" cm="1">
-        <f t="array" ref="X8">IF(OR($B8="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!X8,Matriz_Esforço_Acompanhamento!X8)))</f>
+        <f t="array" ref="X8">IF(OR($B8="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!X8,Matriz_Esforço_Acompanhamento!X8)))</f>
         <v/>
       </c>
       <c r="Y8" t="str" cm="1">
-        <f t="array" ref="Y8">IF(OR($B8="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Y8,Matriz_Esforço_Acompanhamento!Y8)))</f>
+        <f t="array" ref="Y8">IF(OR($B8="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Y8,Matriz_Esforço_Acompanhamento!Y8)))</f>
         <v/>
       </c>
       <c r="Z8" t="str" cm="1">
-        <f t="array" ref="Z8">IF(OR($B8="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Z8,Matriz_Esforço_Acompanhamento!Z8)))</f>
+        <f t="array" ref="Z8">IF(OR($B8="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!Z8,Matriz_Esforço_Acompanhamento!Z8)))</f>
         <v/>
       </c>
       <c r="AA8" t="str" cm="1">
-        <f t="array" ref="AA8">IF(OR($B8="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!AA8,Matriz_Esforço_Acompanhamento!AA8)))</f>
+        <f t="array" ref="AA8">IF(OR($B8="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!AA8,Matriz_Esforço_Acompanhamento!AA8)))</f>
         <v/>
       </c>
       <c r="AB8" t="str" cm="1">
-        <f t="array" ref="AB8">IF(OR($B8="",AB$2=""),"",IF(INDEX(Projetos!AB7:AB40,Matriz_Esforço_Atual!$B8)=2,"",IF(INDEX(Projetos!AB7:AB40,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!AB8,Matriz_Esforço_Acompanhamento!AB8)))</f>
+        <f t="array" ref="AB8">IF(OR($B8="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!AB8,Matriz_Esforço_Acompanhamento!AB8)))</f>
+        <v/>
+      </c>
+      <c r="AC8" t="str" cm="1">
+        <f t="array" ref="AC8">IF(OR($B8="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B8)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B8)=0,Matriz_Esforço_Análise!AC8,Matriz_Esforço_Acompanhamento!AC8)))</f>
         <v/>
       </c>
     </row>
@@ -2689,107 +2713,111 @@
         <v>7</v>
       </c>
       <c r="C9" cm="1">
-        <f t="array" ref="C9">IF(OR($B9="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!C9,Matriz_Esforço_Acompanhamento!C9)))</f>
+        <f t="array" ref="C9">IF(OR($B9="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!C9,Matriz_Esforço_Acompanhamento!C9)))</f>
         <v>5</v>
       </c>
-      <c r="D9" cm="1">
-        <f t="array" ref="D9">IF(OR($B9="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!D9,Matriz_Esforço_Acompanhamento!D9)))</f>
-        <v>7</v>
+      <c r="D9" t="str" cm="1">
+        <f t="array" ref="D9">IF(OR($B9="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!D9,Matriz_Esforço_Acompanhamento!D9)))</f>
+        <v/>
       </c>
       <c r="E9" cm="1">
-        <f t="array" ref="E9">IF(OR($B9="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!E9,Matriz_Esforço_Acompanhamento!E9)))</f>
+        <f t="array" ref="E9">IF(OR($B9="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!E9,Matriz_Esforço_Acompanhamento!E9)))</f>
         <v>10</v>
       </c>
       <c r="F9" cm="1">
-        <f t="array" ref="F9">IF(OR($B9="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!F9,Matriz_Esforço_Acompanhamento!F9)))</f>
+        <f t="array" ref="F9">IF(OR($B9="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!F9,Matriz_Esforço_Acompanhamento!F9)))</f>
         <v>5</v>
       </c>
       <c r="G9" cm="1">
-        <f t="array" ref="G9">IF(OR($B9="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!G9,Matriz_Esforço_Acompanhamento!G9)))</f>
+        <f t="array" ref="G9">IF(OR($B9="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!G9,Matriz_Esforço_Acompanhamento!G9)))</f>
         <v>5</v>
       </c>
       <c r="H9" t="str" cm="1">
-        <f t="array" ref="H9">IF(OR($B9="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!H9,Matriz_Esforço_Acompanhamento!H9)))</f>
+        <f t="array" ref="H9">IF(OR($B9="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!H9,Matriz_Esforço_Acompanhamento!H9)))</f>
         <v/>
       </c>
       <c r="I9" t="str" cm="1">
-        <f t="array" ref="I9">IF(OR($B9="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!I9,Matriz_Esforço_Acompanhamento!I9)))</f>
+        <f t="array" ref="I9">IF(OR($B9="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!I9,Matriz_Esforço_Acompanhamento!I9)))</f>
         <v/>
       </c>
       <c r="J9" t="str" cm="1">
-        <f t="array" ref="J9">IF(OR($B9="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!J9,Matriz_Esforço_Acompanhamento!J9)))</f>
+        <f t="array" ref="J9">IF(OR($B9="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!J9,Matriz_Esforço_Acompanhamento!J9)))</f>
         <v/>
       </c>
       <c r="K9" t="str" cm="1">
-        <f t="array" ref="K9">IF(OR($B9="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!K9,Matriz_Esforço_Acompanhamento!K9)))</f>
+        <f t="array" ref="K9">IF(OR($B9="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!K9,Matriz_Esforço_Acompanhamento!K9)))</f>
         <v/>
       </c>
       <c r="L9" t="str" cm="1">
-        <f t="array" ref="L9">IF(OR($B9="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!L9,Matriz_Esforço_Acompanhamento!L9)))</f>
+        <f t="array" ref="L9">IF(OR($B9="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!L9,Matriz_Esforço_Acompanhamento!L9)))</f>
         <v/>
       </c>
       <c r="M9" t="str" cm="1">
-        <f t="array" ref="M9">IF(OR($B9="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!M9,Matriz_Esforço_Acompanhamento!M9)))</f>
+        <f t="array" ref="M9">IF(OR($B9="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!M9,Matriz_Esforço_Acompanhamento!M9)))</f>
         <v/>
       </c>
       <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">IF(OR($B9="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!N9,Matriz_Esforço_Acompanhamento!N9)))</f>
+        <f t="array" ref="N9">IF(OR($B9="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!N9,Matriz_Esforço_Acompanhamento!N9)))</f>
         <v/>
       </c>
       <c r="O9" t="str" cm="1">
-        <f t="array" ref="O9">IF(OR($B9="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!O9,Matriz_Esforço_Acompanhamento!O9)))</f>
+        <f t="array" ref="O9">IF(OR($B9="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!O9,Matriz_Esforço_Acompanhamento!O9)))</f>
         <v/>
       </c>
       <c r="P9" t="str" cm="1">
-        <f t="array" ref="P9">IF(OR($B9="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!P9,Matriz_Esforço_Acompanhamento!P9)))</f>
+        <f t="array" ref="P9">IF(OR($B9="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!P9,Matriz_Esforço_Acompanhamento!P9)))</f>
         <v/>
       </c>
       <c r="Q9" t="str" cm="1">
-        <f t="array" ref="Q9">IF(OR($B9="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Q9,Matriz_Esforço_Acompanhamento!Q9)))</f>
+        <f t="array" ref="Q9">IF(OR($B9="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Q9,Matriz_Esforço_Acompanhamento!Q9)))</f>
         <v/>
       </c>
       <c r="R9" t="str" cm="1">
-        <f t="array" ref="R9">IF(OR($B9="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!R9,Matriz_Esforço_Acompanhamento!R9)))</f>
+        <f t="array" ref="R9">IF(OR($B9="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!R9,Matriz_Esforço_Acompanhamento!R9)))</f>
         <v/>
       </c>
       <c r="S9" t="str" cm="1">
-        <f t="array" ref="S9">IF(OR($B9="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!S9,Matriz_Esforço_Acompanhamento!S9)))</f>
+        <f t="array" ref="S9">IF(OR($B9="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!S9,Matriz_Esforço_Acompanhamento!S9)))</f>
         <v/>
       </c>
       <c r="T9" t="str" cm="1">
-        <f t="array" ref="T9">IF(OR($B9="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!T9,Matriz_Esforço_Acompanhamento!T9)))</f>
+        <f t="array" ref="T9">IF(OR($B9="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!T9,Matriz_Esforço_Acompanhamento!T9)))</f>
         <v/>
       </c>
       <c r="U9" t="str" cm="1">
-        <f t="array" ref="U9">IF(OR($B9="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!U9,Matriz_Esforço_Acompanhamento!U9)))</f>
+        <f t="array" ref="U9">IF(OR($B9="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!U9,Matriz_Esforço_Acompanhamento!U9)))</f>
         <v/>
       </c>
       <c r="V9" t="str" cm="1">
-        <f t="array" ref="V9">IF(OR($B9="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!V9,Matriz_Esforço_Acompanhamento!V9)))</f>
+        <f t="array" ref="V9">IF(OR($B9="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!V9,Matriz_Esforço_Acompanhamento!V9)))</f>
         <v/>
       </c>
       <c r="W9" t="str" cm="1">
-        <f t="array" ref="W9">IF(OR($B9="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!W9,Matriz_Esforço_Acompanhamento!W9)))</f>
+        <f t="array" ref="W9">IF(OR($B9="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!W9,Matriz_Esforço_Acompanhamento!W9)))</f>
         <v/>
       </c>
       <c r="X9" t="str" cm="1">
-        <f t="array" ref="X9">IF(OR($B9="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!X9,Matriz_Esforço_Acompanhamento!X9)))</f>
+        <f t="array" ref="X9">IF(OR($B9="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!X9,Matriz_Esforço_Acompanhamento!X9)))</f>
         <v/>
       </c>
       <c r="Y9" t="str" cm="1">
-        <f t="array" ref="Y9">IF(OR($B9="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Y9,Matriz_Esforço_Acompanhamento!Y9)))</f>
+        <f t="array" ref="Y9">IF(OR($B9="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Y9,Matriz_Esforço_Acompanhamento!Y9)))</f>
         <v/>
       </c>
       <c r="Z9" t="str" cm="1">
-        <f t="array" ref="Z9">IF(OR($B9="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Z9,Matriz_Esforço_Acompanhamento!Z9)))</f>
+        <f t="array" ref="Z9">IF(OR($B9="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!Z9,Matriz_Esforço_Acompanhamento!Z9)))</f>
         <v/>
       </c>
       <c r="AA9" t="str" cm="1">
-        <f t="array" ref="AA9">IF(OR($B9="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!AA9,Matriz_Esforço_Acompanhamento!AA9)))</f>
+        <f t="array" ref="AA9">IF(OR($B9="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!AA9,Matriz_Esforço_Acompanhamento!AA9)))</f>
         <v/>
       </c>
       <c r="AB9" t="str" cm="1">
-        <f t="array" ref="AB9">IF(OR($B9="",AB$2=""),"",IF(INDEX(Projetos!AB8:AB41,Matriz_Esforço_Atual!$B9)=2,"",IF(INDEX(Projetos!AB8:AB41,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!AB9,Matriz_Esforço_Acompanhamento!AB9)))</f>
+        <f t="array" ref="AB9">IF(OR($B9="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!AB9,Matriz_Esforço_Acompanhamento!AB9)))</f>
+        <v/>
+      </c>
+      <c r="AC9" t="str" cm="1">
+        <f t="array" ref="AC9">IF(OR($B9="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B9)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B9)=0,Matriz_Esforço_Análise!AC9,Matriz_Esforço_Acompanhamento!AC9)))</f>
         <v/>
       </c>
     </row>
@@ -2799,107 +2827,111 @@
         <v>8</v>
       </c>
       <c r="C10" cm="1">
-        <f t="array" ref="C10">IF(OR($B10="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!C10,Matriz_Esforço_Acompanhamento!C10)))</f>
+        <f t="array" ref="C10">IF(OR($B10="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!C10,Matriz_Esforço_Acompanhamento!C10)))</f>
         <v>8</v>
       </c>
       <c r="D10" cm="1">
-        <f t="array" ref="D10">IF(OR($B10="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!D10,Matriz_Esforço_Acompanhamento!D10)))</f>
+        <f t="array" ref="D10">IF(OR($B10="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!D10,Matriz_Esforço_Acompanhamento!D10)))</f>
         <v>8</v>
       </c>
       <c r="E10" cm="1">
-        <f t="array" ref="E10">IF(OR($B10="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!E10,Matriz_Esforço_Acompanhamento!E10)))</f>
+        <f t="array" ref="E10">IF(OR($B10="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!E10,Matriz_Esforço_Acompanhamento!E10)))</f>
         <v>10</v>
       </c>
       <c r="F10" cm="1">
-        <f t="array" ref="F10">IF(OR($B10="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!F10,Matriz_Esforço_Acompanhamento!F10)))</f>
+        <f t="array" ref="F10">IF(OR($B10="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!F10,Matriz_Esforço_Acompanhamento!F10)))</f>
         <v>7</v>
       </c>
-      <c r="G10" cm="1">
-        <f t="array" ref="G10">IF(OR($B10="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!G10,Matriz_Esforço_Acompanhamento!G10)))</f>
-        <v>5</v>
+      <c r="G10" t="str" cm="1">
+        <f t="array" ref="G10">IF(OR($B10="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!G10,Matriz_Esforço_Acompanhamento!G10)))</f>
+        <v/>
       </c>
       <c r="H10" t="str" cm="1">
-        <f t="array" ref="H10">IF(OR($B10="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!H10,Matriz_Esforço_Acompanhamento!H10)))</f>
+        <f t="array" ref="H10">IF(OR($B10="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!H10,Matriz_Esforço_Acompanhamento!H10)))</f>
         <v/>
       </c>
       <c r="I10" t="str" cm="1">
-        <f t="array" ref="I10">IF(OR($B10="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!I10,Matriz_Esforço_Acompanhamento!I10)))</f>
+        <f t="array" ref="I10">IF(OR($B10="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!I10,Matriz_Esforço_Acompanhamento!I10)))</f>
         <v/>
       </c>
       <c r="J10" t="str" cm="1">
-        <f t="array" ref="J10">IF(OR($B10="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!J10,Matriz_Esforço_Acompanhamento!J10)))</f>
+        <f t="array" ref="J10">IF(OR($B10="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!J10,Matriz_Esforço_Acompanhamento!J10)))</f>
         <v/>
       </c>
       <c r="K10" t="str" cm="1">
-        <f t="array" ref="K10">IF(OR($B10="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!K10,Matriz_Esforço_Acompanhamento!K10)))</f>
+        <f t="array" ref="K10">IF(OR($B10="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!K10,Matriz_Esforço_Acompanhamento!K10)))</f>
         <v/>
       </c>
       <c r="L10" t="str" cm="1">
-        <f t="array" ref="L10">IF(OR($B10="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!L10,Matriz_Esforço_Acompanhamento!L10)))</f>
+        <f t="array" ref="L10">IF(OR($B10="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!L10,Matriz_Esforço_Acompanhamento!L10)))</f>
         <v/>
       </c>
       <c r="M10" t="str" cm="1">
-        <f t="array" ref="M10">IF(OR($B10="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!M10,Matriz_Esforço_Acompanhamento!M10)))</f>
+        <f t="array" ref="M10">IF(OR($B10="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!M10,Matriz_Esforço_Acompanhamento!M10)))</f>
         <v/>
       </c>
       <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">IF(OR($B10="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!N10,Matriz_Esforço_Acompanhamento!N10)))</f>
+        <f t="array" ref="N10">IF(OR($B10="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!N10,Matriz_Esforço_Acompanhamento!N10)))</f>
         <v/>
       </c>
       <c r="O10" t="str" cm="1">
-        <f t="array" ref="O10">IF(OR($B10="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!O10,Matriz_Esforço_Acompanhamento!O10)))</f>
+        <f t="array" ref="O10">IF(OR($B10="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!O10,Matriz_Esforço_Acompanhamento!O10)))</f>
         <v/>
       </c>
       <c r="P10" t="str" cm="1">
-        <f t="array" ref="P10">IF(OR($B10="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!P10,Matriz_Esforço_Acompanhamento!P10)))</f>
+        <f t="array" ref="P10">IF(OR($B10="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!P10,Matriz_Esforço_Acompanhamento!P10)))</f>
         <v/>
       </c>
       <c r="Q10" t="str" cm="1">
-        <f t="array" ref="Q10">IF(OR($B10="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Q10,Matriz_Esforço_Acompanhamento!Q10)))</f>
+        <f t="array" ref="Q10">IF(OR($B10="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Q10,Matriz_Esforço_Acompanhamento!Q10)))</f>
         <v/>
       </c>
       <c r="R10" t="str" cm="1">
-        <f t="array" ref="R10">IF(OR($B10="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!R10,Matriz_Esforço_Acompanhamento!R10)))</f>
+        <f t="array" ref="R10">IF(OR($B10="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!R10,Matriz_Esforço_Acompanhamento!R10)))</f>
         <v/>
       </c>
       <c r="S10" t="str" cm="1">
-        <f t="array" ref="S10">IF(OR($B10="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!S10,Matriz_Esforço_Acompanhamento!S10)))</f>
+        <f t="array" ref="S10">IF(OR($B10="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!S10,Matriz_Esforço_Acompanhamento!S10)))</f>
         <v/>
       </c>
       <c r="T10" t="str" cm="1">
-        <f t="array" ref="T10">IF(OR($B10="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!T10,Matriz_Esforço_Acompanhamento!T10)))</f>
+        <f t="array" ref="T10">IF(OR($B10="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!T10,Matriz_Esforço_Acompanhamento!T10)))</f>
         <v/>
       </c>
       <c r="U10" t="str" cm="1">
-        <f t="array" ref="U10">IF(OR($B10="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!U10,Matriz_Esforço_Acompanhamento!U10)))</f>
+        <f t="array" ref="U10">IF(OR($B10="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!U10,Matriz_Esforço_Acompanhamento!U10)))</f>
         <v/>
       </c>
       <c r="V10" t="str" cm="1">
-        <f t="array" ref="V10">IF(OR($B10="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!V10,Matriz_Esforço_Acompanhamento!V10)))</f>
+        <f t="array" ref="V10">IF(OR($B10="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!V10,Matriz_Esforço_Acompanhamento!V10)))</f>
         <v/>
       </c>
       <c r="W10" t="str" cm="1">
-        <f t="array" ref="W10">IF(OR($B10="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!W10,Matriz_Esforço_Acompanhamento!W10)))</f>
+        <f t="array" ref="W10">IF(OR($B10="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!W10,Matriz_Esforço_Acompanhamento!W10)))</f>
         <v/>
       </c>
       <c r="X10" t="str" cm="1">
-        <f t="array" ref="X10">IF(OR($B10="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!X10,Matriz_Esforço_Acompanhamento!X10)))</f>
+        <f t="array" ref="X10">IF(OR($B10="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!X10,Matriz_Esforço_Acompanhamento!X10)))</f>
         <v/>
       </c>
       <c r="Y10" t="str" cm="1">
-        <f t="array" ref="Y10">IF(OR($B10="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Y10,Matriz_Esforço_Acompanhamento!Y10)))</f>
+        <f t="array" ref="Y10">IF(OR($B10="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Y10,Matriz_Esforço_Acompanhamento!Y10)))</f>
         <v/>
       </c>
       <c r="Z10" t="str" cm="1">
-        <f t="array" ref="Z10">IF(OR($B10="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Z10,Matriz_Esforço_Acompanhamento!Z10)))</f>
+        <f t="array" ref="Z10">IF(OR($B10="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!Z10,Matriz_Esforço_Acompanhamento!Z10)))</f>
         <v/>
       </c>
       <c r="AA10" t="str" cm="1">
-        <f t="array" ref="AA10">IF(OR($B10="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!AA10,Matriz_Esforço_Acompanhamento!AA10)))</f>
+        <f t="array" ref="AA10">IF(OR($B10="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!AA10,Matriz_Esforço_Acompanhamento!AA10)))</f>
         <v/>
       </c>
       <c r="AB10" t="str" cm="1">
-        <f t="array" ref="AB10">IF(OR($B10="",AB$2=""),"",IF(INDEX(Projetos!AB9:AB42,Matriz_Esforço_Atual!$B10)=2,"",IF(INDEX(Projetos!AB9:AB42,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!AB10,Matriz_Esforço_Acompanhamento!AB10)))</f>
+        <f t="array" ref="AB10">IF(OR($B10="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!AB10,Matriz_Esforço_Acompanhamento!AB10)))</f>
+        <v/>
+      </c>
+      <c r="AC10" t="str" cm="1">
+        <f t="array" ref="AC10">IF(OR($B10="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B10)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B10)=0,Matriz_Esforço_Análise!AC10,Matriz_Esforço_Acompanhamento!AC10)))</f>
         <v/>
       </c>
     </row>
@@ -2909,107 +2941,111 @@
         <v>9</v>
       </c>
       <c r="C11" cm="1">
-        <f t="array" ref="C11">IF(OR($B11="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!C11,Matriz_Esforço_Acompanhamento!C11)))</f>
+        <f t="array" ref="C11">IF(OR($B11="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!C11,Matriz_Esforço_Acompanhamento!C11)))</f>
         <v>28</v>
       </c>
-      <c r="D11" cm="1">
-        <f t="array" ref="D11">IF(OR($B11="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!D11,Matriz_Esforço_Acompanhamento!D11)))</f>
-        <v>12</v>
+      <c r="D11" t="str" cm="1">
+        <f t="array" ref="D11">IF(OR($B11="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!D11,Matriz_Esforço_Acompanhamento!D11)))</f>
+        <v/>
       </c>
       <c r="E11" cm="1">
-        <f t="array" ref="E11">IF(OR($B11="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!E11,Matriz_Esforço_Acompanhamento!E11)))</f>
+        <f t="array" ref="E11">IF(OR($B11="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!E11,Matriz_Esforço_Acompanhamento!E11)))</f>
         <v>21</v>
       </c>
       <c r="F11" cm="1">
-        <f t="array" ref="F11">IF(OR($B11="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!F11,Matriz_Esforço_Acompanhamento!F11)))</f>
+        <f t="array" ref="F11">IF(OR($B11="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!F11,Matriz_Esforço_Acompanhamento!F11)))</f>
         <v>27</v>
       </c>
       <c r="G11" cm="1">
-        <f t="array" ref="G11">IF(OR($B11="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!G11,Matriz_Esforço_Acompanhamento!G11)))</f>
+        <f t="array" ref="G11">IF(OR($B11="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!G11,Matriz_Esforço_Acompanhamento!G11)))</f>
         <v>29</v>
       </c>
       <c r="H11" t="str" cm="1">
-        <f t="array" ref="H11">IF(OR($B11="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!H11,Matriz_Esforço_Acompanhamento!H11)))</f>
+        <f t="array" ref="H11">IF(OR($B11="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!H11,Matriz_Esforço_Acompanhamento!H11)))</f>
         <v/>
       </c>
       <c r="I11" t="str" cm="1">
-        <f t="array" ref="I11">IF(OR($B11="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!I11,Matriz_Esforço_Acompanhamento!I11)))</f>
+        <f t="array" ref="I11">IF(OR($B11="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!I11,Matriz_Esforço_Acompanhamento!I11)))</f>
         <v/>
       </c>
       <c r="J11" t="str" cm="1">
-        <f t="array" ref="J11">IF(OR($B11="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!J11,Matriz_Esforço_Acompanhamento!J11)))</f>
+        <f t="array" ref="J11">IF(OR($B11="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!J11,Matriz_Esforço_Acompanhamento!J11)))</f>
         <v/>
       </c>
       <c r="K11" t="str" cm="1">
-        <f t="array" ref="K11">IF(OR($B11="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!K11,Matriz_Esforço_Acompanhamento!K11)))</f>
+        <f t="array" ref="K11">IF(OR($B11="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!K11,Matriz_Esforço_Acompanhamento!K11)))</f>
         <v/>
       </c>
       <c r="L11" t="str" cm="1">
-        <f t="array" ref="L11">IF(OR($B11="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!L11,Matriz_Esforço_Acompanhamento!L11)))</f>
+        <f t="array" ref="L11">IF(OR($B11="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!L11,Matriz_Esforço_Acompanhamento!L11)))</f>
         <v/>
       </c>
       <c r="M11" t="str" cm="1">
-        <f t="array" ref="M11">IF(OR($B11="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!M11,Matriz_Esforço_Acompanhamento!M11)))</f>
+        <f t="array" ref="M11">IF(OR($B11="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!M11,Matriz_Esforço_Acompanhamento!M11)))</f>
         <v/>
       </c>
       <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">IF(OR($B11="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!N11,Matriz_Esforço_Acompanhamento!N11)))</f>
+        <f t="array" ref="N11">IF(OR($B11="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!N11,Matriz_Esforço_Acompanhamento!N11)))</f>
         <v/>
       </c>
       <c r="O11" t="str" cm="1">
-        <f t="array" ref="O11">IF(OR($B11="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!O11,Matriz_Esforço_Acompanhamento!O11)))</f>
+        <f t="array" ref="O11">IF(OR($B11="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!O11,Matriz_Esforço_Acompanhamento!O11)))</f>
         <v/>
       </c>
       <c r="P11" t="str" cm="1">
-        <f t="array" ref="P11">IF(OR($B11="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!P11,Matriz_Esforço_Acompanhamento!P11)))</f>
+        <f t="array" ref="P11">IF(OR($B11="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!P11,Matriz_Esforço_Acompanhamento!P11)))</f>
         <v/>
       </c>
       <c r="Q11" t="str" cm="1">
-        <f t="array" ref="Q11">IF(OR($B11="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Q11,Matriz_Esforço_Acompanhamento!Q11)))</f>
+        <f t="array" ref="Q11">IF(OR($B11="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Q11,Matriz_Esforço_Acompanhamento!Q11)))</f>
         <v/>
       </c>
       <c r="R11" t="str" cm="1">
-        <f t="array" ref="R11">IF(OR($B11="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!R11,Matriz_Esforço_Acompanhamento!R11)))</f>
+        <f t="array" ref="R11">IF(OR($B11="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!R11,Matriz_Esforço_Acompanhamento!R11)))</f>
         <v/>
       </c>
       <c r="S11" t="str" cm="1">
-        <f t="array" ref="S11">IF(OR($B11="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!S11,Matriz_Esforço_Acompanhamento!S11)))</f>
+        <f t="array" ref="S11">IF(OR($B11="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!S11,Matriz_Esforço_Acompanhamento!S11)))</f>
         <v/>
       </c>
       <c r="T11" t="str" cm="1">
-        <f t="array" ref="T11">IF(OR($B11="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!T11,Matriz_Esforço_Acompanhamento!T11)))</f>
+        <f t="array" ref="T11">IF(OR($B11="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!T11,Matriz_Esforço_Acompanhamento!T11)))</f>
         <v/>
       </c>
       <c r="U11" t="str" cm="1">
-        <f t="array" ref="U11">IF(OR($B11="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!U11,Matriz_Esforço_Acompanhamento!U11)))</f>
+        <f t="array" ref="U11">IF(OR($B11="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!U11,Matriz_Esforço_Acompanhamento!U11)))</f>
         <v/>
       </c>
       <c r="V11" t="str" cm="1">
-        <f t="array" ref="V11">IF(OR($B11="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!V11,Matriz_Esforço_Acompanhamento!V11)))</f>
+        <f t="array" ref="V11">IF(OR($B11="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!V11,Matriz_Esforço_Acompanhamento!V11)))</f>
         <v/>
       </c>
       <c r="W11" t="str" cm="1">
-        <f t="array" ref="W11">IF(OR($B11="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!W11,Matriz_Esforço_Acompanhamento!W11)))</f>
+        <f t="array" ref="W11">IF(OR($B11="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!W11,Matriz_Esforço_Acompanhamento!W11)))</f>
         <v/>
       </c>
       <c r="X11" t="str" cm="1">
-        <f t="array" ref="X11">IF(OR($B11="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!X11,Matriz_Esforço_Acompanhamento!X11)))</f>
+        <f t="array" ref="X11">IF(OR($B11="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!X11,Matriz_Esforço_Acompanhamento!X11)))</f>
         <v/>
       </c>
       <c r="Y11" t="str" cm="1">
-        <f t="array" ref="Y11">IF(OR($B11="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Y11,Matriz_Esforço_Acompanhamento!Y11)))</f>
+        <f t="array" ref="Y11">IF(OR($B11="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Y11,Matriz_Esforço_Acompanhamento!Y11)))</f>
         <v/>
       </c>
       <c r="Z11" t="str" cm="1">
-        <f t="array" ref="Z11">IF(OR($B11="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Z11,Matriz_Esforço_Acompanhamento!Z11)))</f>
+        <f t="array" ref="Z11">IF(OR($B11="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!Z11,Matriz_Esforço_Acompanhamento!Z11)))</f>
         <v/>
       </c>
       <c r="AA11" t="str" cm="1">
-        <f t="array" ref="AA11">IF(OR($B11="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!AA11,Matriz_Esforço_Acompanhamento!AA11)))</f>
+        <f t="array" ref="AA11">IF(OR($B11="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!AA11,Matriz_Esforço_Acompanhamento!AA11)))</f>
         <v/>
       </c>
       <c r="AB11" t="str" cm="1">
-        <f t="array" ref="AB11">IF(OR($B11="",AB$2=""),"",IF(INDEX(Projetos!AB10:AB43,Matriz_Esforço_Atual!$B11)=2,"",IF(INDEX(Projetos!AB10:AB43,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!AB11,Matriz_Esforço_Acompanhamento!AB11)))</f>
+        <f t="array" ref="AB11">IF(OR($B11="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!AB11,Matriz_Esforço_Acompanhamento!AB11)))</f>
+        <v/>
+      </c>
+      <c r="AC11" t="str" cm="1">
+        <f t="array" ref="AC11">IF(OR($B11="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B11)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B11)=0,Matriz_Esforço_Análise!AC11,Matriz_Esforço_Acompanhamento!AC11)))</f>
         <v/>
       </c>
     </row>
@@ -3019,107 +3055,111 @@
         <v>10</v>
       </c>
       <c r="C12" t="str" cm="1">
-        <f t="array" ref="C12">IF(OR($B12="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!C12,Matriz_Esforço_Acompanhamento!C12)))</f>
+        <f t="array" ref="C12">IF(OR($B12="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!C12,Matriz_Esforço_Acompanhamento!C12)))</f>
         <v/>
       </c>
       <c r="D12" t="str" cm="1">
-        <f t="array" ref="D12">IF(OR($B12="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!D12,Matriz_Esforço_Acompanhamento!D12)))</f>
+        <f t="array" ref="D12">IF(OR($B12="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!D12,Matriz_Esforço_Acompanhamento!D12)))</f>
         <v/>
       </c>
       <c r="E12" t="str" cm="1">
-        <f t="array" ref="E12">IF(OR($B12="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!E12,Matriz_Esforço_Acompanhamento!E12)))</f>
+        <f t="array" ref="E12">IF(OR($B12="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!E12,Matriz_Esforço_Acompanhamento!E12)))</f>
         <v/>
       </c>
       <c r="F12" t="str" cm="1">
-        <f t="array" ref="F12">IF(OR($B12="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!F12,Matriz_Esforço_Acompanhamento!F12)))</f>
+        <f t="array" ref="F12">IF(OR($B12="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!F12,Matriz_Esforço_Acompanhamento!F12)))</f>
         <v/>
       </c>
       <c r="G12" t="str" cm="1">
-        <f t="array" ref="G12">IF(OR($B12="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!G12,Matriz_Esforço_Acompanhamento!G12)))</f>
+        <f t="array" ref="G12">IF(OR($B12="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!G12,Matriz_Esforço_Acompanhamento!G12)))</f>
         <v/>
       </c>
       <c r="H12" t="str" cm="1">
-        <f t="array" ref="H12">IF(OR($B12="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!H12,Matriz_Esforço_Acompanhamento!H12)))</f>
+        <f t="array" ref="H12">IF(OR($B12="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!H12,Matriz_Esforço_Acompanhamento!H12)))</f>
         <v/>
       </c>
       <c r="I12" t="str" cm="1">
-        <f t="array" ref="I12">IF(OR($B12="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!I12,Matriz_Esforço_Acompanhamento!I12)))</f>
+        <f t="array" ref="I12">IF(OR($B12="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!I12,Matriz_Esforço_Acompanhamento!I12)))</f>
         <v/>
       </c>
       <c r="J12" t="str" cm="1">
-        <f t="array" ref="J12">IF(OR($B12="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!J12,Matriz_Esforço_Acompanhamento!J12)))</f>
+        <f t="array" ref="J12">IF(OR($B12="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!J12,Matriz_Esforço_Acompanhamento!J12)))</f>
         <v/>
       </c>
       <c r="K12" t="str" cm="1">
-        <f t="array" ref="K12">IF(OR($B12="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!K12,Matriz_Esforço_Acompanhamento!K12)))</f>
+        <f t="array" ref="K12">IF(OR($B12="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!K12,Matriz_Esforço_Acompanhamento!K12)))</f>
         <v/>
       </c>
       <c r="L12" t="str" cm="1">
-        <f t="array" ref="L12">IF(OR($B12="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!L12,Matriz_Esforço_Acompanhamento!L12)))</f>
+        <f t="array" ref="L12">IF(OR($B12="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!L12,Matriz_Esforço_Acompanhamento!L12)))</f>
         <v/>
       </c>
       <c r="M12" t="str" cm="1">
-        <f t="array" ref="M12">IF(OR($B12="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!M12,Matriz_Esforço_Acompanhamento!M12)))</f>
+        <f t="array" ref="M12">IF(OR($B12="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!M12,Matriz_Esforço_Acompanhamento!M12)))</f>
         <v/>
       </c>
       <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">IF(OR($B12="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!N12,Matriz_Esforço_Acompanhamento!N12)))</f>
+        <f t="array" ref="N12">IF(OR($B12="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!N12,Matriz_Esforço_Acompanhamento!N12)))</f>
         <v/>
       </c>
       <c r="O12" t="str" cm="1">
-        <f t="array" ref="O12">IF(OR($B12="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!O12,Matriz_Esforço_Acompanhamento!O12)))</f>
+        <f t="array" ref="O12">IF(OR($B12="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!O12,Matriz_Esforço_Acompanhamento!O12)))</f>
         <v/>
       </c>
       <c r="P12" t="str" cm="1">
-        <f t="array" ref="P12">IF(OR($B12="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!P12,Matriz_Esforço_Acompanhamento!P12)))</f>
+        <f t="array" ref="P12">IF(OR($B12="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!P12,Matriz_Esforço_Acompanhamento!P12)))</f>
         <v/>
       </c>
       <c r="Q12" t="str" cm="1">
-        <f t="array" ref="Q12">IF(OR($B12="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Q12,Matriz_Esforço_Acompanhamento!Q12)))</f>
+        <f t="array" ref="Q12">IF(OR($B12="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Q12,Matriz_Esforço_Acompanhamento!Q12)))</f>
         <v/>
       </c>
       <c r="R12" t="str" cm="1">
-        <f t="array" ref="R12">IF(OR($B12="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!R12,Matriz_Esforço_Acompanhamento!R12)))</f>
+        <f t="array" ref="R12">IF(OR($B12="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!R12,Matriz_Esforço_Acompanhamento!R12)))</f>
         <v/>
       </c>
       <c r="S12" t="str" cm="1">
-        <f t="array" ref="S12">IF(OR($B12="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!S12,Matriz_Esforço_Acompanhamento!S12)))</f>
+        <f t="array" ref="S12">IF(OR($B12="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!S12,Matriz_Esforço_Acompanhamento!S12)))</f>
         <v/>
       </c>
       <c r="T12" t="str" cm="1">
-        <f t="array" ref="T12">IF(OR($B12="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!T12,Matriz_Esforço_Acompanhamento!T12)))</f>
+        <f t="array" ref="T12">IF(OR($B12="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!T12,Matriz_Esforço_Acompanhamento!T12)))</f>
         <v/>
       </c>
       <c r="U12" t="str" cm="1">
-        <f t="array" ref="U12">IF(OR($B12="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!U12,Matriz_Esforço_Acompanhamento!U12)))</f>
+        <f t="array" ref="U12">IF(OR($B12="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!U12,Matriz_Esforço_Acompanhamento!U12)))</f>
         <v/>
       </c>
       <c r="V12" t="str" cm="1">
-        <f t="array" ref="V12">IF(OR($B12="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!V12,Matriz_Esforço_Acompanhamento!V12)))</f>
+        <f t="array" ref="V12">IF(OR($B12="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!V12,Matriz_Esforço_Acompanhamento!V12)))</f>
         <v/>
       </c>
       <c r="W12" t="str" cm="1">
-        <f t="array" ref="W12">IF(OR($B12="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!W12,Matriz_Esforço_Acompanhamento!W12)))</f>
+        <f t="array" ref="W12">IF(OR($B12="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!W12,Matriz_Esforço_Acompanhamento!W12)))</f>
         <v/>
       </c>
       <c r="X12" t="str" cm="1">
-        <f t="array" ref="X12">IF(OR($B12="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!X12,Matriz_Esforço_Acompanhamento!X12)))</f>
+        <f t="array" ref="X12">IF(OR($B12="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!X12,Matriz_Esforço_Acompanhamento!X12)))</f>
         <v/>
       </c>
       <c r="Y12" t="str" cm="1">
-        <f t="array" ref="Y12">IF(OR($B12="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Y12,Matriz_Esforço_Acompanhamento!Y12)))</f>
+        <f t="array" ref="Y12">IF(OR($B12="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Y12,Matriz_Esforço_Acompanhamento!Y12)))</f>
         <v/>
       </c>
       <c r="Z12" t="str" cm="1">
-        <f t="array" ref="Z12">IF(OR($B12="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Z12,Matriz_Esforço_Acompanhamento!Z12)))</f>
+        <f t="array" ref="Z12">IF(OR($B12="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!Z12,Matriz_Esforço_Acompanhamento!Z12)))</f>
         <v/>
       </c>
       <c r="AA12" t="str" cm="1">
-        <f t="array" ref="AA12">IF(OR($B12="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!AA12,Matriz_Esforço_Acompanhamento!AA12)))</f>
+        <f t="array" ref="AA12">IF(OR($B12="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!AA12,Matriz_Esforço_Acompanhamento!AA12)))</f>
         <v/>
       </c>
       <c r="AB12" t="str" cm="1">
-        <f t="array" ref="AB12">IF(OR($B12="",AB$2=""),"",IF(INDEX(Projetos!AB11:AB44,Matriz_Esforço_Atual!$B12)=2,"",IF(INDEX(Projetos!AB11:AB44,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!AB12,Matriz_Esforço_Acompanhamento!AB12)))</f>
+        <f t="array" ref="AB12">IF(OR($B12="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!AB12,Matriz_Esforço_Acompanhamento!AB12)))</f>
+        <v/>
+      </c>
+      <c r="AC12" t="str" cm="1">
+        <f t="array" ref="AC12">IF(OR($B12="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B12)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B12)=0,Matriz_Esforço_Análise!AC12,Matriz_Esforço_Acompanhamento!AC12)))</f>
         <v/>
       </c>
     </row>
@@ -3129,107 +3169,111 @@
         <v>11</v>
       </c>
       <c r="C13" cm="1">
-        <f t="array" ref="C13">IF(OR($B13="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!C13,Matriz_Esforço_Acompanhamento!C13)))</f>
+        <f t="array" ref="C13">IF(OR($B13="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!C13,Matriz_Esforço_Acompanhamento!C13)))</f>
         <v>9</v>
       </c>
       <c r="D13" cm="1">
-        <f t="array" ref="D13">IF(OR($B13="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!D13,Matriz_Esforço_Acompanhamento!D13)))</f>
+        <f t="array" ref="D13">IF(OR($B13="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!D13,Matriz_Esforço_Acompanhamento!D13)))</f>
         <v>10</v>
       </c>
       <c r="E13" cm="1">
-        <f t="array" ref="E13">IF(OR($B13="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!E13,Matriz_Esforço_Acompanhamento!E13)))</f>
+        <f t="array" ref="E13">IF(OR($B13="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!E13,Matriz_Esforço_Acompanhamento!E13)))</f>
         <v>8</v>
       </c>
-      <c r="F13" cm="1">
-        <f t="array" ref="F13">IF(OR($B13="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!F13,Matriz_Esforço_Acompanhamento!F13)))</f>
-        <v>8</v>
+      <c r="F13" t="str" cm="1">
+        <f t="array" ref="F13">IF(OR($B13="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!F13,Matriz_Esforço_Acompanhamento!F13)))</f>
+        <v/>
       </c>
       <c r="G13" cm="1">
-        <f t="array" ref="G13">IF(OR($B13="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!G13,Matriz_Esforço_Acompanhamento!G13)))</f>
+        <f t="array" ref="G13">IF(OR($B13="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!G13,Matriz_Esforço_Acompanhamento!G13)))</f>
         <v>10</v>
       </c>
       <c r="H13" t="str" cm="1">
-        <f t="array" ref="H13">IF(OR($B13="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!H13,Matriz_Esforço_Acompanhamento!H13)))</f>
+        <f t="array" ref="H13">IF(OR($B13="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!H13,Matriz_Esforço_Acompanhamento!H13)))</f>
         <v/>
       </c>
       <c r="I13" t="str" cm="1">
-        <f t="array" ref="I13">IF(OR($B13="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!I13,Matriz_Esforço_Acompanhamento!I13)))</f>
+        <f t="array" ref="I13">IF(OR($B13="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!I13,Matriz_Esforço_Acompanhamento!I13)))</f>
         <v/>
       </c>
       <c r="J13" t="str" cm="1">
-        <f t="array" ref="J13">IF(OR($B13="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!J13,Matriz_Esforço_Acompanhamento!J13)))</f>
+        <f t="array" ref="J13">IF(OR($B13="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!J13,Matriz_Esforço_Acompanhamento!J13)))</f>
         <v/>
       </c>
       <c r="K13" t="str" cm="1">
-        <f t="array" ref="K13">IF(OR($B13="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!K13,Matriz_Esforço_Acompanhamento!K13)))</f>
+        <f t="array" ref="K13">IF(OR($B13="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!K13,Matriz_Esforço_Acompanhamento!K13)))</f>
         <v/>
       </c>
       <c r="L13" t="str" cm="1">
-        <f t="array" ref="L13">IF(OR($B13="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!L13,Matriz_Esforço_Acompanhamento!L13)))</f>
+        <f t="array" ref="L13">IF(OR($B13="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!L13,Matriz_Esforço_Acompanhamento!L13)))</f>
         <v/>
       </c>
       <c r="M13" t="str" cm="1">
-        <f t="array" ref="M13">IF(OR($B13="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!M13,Matriz_Esforço_Acompanhamento!M13)))</f>
+        <f t="array" ref="M13">IF(OR($B13="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!M13,Matriz_Esforço_Acompanhamento!M13)))</f>
         <v/>
       </c>
       <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">IF(OR($B13="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!N13,Matriz_Esforço_Acompanhamento!N13)))</f>
+        <f t="array" ref="N13">IF(OR($B13="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!N13,Matriz_Esforço_Acompanhamento!N13)))</f>
         <v/>
       </c>
       <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">IF(OR($B13="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!O13,Matriz_Esforço_Acompanhamento!O13)))</f>
+        <f t="array" ref="O13">IF(OR($B13="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!O13,Matriz_Esforço_Acompanhamento!O13)))</f>
         <v/>
       </c>
       <c r="P13" t="str" cm="1">
-        <f t="array" ref="P13">IF(OR($B13="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!P13,Matriz_Esforço_Acompanhamento!P13)))</f>
+        <f t="array" ref="P13">IF(OR($B13="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!P13,Matriz_Esforço_Acompanhamento!P13)))</f>
         <v/>
       </c>
       <c r="Q13" t="str" cm="1">
-        <f t="array" ref="Q13">IF(OR($B13="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Q13,Matriz_Esforço_Acompanhamento!Q13)))</f>
+        <f t="array" ref="Q13">IF(OR($B13="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Q13,Matriz_Esforço_Acompanhamento!Q13)))</f>
         <v/>
       </c>
       <c r="R13" t="str" cm="1">
-        <f t="array" ref="R13">IF(OR($B13="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!R13,Matriz_Esforço_Acompanhamento!R13)))</f>
+        <f t="array" ref="R13">IF(OR($B13="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!R13,Matriz_Esforço_Acompanhamento!R13)))</f>
         <v/>
       </c>
       <c r="S13" t="str" cm="1">
-        <f t="array" ref="S13">IF(OR($B13="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!S13,Matriz_Esforço_Acompanhamento!S13)))</f>
+        <f t="array" ref="S13">IF(OR($B13="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!S13,Matriz_Esforço_Acompanhamento!S13)))</f>
         <v/>
       </c>
       <c r="T13" t="str" cm="1">
-        <f t="array" ref="T13">IF(OR($B13="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!T13,Matriz_Esforço_Acompanhamento!T13)))</f>
+        <f t="array" ref="T13">IF(OR($B13="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!T13,Matriz_Esforço_Acompanhamento!T13)))</f>
         <v/>
       </c>
       <c r="U13" t="str" cm="1">
-        <f t="array" ref="U13">IF(OR($B13="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!U13,Matriz_Esforço_Acompanhamento!U13)))</f>
+        <f t="array" ref="U13">IF(OR($B13="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!U13,Matriz_Esforço_Acompanhamento!U13)))</f>
         <v/>
       </c>
       <c r="V13" t="str" cm="1">
-        <f t="array" ref="V13">IF(OR($B13="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!V13,Matriz_Esforço_Acompanhamento!V13)))</f>
+        <f t="array" ref="V13">IF(OR($B13="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!V13,Matriz_Esforço_Acompanhamento!V13)))</f>
         <v/>
       </c>
       <c r="W13" t="str" cm="1">
-        <f t="array" ref="W13">IF(OR($B13="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!W13,Matriz_Esforço_Acompanhamento!W13)))</f>
+        <f t="array" ref="W13">IF(OR($B13="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!W13,Matriz_Esforço_Acompanhamento!W13)))</f>
         <v/>
       </c>
       <c r="X13" t="str" cm="1">
-        <f t="array" ref="X13">IF(OR($B13="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!X13,Matriz_Esforço_Acompanhamento!X13)))</f>
+        <f t="array" ref="X13">IF(OR($B13="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!X13,Matriz_Esforço_Acompanhamento!X13)))</f>
         <v/>
       </c>
       <c r="Y13" t="str" cm="1">
-        <f t="array" ref="Y13">IF(OR($B13="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Y13,Matriz_Esforço_Acompanhamento!Y13)))</f>
+        <f t="array" ref="Y13">IF(OR($B13="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Y13,Matriz_Esforço_Acompanhamento!Y13)))</f>
         <v/>
       </c>
       <c r="Z13" t="str" cm="1">
-        <f t="array" ref="Z13">IF(OR($B13="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Z13,Matriz_Esforço_Acompanhamento!Z13)))</f>
+        <f t="array" ref="Z13">IF(OR($B13="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!Z13,Matriz_Esforço_Acompanhamento!Z13)))</f>
         <v/>
       </c>
       <c r="AA13" t="str" cm="1">
-        <f t="array" ref="AA13">IF(OR($B13="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!AA13,Matriz_Esforço_Acompanhamento!AA13)))</f>
+        <f t="array" ref="AA13">IF(OR($B13="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!AA13,Matriz_Esforço_Acompanhamento!AA13)))</f>
         <v/>
       </c>
       <c r="AB13" t="str" cm="1">
-        <f t="array" ref="AB13">IF(OR($B13="",AB$2=""),"",IF(INDEX(Projetos!AB12:AB45,Matriz_Esforço_Atual!$B13)=2,"",IF(INDEX(Projetos!AB12:AB45,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!AB13,Matriz_Esforço_Acompanhamento!AB13)))</f>
+        <f t="array" ref="AB13">IF(OR($B13="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!AB13,Matriz_Esforço_Acompanhamento!AB13)))</f>
+        <v/>
+      </c>
+      <c r="AC13" t="str" cm="1">
+        <f t="array" ref="AC13">IF(OR($B13="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B13)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B13)=0,Matriz_Esforço_Análise!AC13,Matriz_Esforço_Acompanhamento!AC13)))</f>
         <v/>
       </c>
     </row>
@@ -3239,107 +3283,111 @@
         <v/>
       </c>
       <c r="C14" t="str" cm="1">
-        <f t="array" ref="C14">IF(OR($B14="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!C14,Matriz_Esforço_Acompanhamento!C14)))</f>
+        <f t="array" ref="C14">IF(OR($B14="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!C14,Matriz_Esforço_Acompanhamento!C14)))</f>
         <v/>
       </c>
       <c r="D14" t="str" cm="1">
-        <f t="array" ref="D14">IF(OR($B14="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!D14,Matriz_Esforço_Acompanhamento!D14)))</f>
+        <f t="array" ref="D14">IF(OR($B14="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!D14,Matriz_Esforço_Acompanhamento!D14)))</f>
         <v/>
       </c>
       <c r="E14" t="str" cm="1">
-        <f t="array" ref="E14">IF(OR($B14="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!E14,Matriz_Esforço_Acompanhamento!E14)))</f>
+        <f t="array" ref="E14">IF(OR($B14="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!E14,Matriz_Esforço_Acompanhamento!E14)))</f>
         <v/>
       </c>
       <c r="F14" t="str" cm="1">
-        <f t="array" ref="F14">IF(OR($B14="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!F14,Matriz_Esforço_Acompanhamento!F14)))</f>
+        <f t="array" ref="F14">IF(OR($B14="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!F14,Matriz_Esforço_Acompanhamento!F14)))</f>
         <v/>
       </c>
       <c r="G14" t="str" cm="1">
-        <f t="array" ref="G14">IF(OR($B14="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!G14,Matriz_Esforço_Acompanhamento!G14)))</f>
+        <f t="array" ref="G14">IF(OR($B14="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!G14,Matriz_Esforço_Acompanhamento!G14)))</f>
         <v/>
       </c>
       <c r="H14" t="str" cm="1">
-        <f t="array" ref="H14">IF(OR($B14="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!H14,Matriz_Esforço_Acompanhamento!H14)))</f>
+        <f t="array" ref="H14">IF(OR($B14="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!H14,Matriz_Esforço_Acompanhamento!H14)))</f>
         <v/>
       </c>
       <c r="I14" t="str" cm="1">
-        <f t="array" ref="I14">IF(OR($B14="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!I14,Matriz_Esforço_Acompanhamento!I14)))</f>
+        <f t="array" ref="I14">IF(OR($B14="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!I14,Matriz_Esforço_Acompanhamento!I14)))</f>
         <v/>
       </c>
       <c r="J14" t="str" cm="1">
-        <f t="array" ref="J14">IF(OR($B14="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!J14,Matriz_Esforço_Acompanhamento!J14)))</f>
+        <f t="array" ref="J14">IF(OR($B14="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!J14,Matriz_Esforço_Acompanhamento!J14)))</f>
         <v/>
       </c>
       <c r="K14" t="str" cm="1">
-        <f t="array" ref="K14">IF(OR($B14="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!K14,Matriz_Esforço_Acompanhamento!K14)))</f>
+        <f t="array" ref="K14">IF(OR($B14="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!K14,Matriz_Esforço_Acompanhamento!K14)))</f>
         <v/>
       </c>
       <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">IF(OR($B14="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!L14,Matriz_Esforço_Acompanhamento!L14)))</f>
+        <f t="array" ref="L14">IF(OR($B14="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!L14,Matriz_Esforço_Acompanhamento!L14)))</f>
         <v/>
       </c>
       <c r="M14" t="str" cm="1">
-        <f t="array" ref="M14">IF(OR($B14="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!M14,Matriz_Esforço_Acompanhamento!M14)))</f>
+        <f t="array" ref="M14">IF(OR($B14="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!M14,Matriz_Esforço_Acompanhamento!M14)))</f>
         <v/>
       </c>
       <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">IF(OR($B14="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!N14,Matriz_Esforço_Acompanhamento!N14)))</f>
+        <f t="array" ref="N14">IF(OR($B14="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!N14,Matriz_Esforço_Acompanhamento!N14)))</f>
         <v/>
       </c>
       <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">IF(OR($B14="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!O14,Matriz_Esforço_Acompanhamento!O14)))</f>
+        <f t="array" ref="O14">IF(OR($B14="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!O14,Matriz_Esforço_Acompanhamento!O14)))</f>
         <v/>
       </c>
       <c r="P14" t="str" cm="1">
-        <f t="array" ref="P14">IF(OR($B14="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!P14,Matriz_Esforço_Acompanhamento!P14)))</f>
+        <f t="array" ref="P14">IF(OR($B14="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!P14,Matriz_Esforço_Acompanhamento!P14)))</f>
         <v/>
       </c>
       <c r="Q14" t="str" cm="1">
-        <f t="array" ref="Q14">IF(OR($B14="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Q14,Matriz_Esforço_Acompanhamento!Q14)))</f>
+        <f t="array" ref="Q14">IF(OR($B14="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Q14,Matriz_Esforço_Acompanhamento!Q14)))</f>
         <v/>
       </c>
       <c r="R14" t="str" cm="1">
-        <f t="array" ref="R14">IF(OR($B14="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!R14,Matriz_Esforço_Acompanhamento!R14)))</f>
+        <f t="array" ref="R14">IF(OR($B14="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!R14,Matriz_Esforço_Acompanhamento!R14)))</f>
         <v/>
       </c>
       <c r="S14" t="str" cm="1">
-        <f t="array" ref="S14">IF(OR($B14="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!S14,Matriz_Esforço_Acompanhamento!S14)))</f>
+        <f t="array" ref="S14">IF(OR($B14="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!S14,Matriz_Esforço_Acompanhamento!S14)))</f>
         <v/>
       </c>
       <c r="T14" t="str" cm="1">
-        <f t="array" ref="T14">IF(OR($B14="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!T14,Matriz_Esforço_Acompanhamento!T14)))</f>
+        <f t="array" ref="T14">IF(OR($B14="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!T14,Matriz_Esforço_Acompanhamento!T14)))</f>
         <v/>
       </c>
       <c r="U14" t="str" cm="1">
-        <f t="array" ref="U14">IF(OR($B14="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!U14,Matriz_Esforço_Acompanhamento!U14)))</f>
+        <f t="array" ref="U14">IF(OR($B14="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!U14,Matriz_Esforço_Acompanhamento!U14)))</f>
         <v/>
       </c>
       <c r="V14" t="str" cm="1">
-        <f t="array" ref="V14">IF(OR($B14="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!V14,Matriz_Esforço_Acompanhamento!V14)))</f>
+        <f t="array" ref="V14">IF(OR($B14="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!V14,Matriz_Esforço_Acompanhamento!V14)))</f>
         <v/>
       </c>
       <c r="W14" t="str" cm="1">
-        <f t="array" ref="W14">IF(OR($B14="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!W14,Matriz_Esforço_Acompanhamento!W14)))</f>
+        <f t="array" ref="W14">IF(OR($B14="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!W14,Matriz_Esforço_Acompanhamento!W14)))</f>
         <v/>
       </c>
       <c r="X14" t="str" cm="1">
-        <f t="array" ref="X14">IF(OR($B14="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!X14,Matriz_Esforço_Acompanhamento!X14)))</f>
+        <f t="array" ref="X14">IF(OR($B14="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!X14,Matriz_Esforço_Acompanhamento!X14)))</f>
         <v/>
       </c>
       <c r="Y14" t="str" cm="1">
-        <f t="array" ref="Y14">IF(OR($B14="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Y14,Matriz_Esforço_Acompanhamento!Y14)))</f>
+        <f t="array" ref="Y14">IF(OR($B14="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Y14,Matriz_Esforço_Acompanhamento!Y14)))</f>
         <v/>
       </c>
       <c r="Z14" t="str" cm="1">
-        <f t="array" ref="Z14">IF(OR($B14="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Z14,Matriz_Esforço_Acompanhamento!Z14)))</f>
+        <f t="array" ref="Z14">IF(OR($B14="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!Z14,Matriz_Esforço_Acompanhamento!Z14)))</f>
         <v/>
       </c>
       <c r="AA14" t="str" cm="1">
-        <f t="array" ref="AA14">IF(OR($B14="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!AA14,Matriz_Esforço_Acompanhamento!AA14)))</f>
+        <f t="array" ref="AA14">IF(OR($B14="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!AA14,Matriz_Esforço_Acompanhamento!AA14)))</f>
         <v/>
       </c>
       <c r="AB14" t="str" cm="1">
-        <f t="array" ref="AB14">IF(OR($B14="",AB$2=""),"",IF(INDEX(Projetos!AB13:AB46,Matriz_Esforço_Atual!$B14)=2,"",IF(INDEX(Projetos!AB13:AB46,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!AB14,Matriz_Esforço_Acompanhamento!AB14)))</f>
+        <f t="array" ref="AB14">IF(OR($B14="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!AB14,Matriz_Esforço_Acompanhamento!AB14)))</f>
+        <v/>
+      </c>
+      <c r="AC14" t="str" cm="1">
+        <f t="array" ref="AC14">IF(OR($B14="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B14)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B14)=0,Matriz_Esforço_Análise!AC14,Matriz_Esforço_Acompanhamento!AC14)))</f>
         <v/>
       </c>
     </row>
@@ -3349,107 +3397,111 @@
         <v/>
       </c>
       <c r="C15" t="str" cm="1">
-        <f t="array" ref="C15">IF(OR($B15="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!C15,Matriz_Esforço_Acompanhamento!C15)))</f>
+        <f t="array" ref="C15">IF(OR($B15="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!C15,Matriz_Esforço_Acompanhamento!C15)))</f>
         <v/>
       </c>
       <c r="D15" t="str" cm="1">
-        <f t="array" ref="D15">IF(OR($B15="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!D15,Matriz_Esforço_Acompanhamento!D15)))</f>
+        <f t="array" ref="D15">IF(OR($B15="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!D15,Matriz_Esforço_Acompanhamento!D15)))</f>
         <v/>
       </c>
       <c r="E15" t="str" cm="1">
-        <f t="array" ref="E15">IF(OR($B15="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!E15,Matriz_Esforço_Acompanhamento!E15)))</f>
+        <f t="array" ref="E15">IF(OR($B15="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!E15,Matriz_Esforço_Acompanhamento!E15)))</f>
         <v/>
       </c>
       <c r="F15" t="str" cm="1">
-        <f t="array" ref="F15">IF(OR($B15="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!F15,Matriz_Esforço_Acompanhamento!F15)))</f>
+        <f t="array" ref="F15">IF(OR($B15="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!F15,Matriz_Esforço_Acompanhamento!F15)))</f>
         <v/>
       </c>
       <c r="G15" t="str" cm="1">
-        <f t="array" ref="G15">IF(OR($B15="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!G15,Matriz_Esforço_Acompanhamento!G15)))</f>
+        <f t="array" ref="G15">IF(OR($B15="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!G15,Matriz_Esforço_Acompanhamento!G15)))</f>
         <v/>
       </c>
       <c r="H15" t="str" cm="1">
-        <f t="array" ref="H15">IF(OR($B15="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!H15,Matriz_Esforço_Acompanhamento!H15)))</f>
+        <f t="array" ref="H15">IF(OR($B15="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!H15,Matriz_Esforço_Acompanhamento!H15)))</f>
         <v/>
       </c>
       <c r="I15" t="str" cm="1">
-        <f t="array" ref="I15">IF(OR($B15="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!I15,Matriz_Esforço_Acompanhamento!I15)))</f>
+        <f t="array" ref="I15">IF(OR($B15="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!I15,Matriz_Esforço_Acompanhamento!I15)))</f>
         <v/>
       </c>
       <c r="J15" t="str" cm="1">
-        <f t="array" ref="J15">IF(OR($B15="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!J15,Matriz_Esforço_Acompanhamento!J15)))</f>
+        <f t="array" ref="J15">IF(OR($B15="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!J15,Matriz_Esforço_Acompanhamento!J15)))</f>
         <v/>
       </c>
       <c r="K15" t="str" cm="1">
-        <f t="array" ref="K15">IF(OR($B15="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!K15,Matriz_Esforço_Acompanhamento!K15)))</f>
+        <f t="array" ref="K15">IF(OR($B15="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!K15,Matriz_Esforço_Acompanhamento!K15)))</f>
         <v/>
       </c>
       <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">IF(OR($B15="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!L15,Matriz_Esforço_Acompanhamento!L15)))</f>
+        <f t="array" ref="L15">IF(OR($B15="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!L15,Matriz_Esforço_Acompanhamento!L15)))</f>
         <v/>
       </c>
       <c r="M15" t="str" cm="1">
-        <f t="array" ref="M15">IF(OR($B15="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!M15,Matriz_Esforço_Acompanhamento!M15)))</f>
+        <f t="array" ref="M15">IF(OR($B15="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!M15,Matriz_Esforço_Acompanhamento!M15)))</f>
         <v/>
       </c>
       <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">IF(OR($B15="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!N15,Matriz_Esforço_Acompanhamento!N15)))</f>
+        <f t="array" ref="N15">IF(OR($B15="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!N15,Matriz_Esforço_Acompanhamento!N15)))</f>
         <v/>
       </c>
       <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">IF(OR($B15="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!O15,Matriz_Esforço_Acompanhamento!O15)))</f>
+        <f t="array" ref="O15">IF(OR($B15="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!O15,Matriz_Esforço_Acompanhamento!O15)))</f>
         <v/>
       </c>
       <c r="P15" t="str" cm="1">
-        <f t="array" ref="P15">IF(OR($B15="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!P15,Matriz_Esforço_Acompanhamento!P15)))</f>
+        <f t="array" ref="P15">IF(OR($B15="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!P15,Matriz_Esforço_Acompanhamento!P15)))</f>
         <v/>
       </c>
       <c r="Q15" t="str" cm="1">
-        <f t="array" ref="Q15">IF(OR($B15="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Q15,Matriz_Esforço_Acompanhamento!Q15)))</f>
+        <f t="array" ref="Q15">IF(OR($B15="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Q15,Matriz_Esforço_Acompanhamento!Q15)))</f>
         <v/>
       </c>
       <c r="R15" t="str" cm="1">
-        <f t="array" ref="R15">IF(OR($B15="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!R15,Matriz_Esforço_Acompanhamento!R15)))</f>
+        <f t="array" ref="R15">IF(OR($B15="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!R15,Matriz_Esforço_Acompanhamento!R15)))</f>
         <v/>
       </c>
       <c r="S15" t="str" cm="1">
-        <f t="array" ref="S15">IF(OR($B15="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!S15,Matriz_Esforço_Acompanhamento!S15)))</f>
+        <f t="array" ref="S15">IF(OR($B15="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!S15,Matriz_Esforço_Acompanhamento!S15)))</f>
         <v/>
       </c>
       <c r="T15" t="str" cm="1">
-        <f t="array" ref="T15">IF(OR($B15="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!T15,Matriz_Esforço_Acompanhamento!T15)))</f>
+        <f t="array" ref="T15">IF(OR($B15="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!T15,Matriz_Esforço_Acompanhamento!T15)))</f>
         <v/>
       </c>
       <c r="U15" t="str" cm="1">
-        <f t="array" ref="U15">IF(OR($B15="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!U15,Matriz_Esforço_Acompanhamento!U15)))</f>
+        <f t="array" ref="U15">IF(OR($B15="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!U15,Matriz_Esforço_Acompanhamento!U15)))</f>
         <v/>
       </c>
       <c r="V15" t="str" cm="1">
-        <f t="array" ref="V15">IF(OR($B15="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!V15,Matriz_Esforço_Acompanhamento!V15)))</f>
+        <f t="array" ref="V15">IF(OR($B15="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!V15,Matriz_Esforço_Acompanhamento!V15)))</f>
         <v/>
       </c>
       <c r="W15" t="str" cm="1">
-        <f t="array" ref="W15">IF(OR($B15="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!W15,Matriz_Esforço_Acompanhamento!W15)))</f>
+        <f t="array" ref="W15">IF(OR($B15="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!W15,Matriz_Esforço_Acompanhamento!W15)))</f>
         <v/>
       </c>
       <c r="X15" t="str" cm="1">
-        <f t="array" ref="X15">IF(OR($B15="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!X15,Matriz_Esforço_Acompanhamento!X15)))</f>
+        <f t="array" ref="X15">IF(OR($B15="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!X15,Matriz_Esforço_Acompanhamento!X15)))</f>
         <v/>
       </c>
       <c r="Y15" t="str" cm="1">
-        <f t="array" ref="Y15">IF(OR($B15="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Y15,Matriz_Esforço_Acompanhamento!Y15)))</f>
+        <f t="array" ref="Y15">IF(OR($B15="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Y15,Matriz_Esforço_Acompanhamento!Y15)))</f>
         <v/>
       </c>
       <c r="Z15" t="str" cm="1">
-        <f t="array" ref="Z15">IF(OR($B15="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Z15,Matriz_Esforço_Acompanhamento!Z15)))</f>
+        <f t="array" ref="Z15">IF(OR($B15="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!Z15,Matriz_Esforço_Acompanhamento!Z15)))</f>
         <v/>
       </c>
       <c r="AA15" t="str" cm="1">
-        <f t="array" ref="AA15">IF(OR($B15="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!AA15,Matriz_Esforço_Acompanhamento!AA15)))</f>
+        <f t="array" ref="AA15">IF(OR($B15="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!AA15,Matriz_Esforço_Acompanhamento!AA15)))</f>
         <v/>
       </c>
       <c r="AB15" t="str" cm="1">
-        <f t="array" ref="AB15">IF(OR($B15="",AB$2=""),"",IF(INDEX(Projetos!AB14:AB47,Matriz_Esforço_Atual!$B15)=2,"",IF(INDEX(Projetos!AB14:AB47,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!AB15,Matriz_Esforço_Acompanhamento!AB15)))</f>
+        <f t="array" ref="AB15">IF(OR($B15="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!AB15,Matriz_Esforço_Acompanhamento!AB15)))</f>
+        <v/>
+      </c>
+      <c r="AC15" t="str" cm="1">
+        <f t="array" ref="AC15">IF(OR($B15="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B15)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B15)=0,Matriz_Esforço_Análise!AC15,Matriz_Esforço_Acompanhamento!AC15)))</f>
         <v/>
       </c>
     </row>
@@ -3459,1999 +3511,2395 @@
         <v/>
       </c>
       <c r="C16" t="str" cm="1">
-        <f t="array" ref="C16">IF(OR($B16="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!C16,Matriz_Esforço_Acompanhamento!C16)))</f>
+        <f t="array" ref="C16">IF(OR($B16="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!C16,Matriz_Esforço_Acompanhamento!C16)))</f>
         <v/>
       </c>
       <c r="D16" t="str" cm="1">
-        <f t="array" ref="D16">IF(OR($B16="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!D16,Matriz_Esforço_Acompanhamento!D16)))</f>
+        <f t="array" ref="D16">IF(OR($B16="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!D16,Matriz_Esforço_Acompanhamento!D16)))</f>
         <v/>
       </c>
       <c r="E16" t="str" cm="1">
-        <f t="array" ref="E16">IF(OR($B16="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!E16,Matriz_Esforço_Acompanhamento!E16)))</f>
+        <f t="array" ref="E16">IF(OR($B16="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!E16,Matriz_Esforço_Acompanhamento!E16)))</f>
         <v/>
       </c>
       <c r="F16" t="str" cm="1">
-        <f t="array" ref="F16">IF(OR($B16="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!F16,Matriz_Esforço_Acompanhamento!F16)))</f>
+        <f t="array" ref="F16">IF(OR($B16="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!F16,Matriz_Esforço_Acompanhamento!F16)))</f>
         <v/>
       </c>
       <c r="G16" t="str" cm="1">
-        <f t="array" ref="G16">IF(OR($B16="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!G16,Matriz_Esforço_Acompanhamento!G16)))</f>
+        <f t="array" ref="G16">IF(OR($B16="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!G16,Matriz_Esforço_Acompanhamento!G16)))</f>
         <v/>
       </c>
       <c r="H16" t="str" cm="1">
-        <f t="array" ref="H16">IF(OR($B16="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!H16,Matriz_Esforço_Acompanhamento!H16)))</f>
+        <f t="array" ref="H16">IF(OR($B16="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!H16,Matriz_Esforço_Acompanhamento!H16)))</f>
         <v/>
       </c>
       <c r="I16" t="str" cm="1">
-        <f t="array" ref="I16">IF(OR($B16="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!I16,Matriz_Esforço_Acompanhamento!I16)))</f>
+        <f t="array" ref="I16">IF(OR($B16="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!I16,Matriz_Esforço_Acompanhamento!I16)))</f>
         <v/>
       </c>
       <c r="J16" t="str" cm="1">
-        <f t="array" ref="J16">IF(OR($B16="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!J16,Matriz_Esforço_Acompanhamento!J16)))</f>
+        <f t="array" ref="J16">IF(OR($B16="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!J16,Matriz_Esforço_Acompanhamento!J16)))</f>
         <v/>
       </c>
       <c r="K16" t="str" cm="1">
-        <f t="array" ref="K16">IF(OR($B16="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!K16,Matriz_Esforço_Acompanhamento!K16)))</f>
+        <f t="array" ref="K16">IF(OR($B16="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!K16,Matriz_Esforço_Acompanhamento!K16)))</f>
         <v/>
       </c>
       <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">IF(OR($B16="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!L16,Matriz_Esforço_Acompanhamento!L16)))</f>
+        <f t="array" ref="L16">IF(OR($B16="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!L16,Matriz_Esforço_Acompanhamento!L16)))</f>
         <v/>
       </c>
       <c r="M16" t="str" cm="1">
-        <f t="array" ref="M16">IF(OR($B16="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!M16,Matriz_Esforço_Acompanhamento!M16)))</f>
+        <f t="array" ref="M16">IF(OR($B16="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!M16,Matriz_Esforço_Acompanhamento!M16)))</f>
         <v/>
       </c>
       <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">IF(OR($B16="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!N16,Matriz_Esforço_Acompanhamento!N16)))</f>
+        <f t="array" ref="N16">IF(OR($B16="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!N16,Matriz_Esforço_Acompanhamento!N16)))</f>
         <v/>
       </c>
       <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">IF(OR($B16="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!O16,Matriz_Esforço_Acompanhamento!O16)))</f>
+        <f t="array" ref="O16">IF(OR($B16="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!O16,Matriz_Esforço_Acompanhamento!O16)))</f>
         <v/>
       </c>
       <c r="P16" t="str" cm="1">
-        <f t="array" ref="P16">IF(OR($B16="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!P16,Matriz_Esforço_Acompanhamento!P16)))</f>
+        <f t="array" ref="P16">IF(OR($B16="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!P16,Matriz_Esforço_Acompanhamento!P16)))</f>
         <v/>
       </c>
       <c r="Q16" t="str" cm="1">
-        <f t="array" ref="Q16">IF(OR($B16="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Q16,Matriz_Esforço_Acompanhamento!Q16)))</f>
+        <f t="array" ref="Q16">IF(OR($B16="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Q16,Matriz_Esforço_Acompanhamento!Q16)))</f>
         <v/>
       </c>
       <c r="R16" t="str" cm="1">
-        <f t="array" ref="R16">IF(OR($B16="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!R16,Matriz_Esforço_Acompanhamento!R16)))</f>
+        <f t="array" ref="R16">IF(OR($B16="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!R16,Matriz_Esforço_Acompanhamento!R16)))</f>
         <v/>
       </c>
       <c r="S16" t="str" cm="1">
-        <f t="array" ref="S16">IF(OR($B16="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!S16,Matriz_Esforço_Acompanhamento!S16)))</f>
+        <f t="array" ref="S16">IF(OR($B16="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!S16,Matriz_Esforço_Acompanhamento!S16)))</f>
         <v/>
       </c>
       <c r="T16" t="str" cm="1">
-        <f t="array" ref="T16">IF(OR($B16="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!T16,Matriz_Esforço_Acompanhamento!T16)))</f>
+        <f t="array" ref="T16">IF(OR($B16="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!T16,Matriz_Esforço_Acompanhamento!T16)))</f>
         <v/>
       </c>
       <c r="U16" t="str" cm="1">
-        <f t="array" ref="U16">IF(OR($B16="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!U16,Matriz_Esforço_Acompanhamento!U16)))</f>
+        <f t="array" ref="U16">IF(OR($B16="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!U16,Matriz_Esforço_Acompanhamento!U16)))</f>
         <v/>
       </c>
       <c r="V16" t="str" cm="1">
-        <f t="array" ref="V16">IF(OR($B16="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!V16,Matriz_Esforço_Acompanhamento!V16)))</f>
+        <f t="array" ref="V16">IF(OR($B16="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!V16,Matriz_Esforço_Acompanhamento!V16)))</f>
         <v/>
       </c>
       <c r="W16" t="str" cm="1">
-        <f t="array" ref="W16">IF(OR($B16="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!W16,Matriz_Esforço_Acompanhamento!W16)))</f>
+        <f t="array" ref="W16">IF(OR($B16="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!W16,Matriz_Esforço_Acompanhamento!W16)))</f>
         <v/>
       </c>
       <c r="X16" t="str" cm="1">
-        <f t="array" ref="X16">IF(OR($B16="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!X16,Matriz_Esforço_Acompanhamento!X16)))</f>
+        <f t="array" ref="X16">IF(OR($B16="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!X16,Matriz_Esforço_Acompanhamento!X16)))</f>
         <v/>
       </c>
       <c r="Y16" t="str" cm="1">
-        <f t="array" ref="Y16">IF(OR($B16="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Y16,Matriz_Esforço_Acompanhamento!Y16)))</f>
+        <f t="array" ref="Y16">IF(OR($B16="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Y16,Matriz_Esforço_Acompanhamento!Y16)))</f>
         <v/>
       </c>
       <c r="Z16" t="str" cm="1">
-        <f t="array" ref="Z16">IF(OR($B16="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Z16,Matriz_Esforço_Acompanhamento!Z16)))</f>
+        <f t="array" ref="Z16">IF(OR($B16="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!Z16,Matriz_Esforço_Acompanhamento!Z16)))</f>
         <v/>
       </c>
       <c r="AA16" t="str" cm="1">
-        <f t="array" ref="AA16">IF(OR($B16="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!AA16,Matriz_Esforço_Acompanhamento!AA16)))</f>
+        <f t="array" ref="AA16">IF(OR($B16="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!AA16,Matriz_Esforço_Acompanhamento!AA16)))</f>
         <v/>
       </c>
       <c r="AB16" t="str" cm="1">
-        <f t="array" ref="AB16">IF(OR($B16="",AB$2=""),"",IF(INDEX(Projetos!AB15:AB48,Matriz_Esforço_Atual!$B16)=2,"",IF(INDEX(Projetos!AB15:AB48,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!AB16,Matriz_Esforço_Acompanhamento!AB16)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB16">IF(OR($B16="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!AB16,Matriz_Esforço_Acompanhamento!AB16)))</f>
+        <v/>
+      </c>
+      <c r="AC16" t="str" cm="1">
+        <f t="array" ref="AC16">IF(OR($B16="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B16)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B16)=0,Matriz_Esforço_Análise!AC16,Matriz_Esforço_Acompanhamento!AC16)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="str">
         <f>IF(Projetos!A16&lt;&gt;"",Projetos!A16,"")</f>
         <v/>
       </c>
       <c r="C17" t="str" cm="1">
-        <f t="array" ref="C17">IF(OR($B17="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!C17,Matriz_Esforço_Acompanhamento!C17)))</f>
+        <f t="array" ref="C17">IF(OR($B17="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!C17,Matriz_Esforço_Acompanhamento!C17)))</f>
         <v/>
       </c>
       <c r="D17" t="str" cm="1">
-        <f t="array" ref="D17">IF(OR($B17="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!D17,Matriz_Esforço_Acompanhamento!D17)))</f>
+        <f t="array" ref="D17">IF(OR($B17="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!D17,Matriz_Esforço_Acompanhamento!D17)))</f>
         <v/>
       </c>
       <c r="E17" t="str" cm="1">
-        <f t="array" ref="E17">IF(OR($B17="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!E17,Matriz_Esforço_Acompanhamento!E17)))</f>
+        <f t="array" ref="E17">IF(OR($B17="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!E17,Matriz_Esforço_Acompanhamento!E17)))</f>
         <v/>
       </c>
       <c r="F17" t="str" cm="1">
-        <f t="array" ref="F17">IF(OR($B17="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!F17,Matriz_Esforço_Acompanhamento!F17)))</f>
+        <f t="array" ref="F17">IF(OR($B17="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!F17,Matriz_Esforço_Acompanhamento!F17)))</f>
         <v/>
       </c>
       <c r="G17" t="str" cm="1">
-        <f t="array" ref="G17">IF(OR($B17="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!G17,Matriz_Esforço_Acompanhamento!G17)))</f>
+        <f t="array" ref="G17">IF(OR($B17="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!G17,Matriz_Esforço_Acompanhamento!G17)))</f>
         <v/>
       </c>
       <c r="H17" t="str" cm="1">
-        <f t="array" ref="H17">IF(OR($B17="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!H17,Matriz_Esforço_Acompanhamento!H17)))</f>
+        <f t="array" ref="H17">IF(OR($B17="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!H17,Matriz_Esforço_Acompanhamento!H17)))</f>
         <v/>
       </c>
       <c r="I17" t="str" cm="1">
-        <f t="array" ref="I17">IF(OR($B17="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!I17,Matriz_Esforço_Acompanhamento!I17)))</f>
+        <f t="array" ref="I17">IF(OR($B17="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!I17,Matriz_Esforço_Acompanhamento!I17)))</f>
         <v/>
       </c>
       <c r="J17" t="str" cm="1">
-        <f t="array" ref="J17">IF(OR($B17="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!J17,Matriz_Esforço_Acompanhamento!J17)))</f>
+        <f t="array" ref="J17">IF(OR($B17="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!J17,Matriz_Esforço_Acompanhamento!J17)))</f>
         <v/>
       </c>
       <c r="K17" t="str" cm="1">
-        <f t="array" ref="K17">IF(OR($B17="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!K17,Matriz_Esforço_Acompanhamento!K17)))</f>
+        <f t="array" ref="K17">IF(OR($B17="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!K17,Matriz_Esforço_Acompanhamento!K17)))</f>
         <v/>
       </c>
       <c r="L17" t="str" cm="1">
-        <f t="array" ref="L17">IF(OR($B17="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!L17,Matriz_Esforço_Acompanhamento!L17)))</f>
+        <f t="array" ref="L17">IF(OR($B17="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!L17,Matriz_Esforço_Acompanhamento!L17)))</f>
         <v/>
       </c>
       <c r="M17" t="str" cm="1">
-        <f t="array" ref="M17">IF(OR($B17="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!M17,Matriz_Esforço_Acompanhamento!M17)))</f>
+        <f t="array" ref="M17">IF(OR($B17="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!M17,Matriz_Esforço_Acompanhamento!M17)))</f>
         <v/>
       </c>
       <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">IF(OR($B17="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!N17,Matriz_Esforço_Acompanhamento!N17)))</f>
+        <f t="array" ref="N17">IF(OR($B17="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!N17,Matriz_Esforço_Acompanhamento!N17)))</f>
         <v/>
       </c>
       <c r="O17" t="str" cm="1">
-        <f t="array" ref="O17">IF(OR($B17="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!O17,Matriz_Esforço_Acompanhamento!O17)))</f>
+        <f t="array" ref="O17">IF(OR($B17="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!O17,Matriz_Esforço_Acompanhamento!O17)))</f>
         <v/>
       </c>
       <c r="P17" t="str" cm="1">
-        <f t="array" ref="P17">IF(OR($B17="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!P17,Matriz_Esforço_Acompanhamento!P17)))</f>
+        <f t="array" ref="P17">IF(OR($B17="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!P17,Matriz_Esforço_Acompanhamento!P17)))</f>
         <v/>
       </c>
       <c r="Q17" t="str" cm="1">
-        <f t="array" ref="Q17">IF(OR($B17="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Q17,Matriz_Esforço_Acompanhamento!Q17)))</f>
+        <f t="array" ref="Q17">IF(OR($B17="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Q17,Matriz_Esforço_Acompanhamento!Q17)))</f>
         <v/>
       </c>
       <c r="R17" t="str" cm="1">
-        <f t="array" ref="R17">IF(OR($B17="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!R17,Matriz_Esforço_Acompanhamento!R17)))</f>
+        <f t="array" ref="R17">IF(OR($B17="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!R17,Matriz_Esforço_Acompanhamento!R17)))</f>
         <v/>
       </c>
       <c r="S17" t="str" cm="1">
-        <f t="array" ref="S17">IF(OR($B17="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!S17,Matriz_Esforço_Acompanhamento!S17)))</f>
+        <f t="array" ref="S17">IF(OR($B17="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!S17,Matriz_Esforço_Acompanhamento!S17)))</f>
         <v/>
       </c>
       <c r="T17" t="str" cm="1">
-        <f t="array" ref="T17">IF(OR($B17="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!T17,Matriz_Esforço_Acompanhamento!T17)))</f>
+        <f t="array" ref="T17">IF(OR($B17="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!T17,Matriz_Esforço_Acompanhamento!T17)))</f>
         <v/>
       </c>
       <c r="U17" t="str" cm="1">
-        <f t="array" ref="U17">IF(OR($B17="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!U17,Matriz_Esforço_Acompanhamento!U17)))</f>
+        <f t="array" ref="U17">IF(OR($B17="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!U17,Matriz_Esforço_Acompanhamento!U17)))</f>
         <v/>
       </c>
       <c r="V17" t="str" cm="1">
-        <f t="array" ref="V17">IF(OR($B17="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!V17,Matriz_Esforço_Acompanhamento!V17)))</f>
+        <f t="array" ref="V17">IF(OR($B17="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!V17,Matriz_Esforço_Acompanhamento!V17)))</f>
         <v/>
       </c>
       <c r="W17" t="str" cm="1">
-        <f t="array" ref="W17">IF(OR($B17="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!W17,Matriz_Esforço_Acompanhamento!W17)))</f>
+        <f t="array" ref="W17">IF(OR($B17="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!W17,Matriz_Esforço_Acompanhamento!W17)))</f>
         <v/>
       </c>
       <c r="X17" t="str" cm="1">
-        <f t="array" ref="X17">IF(OR($B17="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!X17,Matriz_Esforço_Acompanhamento!X17)))</f>
+        <f t="array" ref="X17">IF(OR($B17="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!X17,Matriz_Esforço_Acompanhamento!X17)))</f>
         <v/>
       </c>
       <c r="Y17" t="str" cm="1">
-        <f t="array" ref="Y17">IF(OR($B17="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Y17,Matriz_Esforço_Acompanhamento!Y17)))</f>
+        <f t="array" ref="Y17">IF(OR($B17="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Y17,Matriz_Esforço_Acompanhamento!Y17)))</f>
         <v/>
       </c>
       <c r="Z17" t="str" cm="1">
-        <f t="array" ref="Z17">IF(OR($B17="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Z17,Matriz_Esforço_Acompanhamento!Z17)))</f>
+        <f t="array" ref="Z17">IF(OR($B17="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!Z17,Matriz_Esforço_Acompanhamento!Z17)))</f>
         <v/>
       </c>
       <c r="AA17" t="str" cm="1">
-        <f t="array" ref="AA17">IF(OR($B17="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!AA17,Matriz_Esforço_Acompanhamento!AA17)))</f>
+        <f t="array" ref="AA17">IF(OR($B17="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!AA17,Matriz_Esforço_Acompanhamento!AA17)))</f>
         <v/>
       </c>
       <c r="AB17" t="str" cm="1">
-        <f t="array" ref="AB17">IF(OR($B17="",AB$2=""),"",IF(INDEX(Projetos!AB16:AB49,Matriz_Esforço_Atual!$B17)=2,"",IF(INDEX(Projetos!AB16:AB49,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!AB17,Matriz_Esforço_Acompanhamento!AB17)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB17">IF(OR($B17="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!AB17,Matriz_Esforço_Acompanhamento!AB17)))</f>
+        <v/>
+      </c>
+      <c r="AC17" t="str" cm="1">
+        <f t="array" ref="AC17">IF(OR($B17="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B17)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B17)=0,Matriz_Esforço_Análise!AC17,Matriz_Esforço_Acompanhamento!AC17)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="str">
         <f>IF(Projetos!A17&lt;&gt;"",Projetos!A17,"")</f>
         <v/>
       </c>
       <c r="C18" t="str" cm="1">
-        <f t="array" ref="C18">IF(OR($B18="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!C18,Matriz_Esforço_Acompanhamento!C18)))</f>
+        <f t="array" ref="C18">IF(OR($B18="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!C18,Matriz_Esforço_Acompanhamento!C18)))</f>
         <v/>
       </c>
       <c r="D18" t="str" cm="1">
-        <f t="array" ref="D18">IF(OR($B18="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!D18,Matriz_Esforço_Acompanhamento!D18)))</f>
+        <f t="array" ref="D18">IF(OR($B18="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!D18,Matriz_Esforço_Acompanhamento!D18)))</f>
         <v/>
       </c>
       <c r="E18" t="str" cm="1">
-        <f t="array" ref="E18">IF(OR($B18="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!E18,Matriz_Esforço_Acompanhamento!E18)))</f>
+        <f t="array" ref="E18">IF(OR($B18="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!E18,Matriz_Esforço_Acompanhamento!E18)))</f>
         <v/>
       </c>
       <c r="F18" t="str" cm="1">
-        <f t="array" ref="F18">IF(OR($B18="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!F18,Matriz_Esforço_Acompanhamento!F18)))</f>
+        <f t="array" ref="F18">IF(OR($B18="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!F18,Matriz_Esforço_Acompanhamento!F18)))</f>
         <v/>
       </c>
       <c r="G18" t="str" cm="1">
-        <f t="array" ref="G18">IF(OR($B18="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!G18,Matriz_Esforço_Acompanhamento!G18)))</f>
+        <f t="array" ref="G18">IF(OR($B18="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!G18,Matriz_Esforço_Acompanhamento!G18)))</f>
         <v/>
       </c>
       <c r="H18" t="str" cm="1">
-        <f t="array" ref="H18">IF(OR($B18="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!H18,Matriz_Esforço_Acompanhamento!H18)))</f>
+        <f t="array" ref="H18">IF(OR($B18="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!H18,Matriz_Esforço_Acompanhamento!H18)))</f>
         <v/>
       </c>
       <c r="I18" t="str" cm="1">
-        <f t="array" ref="I18">IF(OR($B18="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!I18,Matriz_Esforço_Acompanhamento!I18)))</f>
+        <f t="array" ref="I18">IF(OR($B18="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!I18,Matriz_Esforço_Acompanhamento!I18)))</f>
         <v/>
       </c>
       <c r="J18" t="str" cm="1">
-        <f t="array" ref="J18">IF(OR($B18="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!J18,Matriz_Esforço_Acompanhamento!J18)))</f>
+        <f t="array" ref="J18">IF(OR($B18="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!J18,Matriz_Esforço_Acompanhamento!J18)))</f>
         <v/>
       </c>
       <c r="K18" t="str" cm="1">
-        <f t="array" ref="K18">IF(OR($B18="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!K18,Matriz_Esforço_Acompanhamento!K18)))</f>
+        <f t="array" ref="K18">IF(OR($B18="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!K18,Matriz_Esforço_Acompanhamento!K18)))</f>
         <v/>
       </c>
       <c r="L18" t="str" cm="1">
-        <f t="array" ref="L18">IF(OR($B18="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!L18,Matriz_Esforço_Acompanhamento!L18)))</f>
+        <f t="array" ref="L18">IF(OR($B18="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!L18,Matriz_Esforço_Acompanhamento!L18)))</f>
         <v/>
       </c>
       <c r="M18" t="str" cm="1">
-        <f t="array" ref="M18">IF(OR($B18="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!M18,Matriz_Esforço_Acompanhamento!M18)))</f>
+        <f t="array" ref="M18">IF(OR($B18="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!M18,Matriz_Esforço_Acompanhamento!M18)))</f>
         <v/>
       </c>
       <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">IF(OR($B18="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!N18,Matriz_Esforço_Acompanhamento!N18)))</f>
+        <f t="array" ref="N18">IF(OR($B18="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!N18,Matriz_Esforço_Acompanhamento!N18)))</f>
         <v/>
       </c>
       <c r="O18" t="str" cm="1">
-        <f t="array" ref="O18">IF(OR($B18="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!O18,Matriz_Esforço_Acompanhamento!O18)))</f>
+        <f t="array" ref="O18">IF(OR($B18="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!O18,Matriz_Esforço_Acompanhamento!O18)))</f>
         <v/>
       </c>
       <c r="P18" t="str" cm="1">
-        <f t="array" ref="P18">IF(OR($B18="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!P18,Matriz_Esforço_Acompanhamento!P18)))</f>
+        <f t="array" ref="P18">IF(OR($B18="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!P18,Matriz_Esforço_Acompanhamento!P18)))</f>
         <v/>
       </c>
       <c r="Q18" t="str" cm="1">
-        <f t="array" ref="Q18">IF(OR($B18="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Q18,Matriz_Esforço_Acompanhamento!Q18)))</f>
+        <f t="array" ref="Q18">IF(OR($B18="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Q18,Matriz_Esforço_Acompanhamento!Q18)))</f>
         <v/>
       </c>
       <c r="R18" t="str" cm="1">
-        <f t="array" ref="R18">IF(OR($B18="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!R18,Matriz_Esforço_Acompanhamento!R18)))</f>
+        <f t="array" ref="R18">IF(OR($B18="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!R18,Matriz_Esforço_Acompanhamento!R18)))</f>
         <v/>
       </c>
       <c r="S18" t="str" cm="1">
-        <f t="array" ref="S18">IF(OR($B18="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!S18,Matriz_Esforço_Acompanhamento!S18)))</f>
+        <f t="array" ref="S18">IF(OR($B18="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!S18,Matriz_Esforço_Acompanhamento!S18)))</f>
         <v/>
       </c>
       <c r="T18" t="str" cm="1">
-        <f t="array" ref="T18">IF(OR($B18="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!T18,Matriz_Esforço_Acompanhamento!T18)))</f>
+        <f t="array" ref="T18">IF(OR($B18="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!T18,Matriz_Esforço_Acompanhamento!T18)))</f>
         <v/>
       </c>
       <c r="U18" t="str" cm="1">
-        <f t="array" ref="U18">IF(OR($B18="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!U18,Matriz_Esforço_Acompanhamento!U18)))</f>
+        <f t="array" ref="U18">IF(OR($B18="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!U18,Matriz_Esforço_Acompanhamento!U18)))</f>
         <v/>
       </c>
       <c r="V18" t="str" cm="1">
-        <f t="array" ref="V18">IF(OR($B18="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!V18,Matriz_Esforço_Acompanhamento!V18)))</f>
+        <f t="array" ref="V18">IF(OR($B18="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!V18,Matriz_Esforço_Acompanhamento!V18)))</f>
         <v/>
       </c>
       <c r="W18" t="str" cm="1">
-        <f t="array" ref="W18">IF(OR($B18="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!W18,Matriz_Esforço_Acompanhamento!W18)))</f>
+        <f t="array" ref="W18">IF(OR($B18="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!W18,Matriz_Esforço_Acompanhamento!W18)))</f>
         <v/>
       </c>
       <c r="X18" t="str" cm="1">
-        <f t="array" ref="X18">IF(OR($B18="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!X18,Matriz_Esforço_Acompanhamento!X18)))</f>
+        <f t="array" ref="X18">IF(OR($B18="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!X18,Matriz_Esforço_Acompanhamento!X18)))</f>
         <v/>
       </c>
       <c r="Y18" t="str" cm="1">
-        <f t="array" ref="Y18">IF(OR($B18="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Y18,Matriz_Esforço_Acompanhamento!Y18)))</f>
+        <f t="array" ref="Y18">IF(OR($B18="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Y18,Matriz_Esforço_Acompanhamento!Y18)))</f>
         <v/>
       </c>
       <c r="Z18" t="str" cm="1">
-        <f t="array" ref="Z18">IF(OR($B18="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Z18,Matriz_Esforço_Acompanhamento!Z18)))</f>
+        <f t="array" ref="Z18">IF(OR($B18="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!Z18,Matriz_Esforço_Acompanhamento!Z18)))</f>
         <v/>
       </c>
       <c r="AA18" t="str" cm="1">
-        <f t="array" ref="AA18">IF(OR($B18="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!AA18,Matriz_Esforço_Acompanhamento!AA18)))</f>
+        <f t="array" ref="AA18">IF(OR($B18="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!AA18,Matriz_Esforço_Acompanhamento!AA18)))</f>
         <v/>
       </c>
       <c r="AB18" t="str" cm="1">
-        <f t="array" ref="AB18">IF(OR($B18="",AB$2=""),"",IF(INDEX(Projetos!AB17:AB50,Matriz_Esforço_Atual!$B18)=2,"",IF(INDEX(Projetos!AB17:AB50,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!AB18,Matriz_Esforço_Acompanhamento!AB18)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB18">IF(OR($B18="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!AB18,Matriz_Esforço_Acompanhamento!AB18)))</f>
+        <v/>
+      </c>
+      <c r="AC18" t="str" cm="1">
+        <f t="array" ref="AC18">IF(OR($B18="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B18)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B18)=0,Matriz_Esforço_Análise!AC18,Matriz_Esforço_Acompanhamento!AC18)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="str">
         <f>IF(Projetos!A18&lt;&gt;"",Projetos!A18,"")</f>
         <v/>
       </c>
       <c r="C19" t="str" cm="1">
-        <f t="array" ref="C19">IF(OR($B19="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!C19,Matriz_Esforço_Acompanhamento!C19)))</f>
+        <f t="array" ref="C19">IF(OR($B19="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!C19,Matriz_Esforço_Acompanhamento!C19)))</f>
         <v/>
       </c>
       <c r="D19" t="str" cm="1">
-        <f t="array" ref="D19">IF(OR($B19="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!D19,Matriz_Esforço_Acompanhamento!D19)))</f>
+        <f t="array" ref="D19">IF(OR($B19="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!D19,Matriz_Esforço_Acompanhamento!D19)))</f>
         <v/>
       </c>
       <c r="E19" t="str" cm="1">
-        <f t="array" ref="E19">IF(OR($B19="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!E19,Matriz_Esforço_Acompanhamento!E19)))</f>
+        <f t="array" ref="E19">IF(OR($B19="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!E19,Matriz_Esforço_Acompanhamento!E19)))</f>
         <v/>
       </c>
       <c r="F19" t="str" cm="1">
-        <f t="array" ref="F19">IF(OR($B19="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!F19,Matriz_Esforço_Acompanhamento!F19)))</f>
+        <f t="array" ref="F19">IF(OR($B19="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!F19,Matriz_Esforço_Acompanhamento!F19)))</f>
         <v/>
       </c>
       <c r="G19" t="str" cm="1">
-        <f t="array" ref="G19">IF(OR($B19="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!G19,Matriz_Esforço_Acompanhamento!G19)))</f>
+        <f t="array" ref="G19">IF(OR($B19="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!G19,Matriz_Esforço_Acompanhamento!G19)))</f>
         <v/>
       </c>
       <c r="H19" t="str" cm="1">
-        <f t="array" ref="H19">IF(OR($B19="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!H19,Matriz_Esforço_Acompanhamento!H19)))</f>
+        <f t="array" ref="H19">IF(OR($B19="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!H19,Matriz_Esforço_Acompanhamento!H19)))</f>
         <v/>
       </c>
       <c r="I19" t="str" cm="1">
-        <f t="array" ref="I19">IF(OR($B19="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!I19,Matriz_Esforço_Acompanhamento!I19)))</f>
+        <f t="array" ref="I19">IF(OR($B19="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!I19,Matriz_Esforço_Acompanhamento!I19)))</f>
         <v/>
       </c>
       <c r="J19" t="str" cm="1">
-        <f t="array" ref="J19">IF(OR($B19="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!J19,Matriz_Esforço_Acompanhamento!J19)))</f>
+        <f t="array" ref="J19">IF(OR($B19="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!J19,Matriz_Esforço_Acompanhamento!J19)))</f>
         <v/>
       </c>
       <c r="K19" t="str" cm="1">
-        <f t="array" ref="K19">IF(OR($B19="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!K19,Matriz_Esforço_Acompanhamento!K19)))</f>
+        <f t="array" ref="K19">IF(OR($B19="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!K19,Matriz_Esforço_Acompanhamento!K19)))</f>
         <v/>
       </c>
       <c r="L19" t="str" cm="1">
-        <f t="array" ref="L19">IF(OR($B19="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!L19,Matriz_Esforço_Acompanhamento!L19)))</f>
+        <f t="array" ref="L19">IF(OR($B19="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!L19,Matriz_Esforço_Acompanhamento!L19)))</f>
         <v/>
       </c>
       <c r="M19" t="str" cm="1">
-        <f t="array" ref="M19">IF(OR($B19="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!M19,Matriz_Esforço_Acompanhamento!M19)))</f>
+        <f t="array" ref="M19">IF(OR($B19="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!M19,Matriz_Esforço_Acompanhamento!M19)))</f>
         <v/>
       </c>
       <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19">IF(OR($B19="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!N19,Matriz_Esforço_Acompanhamento!N19)))</f>
+        <f t="array" ref="N19">IF(OR($B19="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!N19,Matriz_Esforço_Acompanhamento!N19)))</f>
         <v/>
       </c>
       <c r="O19" t="str" cm="1">
-        <f t="array" ref="O19">IF(OR($B19="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!O19,Matriz_Esforço_Acompanhamento!O19)))</f>
+        <f t="array" ref="O19">IF(OR($B19="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!O19,Matriz_Esforço_Acompanhamento!O19)))</f>
         <v/>
       </c>
       <c r="P19" t="str" cm="1">
-        <f t="array" ref="P19">IF(OR($B19="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!P19,Matriz_Esforço_Acompanhamento!P19)))</f>
+        <f t="array" ref="P19">IF(OR($B19="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!P19,Matriz_Esforço_Acompanhamento!P19)))</f>
         <v/>
       </c>
       <c r="Q19" t="str" cm="1">
-        <f t="array" ref="Q19">IF(OR($B19="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Q19,Matriz_Esforço_Acompanhamento!Q19)))</f>
+        <f t="array" ref="Q19">IF(OR($B19="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Q19,Matriz_Esforço_Acompanhamento!Q19)))</f>
         <v/>
       </c>
       <c r="R19" t="str" cm="1">
-        <f t="array" ref="R19">IF(OR($B19="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!R19,Matriz_Esforço_Acompanhamento!R19)))</f>
+        <f t="array" ref="R19">IF(OR($B19="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!R19,Matriz_Esforço_Acompanhamento!R19)))</f>
         <v/>
       </c>
       <c r="S19" t="str" cm="1">
-        <f t="array" ref="S19">IF(OR($B19="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!S19,Matriz_Esforço_Acompanhamento!S19)))</f>
+        <f t="array" ref="S19">IF(OR($B19="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!S19,Matriz_Esforço_Acompanhamento!S19)))</f>
         <v/>
       </c>
       <c r="T19" t="str" cm="1">
-        <f t="array" ref="T19">IF(OR($B19="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!T19,Matriz_Esforço_Acompanhamento!T19)))</f>
+        <f t="array" ref="T19">IF(OR($B19="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!T19,Matriz_Esforço_Acompanhamento!T19)))</f>
         <v/>
       </c>
       <c r="U19" t="str" cm="1">
-        <f t="array" ref="U19">IF(OR($B19="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!U19,Matriz_Esforço_Acompanhamento!U19)))</f>
+        <f t="array" ref="U19">IF(OR($B19="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!U19,Matriz_Esforço_Acompanhamento!U19)))</f>
         <v/>
       </c>
       <c r="V19" t="str" cm="1">
-        <f t="array" ref="V19">IF(OR($B19="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!V19,Matriz_Esforço_Acompanhamento!V19)))</f>
+        <f t="array" ref="V19">IF(OR($B19="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!V19,Matriz_Esforço_Acompanhamento!V19)))</f>
         <v/>
       </c>
       <c r="W19" t="str" cm="1">
-        <f t="array" ref="W19">IF(OR($B19="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!W19,Matriz_Esforço_Acompanhamento!W19)))</f>
+        <f t="array" ref="W19">IF(OR($B19="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!W19,Matriz_Esforço_Acompanhamento!W19)))</f>
         <v/>
       </c>
       <c r="X19" t="str" cm="1">
-        <f t="array" ref="X19">IF(OR($B19="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!X19,Matriz_Esforço_Acompanhamento!X19)))</f>
+        <f t="array" ref="X19">IF(OR($B19="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!X19,Matriz_Esforço_Acompanhamento!X19)))</f>
         <v/>
       </c>
       <c r="Y19" t="str" cm="1">
-        <f t="array" ref="Y19">IF(OR($B19="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Y19,Matriz_Esforço_Acompanhamento!Y19)))</f>
+        <f t="array" ref="Y19">IF(OR($B19="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Y19,Matriz_Esforço_Acompanhamento!Y19)))</f>
         <v/>
       </c>
       <c r="Z19" t="str" cm="1">
-        <f t="array" ref="Z19">IF(OR($B19="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Z19,Matriz_Esforço_Acompanhamento!Z19)))</f>
+        <f t="array" ref="Z19">IF(OR($B19="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!Z19,Matriz_Esforço_Acompanhamento!Z19)))</f>
         <v/>
       </c>
       <c r="AA19" t="str" cm="1">
-        <f t="array" ref="AA19">IF(OR($B19="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!AA19,Matriz_Esforço_Acompanhamento!AA19)))</f>
+        <f t="array" ref="AA19">IF(OR($B19="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!AA19,Matriz_Esforço_Acompanhamento!AA19)))</f>
         <v/>
       </c>
       <c r="AB19" t="str" cm="1">
-        <f t="array" ref="AB19">IF(OR($B19="",AB$2=""),"",IF(INDEX(Projetos!AB18:AB51,Matriz_Esforço_Atual!$B19)=2,"",IF(INDEX(Projetos!AB18:AB51,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!AB19,Matriz_Esforço_Acompanhamento!AB19)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB19">IF(OR($B19="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!AB19,Matriz_Esforço_Acompanhamento!AB19)))</f>
+        <v/>
+      </c>
+      <c r="AC19" t="str" cm="1">
+        <f t="array" ref="AC19">IF(OR($B19="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B19)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B19)=0,Matriz_Esforço_Análise!AC19,Matriz_Esforço_Acompanhamento!AC19)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
         <f>IF(Projetos!A19&lt;&gt;"",Projetos!A19,"")</f>
         <v/>
       </c>
       <c r="C20" t="str" cm="1">
-        <f t="array" ref="C20">IF(OR($B20="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!C20,Matriz_Esforço_Acompanhamento!C20)))</f>
+        <f t="array" ref="C20">IF(OR($B20="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!C20,Matriz_Esforço_Acompanhamento!C20)))</f>
         <v/>
       </c>
       <c r="D20" t="str" cm="1">
-        <f t="array" ref="D20">IF(OR($B20="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!D20,Matriz_Esforço_Acompanhamento!D20)))</f>
+        <f t="array" ref="D20">IF(OR($B20="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!D20,Matriz_Esforço_Acompanhamento!D20)))</f>
         <v/>
       </c>
       <c r="E20" t="str" cm="1">
-        <f t="array" ref="E20">IF(OR($B20="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!E20,Matriz_Esforço_Acompanhamento!E20)))</f>
+        <f t="array" ref="E20">IF(OR($B20="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!E20,Matriz_Esforço_Acompanhamento!E20)))</f>
         <v/>
       </c>
       <c r="F20" t="str" cm="1">
-        <f t="array" ref="F20">IF(OR($B20="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!F20,Matriz_Esforço_Acompanhamento!F20)))</f>
+        <f t="array" ref="F20">IF(OR($B20="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!F20,Matriz_Esforço_Acompanhamento!F20)))</f>
         <v/>
       </c>
       <c r="G20" t="str" cm="1">
-        <f t="array" ref="G20">IF(OR($B20="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!G20,Matriz_Esforço_Acompanhamento!G20)))</f>
+        <f t="array" ref="G20">IF(OR($B20="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!G20,Matriz_Esforço_Acompanhamento!G20)))</f>
         <v/>
       </c>
       <c r="H20" t="str" cm="1">
-        <f t="array" ref="H20">IF(OR($B20="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!H20,Matriz_Esforço_Acompanhamento!H20)))</f>
+        <f t="array" ref="H20">IF(OR($B20="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!H20,Matriz_Esforço_Acompanhamento!H20)))</f>
         <v/>
       </c>
       <c r="I20" t="str" cm="1">
-        <f t="array" ref="I20">IF(OR($B20="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!I20,Matriz_Esforço_Acompanhamento!I20)))</f>
+        <f t="array" ref="I20">IF(OR($B20="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!I20,Matriz_Esforço_Acompanhamento!I20)))</f>
         <v/>
       </c>
       <c r="J20" t="str" cm="1">
-        <f t="array" ref="J20">IF(OR($B20="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!J20,Matriz_Esforço_Acompanhamento!J20)))</f>
+        <f t="array" ref="J20">IF(OR($B20="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!J20,Matriz_Esforço_Acompanhamento!J20)))</f>
         <v/>
       </c>
       <c r="K20" t="str" cm="1">
-        <f t="array" ref="K20">IF(OR($B20="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!K20,Matriz_Esforço_Acompanhamento!K20)))</f>
+        <f t="array" ref="K20">IF(OR($B20="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!K20,Matriz_Esforço_Acompanhamento!K20)))</f>
         <v/>
       </c>
       <c r="L20" t="str" cm="1">
-        <f t="array" ref="L20">IF(OR($B20="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!L20,Matriz_Esforço_Acompanhamento!L20)))</f>
+        <f t="array" ref="L20">IF(OR($B20="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!L20,Matriz_Esforço_Acompanhamento!L20)))</f>
         <v/>
       </c>
       <c r="M20" t="str" cm="1">
-        <f t="array" ref="M20">IF(OR($B20="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!M20,Matriz_Esforço_Acompanhamento!M20)))</f>
+        <f t="array" ref="M20">IF(OR($B20="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!M20,Matriz_Esforço_Acompanhamento!M20)))</f>
         <v/>
       </c>
       <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20">IF(OR($B20="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!N20,Matriz_Esforço_Acompanhamento!N20)))</f>
+        <f t="array" ref="N20">IF(OR($B20="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!N20,Matriz_Esforço_Acompanhamento!N20)))</f>
         <v/>
       </c>
       <c r="O20" t="str" cm="1">
-        <f t="array" ref="O20">IF(OR($B20="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!O20,Matriz_Esforço_Acompanhamento!O20)))</f>
+        <f t="array" ref="O20">IF(OR($B20="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!O20,Matriz_Esforço_Acompanhamento!O20)))</f>
         <v/>
       </c>
       <c r="P20" t="str" cm="1">
-        <f t="array" ref="P20">IF(OR($B20="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!P20,Matriz_Esforço_Acompanhamento!P20)))</f>
+        <f t="array" ref="P20">IF(OR($B20="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!P20,Matriz_Esforço_Acompanhamento!P20)))</f>
         <v/>
       </c>
       <c r="Q20" t="str" cm="1">
-        <f t="array" ref="Q20">IF(OR($B20="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Q20,Matriz_Esforço_Acompanhamento!Q20)))</f>
+        <f t="array" ref="Q20">IF(OR($B20="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Q20,Matriz_Esforço_Acompanhamento!Q20)))</f>
         <v/>
       </c>
       <c r="R20" t="str" cm="1">
-        <f t="array" ref="R20">IF(OR($B20="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!R20,Matriz_Esforço_Acompanhamento!R20)))</f>
+        <f t="array" ref="R20">IF(OR($B20="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!R20,Matriz_Esforço_Acompanhamento!R20)))</f>
         <v/>
       </c>
       <c r="S20" t="str" cm="1">
-        <f t="array" ref="S20">IF(OR($B20="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!S20,Matriz_Esforço_Acompanhamento!S20)))</f>
+        <f t="array" ref="S20">IF(OR($B20="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!S20,Matriz_Esforço_Acompanhamento!S20)))</f>
         <v/>
       </c>
       <c r="T20" t="str" cm="1">
-        <f t="array" ref="T20">IF(OR($B20="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!T20,Matriz_Esforço_Acompanhamento!T20)))</f>
+        <f t="array" ref="T20">IF(OR($B20="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!T20,Matriz_Esforço_Acompanhamento!T20)))</f>
         <v/>
       </c>
       <c r="U20" t="str" cm="1">
-        <f t="array" ref="U20">IF(OR($B20="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!U20,Matriz_Esforço_Acompanhamento!U20)))</f>
+        <f t="array" ref="U20">IF(OR($B20="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!U20,Matriz_Esforço_Acompanhamento!U20)))</f>
         <v/>
       </c>
       <c r="V20" t="str" cm="1">
-        <f t="array" ref="V20">IF(OR($B20="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!V20,Matriz_Esforço_Acompanhamento!V20)))</f>
+        <f t="array" ref="V20">IF(OR($B20="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!V20,Matriz_Esforço_Acompanhamento!V20)))</f>
         <v/>
       </c>
       <c r="W20" t="str" cm="1">
-        <f t="array" ref="W20">IF(OR($B20="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!W20,Matriz_Esforço_Acompanhamento!W20)))</f>
+        <f t="array" ref="W20">IF(OR($B20="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!W20,Matriz_Esforço_Acompanhamento!W20)))</f>
         <v/>
       </c>
       <c r="X20" t="str" cm="1">
-        <f t="array" ref="X20">IF(OR($B20="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!X20,Matriz_Esforço_Acompanhamento!X20)))</f>
+        <f t="array" ref="X20">IF(OR($B20="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!X20,Matriz_Esforço_Acompanhamento!X20)))</f>
         <v/>
       </c>
       <c r="Y20" t="str" cm="1">
-        <f t="array" ref="Y20">IF(OR($B20="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Y20,Matriz_Esforço_Acompanhamento!Y20)))</f>
+        <f t="array" ref="Y20">IF(OR($B20="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Y20,Matriz_Esforço_Acompanhamento!Y20)))</f>
         <v/>
       </c>
       <c r="Z20" t="str" cm="1">
-        <f t="array" ref="Z20">IF(OR($B20="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Z20,Matriz_Esforço_Acompanhamento!Z20)))</f>
+        <f t="array" ref="Z20">IF(OR($B20="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!Z20,Matriz_Esforço_Acompanhamento!Z20)))</f>
         <v/>
       </c>
       <c r="AA20" t="str" cm="1">
-        <f t="array" ref="AA20">IF(OR($B20="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!AA20,Matriz_Esforço_Acompanhamento!AA20)))</f>
+        <f t="array" ref="AA20">IF(OR($B20="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!AA20,Matriz_Esforço_Acompanhamento!AA20)))</f>
         <v/>
       </c>
       <c r="AB20" t="str" cm="1">
-        <f t="array" ref="AB20">IF(OR($B20="",AB$2=""),"",IF(INDEX(Projetos!AB19:AB52,Matriz_Esforço_Atual!$B20)=2,"",IF(INDEX(Projetos!AB19:AB52,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!AB20,Matriz_Esforço_Acompanhamento!AB20)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB20">IF(OR($B20="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!AB20,Matriz_Esforço_Acompanhamento!AB20)))</f>
+        <v/>
+      </c>
+      <c r="AC20" t="str" cm="1">
+        <f t="array" ref="AC20">IF(OR($B20="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B20)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B20)=0,Matriz_Esforço_Análise!AC20,Matriz_Esforço_Acompanhamento!AC20)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
         <f>IF(Projetos!A20&lt;&gt;"",Projetos!A20,"")</f>
         <v/>
       </c>
       <c r="C21" t="str" cm="1">
-        <f t="array" ref="C21">IF(OR($B21="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!C21,Matriz_Esforço_Acompanhamento!C21)))</f>
+        <f t="array" ref="C21">IF(OR($B21="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!C21,Matriz_Esforço_Acompanhamento!C21)))</f>
         <v/>
       </c>
       <c r="D21" t="str" cm="1">
-        <f t="array" ref="D21">IF(OR($B21="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!D21,Matriz_Esforço_Acompanhamento!D21)))</f>
+        <f t="array" ref="D21">IF(OR($B21="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!D21,Matriz_Esforço_Acompanhamento!D21)))</f>
         <v/>
       </c>
       <c r="E21" t="str" cm="1">
-        <f t="array" ref="E21">IF(OR($B21="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!E21,Matriz_Esforço_Acompanhamento!E21)))</f>
+        <f t="array" ref="E21">IF(OR($B21="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!E21,Matriz_Esforço_Acompanhamento!E21)))</f>
         <v/>
       </c>
       <c r="F21" t="str" cm="1">
-        <f t="array" ref="F21">IF(OR($B21="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!F21,Matriz_Esforço_Acompanhamento!F21)))</f>
+        <f t="array" ref="F21">IF(OR($B21="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!F21,Matriz_Esforço_Acompanhamento!F21)))</f>
         <v/>
       </c>
       <c r="G21" t="str" cm="1">
-        <f t="array" ref="G21">IF(OR($B21="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!G21,Matriz_Esforço_Acompanhamento!G21)))</f>
+        <f t="array" ref="G21">IF(OR($B21="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!G21,Matriz_Esforço_Acompanhamento!G21)))</f>
         <v/>
       </c>
       <c r="H21" t="str" cm="1">
-        <f t="array" ref="H21">IF(OR($B21="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!H21,Matriz_Esforço_Acompanhamento!H21)))</f>
+        <f t="array" ref="H21">IF(OR($B21="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!H21,Matriz_Esforço_Acompanhamento!H21)))</f>
         <v/>
       </c>
       <c r="I21" t="str" cm="1">
-        <f t="array" ref="I21">IF(OR($B21="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!I21,Matriz_Esforço_Acompanhamento!I21)))</f>
+        <f t="array" ref="I21">IF(OR($B21="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!I21,Matriz_Esforço_Acompanhamento!I21)))</f>
         <v/>
       </c>
       <c r="J21" t="str" cm="1">
-        <f t="array" ref="J21">IF(OR($B21="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!J21,Matriz_Esforço_Acompanhamento!J21)))</f>
+        <f t="array" ref="J21">IF(OR($B21="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!J21,Matriz_Esforço_Acompanhamento!J21)))</f>
         <v/>
       </c>
       <c r="K21" t="str" cm="1">
-        <f t="array" ref="K21">IF(OR($B21="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!K21,Matriz_Esforço_Acompanhamento!K21)))</f>
+        <f t="array" ref="K21">IF(OR($B21="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!K21,Matriz_Esforço_Acompanhamento!K21)))</f>
         <v/>
       </c>
       <c r="L21" t="str" cm="1">
-        <f t="array" ref="L21">IF(OR($B21="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!L21,Matriz_Esforço_Acompanhamento!L21)))</f>
+        <f t="array" ref="L21">IF(OR($B21="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!L21,Matriz_Esforço_Acompanhamento!L21)))</f>
         <v/>
       </c>
       <c r="M21" t="str" cm="1">
-        <f t="array" ref="M21">IF(OR($B21="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!M21,Matriz_Esforço_Acompanhamento!M21)))</f>
+        <f t="array" ref="M21">IF(OR($B21="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!M21,Matriz_Esforço_Acompanhamento!M21)))</f>
         <v/>
       </c>
       <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21">IF(OR($B21="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!N21,Matriz_Esforço_Acompanhamento!N21)))</f>
+        <f t="array" ref="N21">IF(OR($B21="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!N21,Matriz_Esforço_Acompanhamento!N21)))</f>
         <v/>
       </c>
       <c r="O21" t="str" cm="1">
-        <f t="array" ref="O21">IF(OR($B21="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!O21,Matriz_Esforço_Acompanhamento!O21)))</f>
+        <f t="array" ref="O21">IF(OR($B21="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!O21,Matriz_Esforço_Acompanhamento!O21)))</f>
         <v/>
       </c>
       <c r="P21" t="str" cm="1">
-        <f t="array" ref="P21">IF(OR($B21="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!P21,Matriz_Esforço_Acompanhamento!P21)))</f>
+        <f t="array" ref="P21">IF(OR($B21="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!P21,Matriz_Esforço_Acompanhamento!P21)))</f>
         <v/>
       </c>
       <c r="Q21" t="str" cm="1">
-        <f t="array" ref="Q21">IF(OR($B21="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Q21,Matriz_Esforço_Acompanhamento!Q21)))</f>
+        <f t="array" ref="Q21">IF(OR($B21="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Q21,Matriz_Esforço_Acompanhamento!Q21)))</f>
         <v/>
       </c>
       <c r="R21" t="str" cm="1">
-        <f t="array" ref="R21">IF(OR($B21="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!R21,Matriz_Esforço_Acompanhamento!R21)))</f>
+        <f t="array" ref="R21">IF(OR($B21="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!R21,Matriz_Esforço_Acompanhamento!R21)))</f>
         <v/>
       </c>
       <c r="S21" t="str" cm="1">
-        <f t="array" ref="S21">IF(OR($B21="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!S21,Matriz_Esforço_Acompanhamento!S21)))</f>
+        <f t="array" ref="S21">IF(OR($B21="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!S21,Matriz_Esforço_Acompanhamento!S21)))</f>
         <v/>
       </c>
       <c r="T21" t="str" cm="1">
-        <f t="array" ref="T21">IF(OR($B21="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!T21,Matriz_Esforço_Acompanhamento!T21)))</f>
+        <f t="array" ref="T21">IF(OR($B21="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!T21,Matriz_Esforço_Acompanhamento!T21)))</f>
         <v/>
       </c>
       <c r="U21" t="str" cm="1">
-        <f t="array" ref="U21">IF(OR($B21="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!U21,Matriz_Esforço_Acompanhamento!U21)))</f>
+        <f t="array" ref="U21">IF(OR($B21="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!U21,Matriz_Esforço_Acompanhamento!U21)))</f>
         <v/>
       </c>
       <c r="V21" t="str" cm="1">
-        <f t="array" ref="V21">IF(OR($B21="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!V21,Matriz_Esforço_Acompanhamento!V21)))</f>
+        <f t="array" ref="V21">IF(OR($B21="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!V21,Matriz_Esforço_Acompanhamento!V21)))</f>
         <v/>
       </c>
       <c r="W21" t="str" cm="1">
-        <f t="array" ref="W21">IF(OR($B21="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!W21,Matriz_Esforço_Acompanhamento!W21)))</f>
+        <f t="array" ref="W21">IF(OR($B21="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!W21,Matriz_Esforço_Acompanhamento!W21)))</f>
         <v/>
       </c>
       <c r="X21" t="str" cm="1">
-        <f t="array" ref="X21">IF(OR($B21="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!X21,Matriz_Esforço_Acompanhamento!X21)))</f>
+        <f t="array" ref="X21">IF(OR($B21="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!X21,Matriz_Esforço_Acompanhamento!X21)))</f>
         <v/>
       </c>
       <c r="Y21" t="str" cm="1">
-        <f t="array" ref="Y21">IF(OR($B21="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Y21,Matriz_Esforço_Acompanhamento!Y21)))</f>
+        <f t="array" ref="Y21">IF(OR($B21="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Y21,Matriz_Esforço_Acompanhamento!Y21)))</f>
         <v/>
       </c>
       <c r="Z21" t="str" cm="1">
-        <f t="array" ref="Z21">IF(OR($B21="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Z21,Matriz_Esforço_Acompanhamento!Z21)))</f>
+        <f t="array" ref="Z21">IF(OR($B21="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!Z21,Matriz_Esforço_Acompanhamento!Z21)))</f>
         <v/>
       </c>
       <c r="AA21" t="str" cm="1">
-        <f t="array" ref="AA21">IF(OR($B21="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!AA21,Matriz_Esforço_Acompanhamento!AA21)))</f>
+        <f t="array" ref="AA21">IF(OR($B21="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!AA21,Matriz_Esforço_Acompanhamento!AA21)))</f>
         <v/>
       </c>
       <c r="AB21" t="str" cm="1">
-        <f t="array" ref="AB21">IF(OR($B21="",AB$2=""),"",IF(INDEX(Projetos!AB20:AB53,Matriz_Esforço_Atual!$B21)=2,"",IF(INDEX(Projetos!AB20:AB53,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!AB21,Matriz_Esforço_Acompanhamento!AB21)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB21">IF(OR($B21="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!AB21,Matriz_Esforço_Acompanhamento!AB21)))</f>
+        <v/>
+      </c>
+      <c r="AC21" t="str" cm="1">
+        <f t="array" ref="AC21">IF(OR($B21="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B21)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B21)=0,Matriz_Esforço_Análise!AC21,Matriz_Esforço_Acompanhamento!AC21)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
         <f>IF(Projetos!A21&lt;&gt;"",Projetos!A21,"")</f>
         <v/>
       </c>
       <c r="C22" t="str" cm="1">
-        <f t="array" ref="C22">IF(OR($B22="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!C22,Matriz_Esforço_Acompanhamento!C22)))</f>
+        <f t="array" ref="C22">IF(OR($B22="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!C22,Matriz_Esforço_Acompanhamento!C22)))</f>
         <v/>
       </c>
       <c r="D22" t="str" cm="1">
-        <f t="array" ref="D22">IF(OR($B22="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!D22,Matriz_Esforço_Acompanhamento!D22)))</f>
+        <f t="array" ref="D22">IF(OR($B22="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!D22,Matriz_Esforço_Acompanhamento!D22)))</f>
         <v/>
       </c>
       <c r="E22" t="str" cm="1">
-        <f t="array" ref="E22">IF(OR($B22="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!E22,Matriz_Esforço_Acompanhamento!E22)))</f>
+        <f t="array" ref="E22">IF(OR($B22="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!E22,Matriz_Esforço_Acompanhamento!E22)))</f>
         <v/>
       </c>
       <c r="F22" t="str" cm="1">
-        <f t="array" ref="F22">IF(OR($B22="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!F22,Matriz_Esforço_Acompanhamento!F22)))</f>
+        <f t="array" ref="F22">IF(OR($B22="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!F22,Matriz_Esforço_Acompanhamento!F22)))</f>
         <v/>
       </c>
       <c r="G22" t="str" cm="1">
-        <f t="array" ref="G22">IF(OR($B22="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!G22,Matriz_Esforço_Acompanhamento!G22)))</f>
+        <f t="array" ref="G22">IF(OR($B22="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!G22,Matriz_Esforço_Acompanhamento!G22)))</f>
         <v/>
       </c>
       <c r="H22" t="str" cm="1">
-        <f t="array" ref="H22">IF(OR($B22="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!H22,Matriz_Esforço_Acompanhamento!H22)))</f>
+        <f t="array" ref="H22">IF(OR($B22="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!H22,Matriz_Esforço_Acompanhamento!H22)))</f>
         <v/>
       </c>
       <c r="I22" t="str" cm="1">
-        <f t="array" ref="I22">IF(OR($B22="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!I22,Matriz_Esforço_Acompanhamento!I22)))</f>
+        <f t="array" ref="I22">IF(OR($B22="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!I22,Matriz_Esforço_Acompanhamento!I22)))</f>
         <v/>
       </c>
       <c r="J22" t="str" cm="1">
-        <f t="array" ref="J22">IF(OR($B22="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!J22,Matriz_Esforço_Acompanhamento!J22)))</f>
+        <f t="array" ref="J22">IF(OR($B22="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!J22,Matriz_Esforço_Acompanhamento!J22)))</f>
         <v/>
       </c>
       <c r="K22" t="str" cm="1">
-        <f t="array" ref="K22">IF(OR($B22="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!K22,Matriz_Esforço_Acompanhamento!K22)))</f>
+        <f t="array" ref="K22">IF(OR($B22="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!K22,Matriz_Esforço_Acompanhamento!K22)))</f>
         <v/>
       </c>
       <c r="L22" t="str" cm="1">
-        <f t="array" ref="L22">IF(OR($B22="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!L22,Matriz_Esforço_Acompanhamento!L22)))</f>
+        <f t="array" ref="L22">IF(OR($B22="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!L22,Matriz_Esforço_Acompanhamento!L22)))</f>
         <v/>
       </c>
       <c r="M22" t="str" cm="1">
-        <f t="array" ref="M22">IF(OR($B22="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!M22,Matriz_Esforço_Acompanhamento!M22)))</f>
+        <f t="array" ref="M22">IF(OR($B22="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!M22,Matriz_Esforço_Acompanhamento!M22)))</f>
         <v/>
       </c>
       <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22">IF(OR($B22="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!N22,Matriz_Esforço_Acompanhamento!N22)))</f>
+        <f t="array" ref="N22">IF(OR($B22="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!N22,Matriz_Esforço_Acompanhamento!N22)))</f>
         <v/>
       </c>
       <c r="O22" t="str" cm="1">
-        <f t="array" ref="O22">IF(OR($B22="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!O22,Matriz_Esforço_Acompanhamento!O22)))</f>
+        <f t="array" ref="O22">IF(OR($B22="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!O22,Matriz_Esforço_Acompanhamento!O22)))</f>
         <v/>
       </c>
       <c r="P22" t="str" cm="1">
-        <f t="array" ref="P22">IF(OR($B22="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!P22,Matriz_Esforço_Acompanhamento!P22)))</f>
+        <f t="array" ref="P22">IF(OR($B22="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!P22,Matriz_Esforço_Acompanhamento!P22)))</f>
         <v/>
       </c>
       <c r="Q22" t="str" cm="1">
-        <f t="array" ref="Q22">IF(OR($B22="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Q22,Matriz_Esforço_Acompanhamento!Q22)))</f>
+        <f t="array" ref="Q22">IF(OR($B22="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Q22,Matriz_Esforço_Acompanhamento!Q22)))</f>
         <v/>
       </c>
       <c r="R22" t="str" cm="1">
-        <f t="array" ref="R22">IF(OR($B22="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!R22,Matriz_Esforço_Acompanhamento!R22)))</f>
+        <f t="array" ref="R22">IF(OR($B22="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!R22,Matriz_Esforço_Acompanhamento!R22)))</f>
         <v/>
       </c>
       <c r="S22" t="str" cm="1">
-        <f t="array" ref="S22">IF(OR($B22="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!S22,Matriz_Esforço_Acompanhamento!S22)))</f>
+        <f t="array" ref="S22">IF(OR($B22="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!S22,Matriz_Esforço_Acompanhamento!S22)))</f>
         <v/>
       </c>
       <c r="T22" t="str" cm="1">
-        <f t="array" ref="T22">IF(OR($B22="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!T22,Matriz_Esforço_Acompanhamento!T22)))</f>
+        <f t="array" ref="T22">IF(OR($B22="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!T22,Matriz_Esforço_Acompanhamento!T22)))</f>
         <v/>
       </c>
       <c r="U22" t="str" cm="1">
-        <f t="array" ref="U22">IF(OR($B22="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!U22,Matriz_Esforço_Acompanhamento!U22)))</f>
+        <f t="array" ref="U22">IF(OR($B22="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!U22,Matriz_Esforço_Acompanhamento!U22)))</f>
         <v/>
       </c>
       <c r="V22" t="str" cm="1">
-        <f t="array" ref="V22">IF(OR($B22="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!V22,Matriz_Esforço_Acompanhamento!V22)))</f>
+        <f t="array" ref="V22">IF(OR($B22="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!V22,Matriz_Esforço_Acompanhamento!V22)))</f>
         <v/>
       </c>
       <c r="W22" t="str" cm="1">
-        <f t="array" ref="W22">IF(OR($B22="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!W22,Matriz_Esforço_Acompanhamento!W22)))</f>
+        <f t="array" ref="W22">IF(OR($B22="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!W22,Matriz_Esforço_Acompanhamento!W22)))</f>
         <v/>
       </c>
       <c r="X22" t="str" cm="1">
-        <f t="array" ref="X22">IF(OR($B22="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!X22,Matriz_Esforço_Acompanhamento!X22)))</f>
+        <f t="array" ref="X22">IF(OR($B22="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!X22,Matriz_Esforço_Acompanhamento!X22)))</f>
         <v/>
       </c>
       <c r="Y22" t="str" cm="1">
-        <f t="array" ref="Y22">IF(OR($B22="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Y22,Matriz_Esforço_Acompanhamento!Y22)))</f>
+        <f t="array" ref="Y22">IF(OR($B22="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Y22,Matriz_Esforço_Acompanhamento!Y22)))</f>
         <v/>
       </c>
       <c r="Z22" t="str" cm="1">
-        <f t="array" ref="Z22">IF(OR($B22="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Z22,Matriz_Esforço_Acompanhamento!Z22)))</f>
+        <f t="array" ref="Z22">IF(OR($B22="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!Z22,Matriz_Esforço_Acompanhamento!Z22)))</f>
         <v/>
       </c>
       <c r="AA22" t="str" cm="1">
-        <f t="array" ref="AA22">IF(OR($B22="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!AA22,Matriz_Esforço_Acompanhamento!AA22)))</f>
+        <f t="array" ref="AA22">IF(OR($B22="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!AA22,Matriz_Esforço_Acompanhamento!AA22)))</f>
         <v/>
       </c>
       <c r="AB22" t="str" cm="1">
-        <f t="array" ref="AB22">IF(OR($B22="",AB$2=""),"",IF(INDEX(Projetos!AB21:AB54,Matriz_Esforço_Atual!$B22)=2,"",IF(INDEX(Projetos!AB21:AB54,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!AB22,Matriz_Esforço_Acompanhamento!AB22)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB22">IF(OR($B22="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!AB22,Matriz_Esforço_Acompanhamento!AB22)))</f>
+        <v/>
+      </c>
+      <c r="AC22" t="str" cm="1">
+        <f t="array" ref="AC22">IF(OR($B22="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B22)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B22)=0,Matriz_Esforço_Análise!AC22,Matriz_Esforço_Acompanhamento!AC22)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
         <f>IF(Projetos!A22&lt;&gt;"",Projetos!A22,"")</f>
         <v/>
       </c>
       <c r="C23" t="str" cm="1">
-        <f t="array" ref="C23">IF(OR($B23="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!C23,Matriz_Esforço_Acompanhamento!C23)))</f>
+        <f t="array" ref="C23">IF(OR($B23="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!C23,Matriz_Esforço_Acompanhamento!C23)))</f>
         <v/>
       </c>
       <c r="D23" t="str" cm="1">
-        <f t="array" ref="D23">IF(OR($B23="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!D23,Matriz_Esforço_Acompanhamento!D23)))</f>
+        <f t="array" ref="D23">IF(OR($B23="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!D23,Matriz_Esforço_Acompanhamento!D23)))</f>
         <v/>
       </c>
       <c r="E23" t="str" cm="1">
-        <f t="array" ref="E23">IF(OR($B23="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!E23,Matriz_Esforço_Acompanhamento!E23)))</f>
+        <f t="array" ref="E23">IF(OR($B23="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!E23,Matriz_Esforço_Acompanhamento!E23)))</f>
         <v/>
       </c>
       <c r="F23" t="str" cm="1">
-        <f t="array" ref="F23">IF(OR($B23="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!F23,Matriz_Esforço_Acompanhamento!F23)))</f>
+        <f t="array" ref="F23">IF(OR($B23="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!F23,Matriz_Esforço_Acompanhamento!F23)))</f>
         <v/>
       </c>
       <c r="G23" t="str" cm="1">
-        <f t="array" ref="G23">IF(OR($B23="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!G23,Matriz_Esforço_Acompanhamento!G23)))</f>
+        <f t="array" ref="G23">IF(OR($B23="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!G23,Matriz_Esforço_Acompanhamento!G23)))</f>
         <v/>
       </c>
       <c r="H23" t="str" cm="1">
-        <f t="array" ref="H23">IF(OR($B23="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!H23,Matriz_Esforço_Acompanhamento!H23)))</f>
+        <f t="array" ref="H23">IF(OR($B23="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!H23,Matriz_Esforço_Acompanhamento!H23)))</f>
         <v/>
       </c>
       <c r="I23" t="str" cm="1">
-        <f t="array" ref="I23">IF(OR($B23="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!I23,Matriz_Esforço_Acompanhamento!I23)))</f>
+        <f t="array" ref="I23">IF(OR($B23="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!I23,Matriz_Esforço_Acompanhamento!I23)))</f>
         <v/>
       </c>
       <c r="J23" t="str" cm="1">
-        <f t="array" ref="J23">IF(OR($B23="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!J23,Matriz_Esforço_Acompanhamento!J23)))</f>
+        <f t="array" ref="J23">IF(OR($B23="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!J23,Matriz_Esforço_Acompanhamento!J23)))</f>
         <v/>
       </c>
       <c r="K23" t="str" cm="1">
-        <f t="array" ref="K23">IF(OR($B23="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!K23,Matriz_Esforço_Acompanhamento!K23)))</f>
+        <f t="array" ref="K23">IF(OR($B23="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!K23,Matriz_Esforço_Acompanhamento!K23)))</f>
         <v/>
       </c>
       <c r="L23" t="str" cm="1">
-        <f t="array" ref="L23">IF(OR($B23="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!L23,Matriz_Esforço_Acompanhamento!L23)))</f>
+        <f t="array" ref="L23">IF(OR($B23="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!L23,Matriz_Esforço_Acompanhamento!L23)))</f>
         <v/>
       </c>
       <c r="M23" t="str" cm="1">
-        <f t="array" ref="M23">IF(OR($B23="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!M23,Matriz_Esforço_Acompanhamento!M23)))</f>
+        <f t="array" ref="M23">IF(OR($B23="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!M23,Matriz_Esforço_Acompanhamento!M23)))</f>
         <v/>
       </c>
       <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23">IF(OR($B23="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!N23,Matriz_Esforço_Acompanhamento!N23)))</f>
+        <f t="array" ref="N23">IF(OR($B23="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!N23,Matriz_Esforço_Acompanhamento!N23)))</f>
         <v/>
       </c>
       <c r="O23" t="str" cm="1">
-        <f t="array" ref="O23">IF(OR($B23="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!O23,Matriz_Esforço_Acompanhamento!O23)))</f>
+        <f t="array" ref="O23">IF(OR($B23="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!O23,Matriz_Esforço_Acompanhamento!O23)))</f>
         <v/>
       </c>
       <c r="P23" t="str" cm="1">
-        <f t="array" ref="P23">IF(OR($B23="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!P23,Matriz_Esforço_Acompanhamento!P23)))</f>
+        <f t="array" ref="P23">IF(OR($B23="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!P23,Matriz_Esforço_Acompanhamento!P23)))</f>
         <v/>
       </c>
       <c r="Q23" t="str" cm="1">
-        <f t="array" ref="Q23">IF(OR($B23="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Q23,Matriz_Esforço_Acompanhamento!Q23)))</f>
+        <f t="array" ref="Q23">IF(OR($B23="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Q23,Matriz_Esforço_Acompanhamento!Q23)))</f>
         <v/>
       </c>
       <c r="R23" t="str" cm="1">
-        <f t="array" ref="R23">IF(OR($B23="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!R23,Matriz_Esforço_Acompanhamento!R23)))</f>
+        <f t="array" ref="R23">IF(OR($B23="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!R23,Matriz_Esforço_Acompanhamento!R23)))</f>
         <v/>
       </c>
       <c r="S23" t="str" cm="1">
-        <f t="array" ref="S23">IF(OR($B23="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!S23,Matriz_Esforço_Acompanhamento!S23)))</f>
+        <f t="array" ref="S23">IF(OR($B23="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!S23,Matriz_Esforço_Acompanhamento!S23)))</f>
         <v/>
       </c>
       <c r="T23" t="str" cm="1">
-        <f t="array" ref="T23">IF(OR($B23="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!T23,Matriz_Esforço_Acompanhamento!T23)))</f>
+        <f t="array" ref="T23">IF(OR($B23="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!T23,Matriz_Esforço_Acompanhamento!T23)))</f>
         <v/>
       </c>
       <c r="U23" t="str" cm="1">
-        <f t="array" ref="U23">IF(OR($B23="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!U23,Matriz_Esforço_Acompanhamento!U23)))</f>
+        <f t="array" ref="U23">IF(OR($B23="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!U23,Matriz_Esforço_Acompanhamento!U23)))</f>
         <v/>
       </c>
       <c r="V23" t="str" cm="1">
-        <f t="array" ref="V23">IF(OR($B23="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!V23,Matriz_Esforço_Acompanhamento!V23)))</f>
+        <f t="array" ref="V23">IF(OR($B23="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!V23,Matriz_Esforço_Acompanhamento!V23)))</f>
         <v/>
       </c>
       <c r="W23" t="str" cm="1">
-        <f t="array" ref="W23">IF(OR($B23="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!W23,Matriz_Esforço_Acompanhamento!W23)))</f>
+        <f t="array" ref="W23">IF(OR($B23="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!W23,Matriz_Esforço_Acompanhamento!W23)))</f>
         <v/>
       </c>
       <c r="X23" t="str" cm="1">
-        <f t="array" ref="X23">IF(OR($B23="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!X23,Matriz_Esforço_Acompanhamento!X23)))</f>
+        <f t="array" ref="X23">IF(OR($B23="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!X23,Matriz_Esforço_Acompanhamento!X23)))</f>
         <v/>
       </c>
       <c r="Y23" t="str" cm="1">
-        <f t="array" ref="Y23">IF(OR($B23="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Y23,Matriz_Esforço_Acompanhamento!Y23)))</f>
+        <f t="array" ref="Y23">IF(OR($B23="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Y23,Matriz_Esforço_Acompanhamento!Y23)))</f>
         <v/>
       </c>
       <c r="Z23" t="str" cm="1">
-        <f t="array" ref="Z23">IF(OR($B23="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Z23,Matriz_Esforço_Acompanhamento!Z23)))</f>
+        <f t="array" ref="Z23">IF(OR($B23="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!Z23,Matriz_Esforço_Acompanhamento!Z23)))</f>
         <v/>
       </c>
       <c r="AA23" t="str" cm="1">
-        <f t="array" ref="AA23">IF(OR($B23="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!AA23,Matriz_Esforço_Acompanhamento!AA23)))</f>
+        <f t="array" ref="AA23">IF(OR($B23="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!AA23,Matriz_Esforço_Acompanhamento!AA23)))</f>
         <v/>
       </c>
       <c r="AB23" t="str" cm="1">
-        <f t="array" ref="AB23">IF(OR($B23="",AB$2=""),"",IF(INDEX(Projetos!AB22:AB55,Matriz_Esforço_Atual!$B23)=2,"",IF(INDEX(Projetos!AB22:AB55,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!AB23,Matriz_Esforço_Acompanhamento!AB23)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB23">IF(OR($B23="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!AB23,Matriz_Esforço_Acompanhamento!AB23)))</f>
+        <v/>
+      </c>
+      <c r="AC23" t="str" cm="1">
+        <f t="array" ref="AC23">IF(OR($B23="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B23)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B23)=0,Matriz_Esforço_Análise!AC23,Matriz_Esforço_Acompanhamento!AC23)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
         <f>IF(Projetos!A23&lt;&gt;"",Projetos!A23,"")</f>
         <v/>
       </c>
       <c r="C24" t="str" cm="1">
-        <f t="array" ref="C24">IF(OR($B24="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!C24,Matriz_Esforço_Acompanhamento!C24)))</f>
+        <f t="array" ref="C24">IF(OR($B24="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!C24,Matriz_Esforço_Acompanhamento!C24)))</f>
         <v/>
       </c>
       <c r="D24" t="str" cm="1">
-        <f t="array" ref="D24">IF(OR($B24="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!D24,Matriz_Esforço_Acompanhamento!D24)))</f>
+        <f t="array" ref="D24">IF(OR($B24="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!D24,Matriz_Esforço_Acompanhamento!D24)))</f>
         <v/>
       </c>
       <c r="E24" t="str" cm="1">
-        <f t="array" ref="E24">IF(OR($B24="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!E24,Matriz_Esforço_Acompanhamento!E24)))</f>
+        <f t="array" ref="E24">IF(OR($B24="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!E24,Matriz_Esforço_Acompanhamento!E24)))</f>
         <v/>
       </c>
       <c r="F24" t="str" cm="1">
-        <f t="array" ref="F24">IF(OR($B24="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!F24,Matriz_Esforço_Acompanhamento!F24)))</f>
+        <f t="array" ref="F24">IF(OR($B24="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!F24,Matriz_Esforço_Acompanhamento!F24)))</f>
         <v/>
       </c>
       <c r="G24" t="str" cm="1">
-        <f t="array" ref="G24">IF(OR($B24="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!G24,Matriz_Esforço_Acompanhamento!G24)))</f>
+        <f t="array" ref="G24">IF(OR($B24="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!G24,Matriz_Esforço_Acompanhamento!G24)))</f>
         <v/>
       </c>
       <c r="H24" t="str" cm="1">
-        <f t="array" ref="H24">IF(OR($B24="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!H24,Matriz_Esforço_Acompanhamento!H24)))</f>
+        <f t="array" ref="H24">IF(OR($B24="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!H24,Matriz_Esforço_Acompanhamento!H24)))</f>
         <v/>
       </c>
       <c r="I24" t="str" cm="1">
-        <f t="array" ref="I24">IF(OR($B24="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!I24,Matriz_Esforço_Acompanhamento!I24)))</f>
+        <f t="array" ref="I24">IF(OR($B24="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!I24,Matriz_Esforço_Acompanhamento!I24)))</f>
         <v/>
       </c>
       <c r="J24" t="str" cm="1">
-        <f t="array" ref="J24">IF(OR($B24="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!J24,Matriz_Esforço_Acompanhamento!J24)))</f>
+        <f t="array" ref="J24">IF(OR($B24="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!J24,Matriz_Esforço_Acompanhamento!J24)))</f>
         <v/>
       </c>
       <c r="K24" t="str" cm="1">
-        <f t="array" ref="K24">IF(OR($B24="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!K24,Matriz_Esforço_Acompanhamento!K24)))</f>
+        <f t="array" ref="K24">IF(OR($B24="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!K24,Matriz_Esforço_Acompanhamento!K24)))</f>
         <v/>
       </c>
       <c r="L24" t="str" cm="1">
-        <f t="array" ref="L24">IF(OR($B24="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!L24,Matriz_Esforço_Acompanhamento!L24)))</f>
+        <f t="array" ref="L24">IF(OR($B24="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!L24,Matriz_Esforço_Acompanhamento!L24)))</f>
         <v/>
       </c>
       <c r="M24" t="str" cm="1">
-        <f t="array" ref="M24">IF(OR($B24="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!M24,Matriz_Esforço_Acompanhamento!M24)))</f>
+        <f t="array" ref="M24">IF(OR($B24="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!M24,Matriz_Esforço_Acompanhamento!M24)))</f>
         <v/>
       </c>
       <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24">IF(OR($B24="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!N24,Matriz_Esforço_Acompanhamento!N24)))</f>
+        <f t="array" ref="N24">IF(OR($B24="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!N24,Matriz_Esforço_Acompanhamento!N24)))</f>
         <v/>
       </c>
       <c r="O24" t="str" cm="1">
-        <f t="array" ref="O24">IF(OR($B24="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!O24,Matriz_Esforço_Acompanhamento!O24)))</f>
+        <f t="array" ref="O24">IF(OR($B24="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!O24,Matriz_Esforço_Acompanhamento!O24)))</f>
         <v/>
       </c>
       <c r="P24" t="str" cm="1">
-        <f t="array" ref="P24">IF(OR($B24="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!P24,Matriz_Esforço_Acompanhamento!P24)))</f>
+        <f t="array" ref="P24">IF(OR($B24="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!P24,Matriz_Esforço_Acompanhamento!P24)))</f>
         <v/>
       </c>
       <c r="Q24" t="str" cm="1">
-        <f t="array" ref="Q24">IF(OR($B24="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Q24,Matriz_Esforço_Acompanhamento!Q24)))</f>
+        <f t="array" ref="Q24">IF(OR($B24="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Q24,Matriz_Esforço_Acompanhamento!Q24)))</f>
         <v/>
       </c>
       <c r="R24" t="str" cm="1">
-        <f t="array" ref="R24">IF(OR($B24="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!R24,Matriz_Esforço_Acompanhamento!R24)))</f>
+        <f t="array" ref="R24">IF(OR($B24="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!R24,Matriz_Esforço_Acompanhamento!R24)))</f>
         <v/>
       </c>
       <c r="S24" t="str" cm="1">
-        <f t="array" ref="S24">IF(OR($B24="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!S24,Matriz_Esforço_Acompanhamento!S24)))</f>
+        <f t="array" ref="S24">IF(OR($B24="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!S24,Matriz_Esforço_Acompanhamento!S24)))</f>
         <v/>
       </c>
       <c r="T24" t="str" cm="1">
-        <f t="array" ref="T24">IF(OR($B24="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!T24,Matriz_Esforço_Acompanhamento!T24)))</f>
+        <f t="array" ref="T24">IF(OR($B24="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!T24,Matriz_Esforço_Acompanhamento!T24)))</f>
         <v/>
       </c>
       <c r="U24" t="str" cm="1">
-        <f t="array" ref="U24">IF(OR($B24="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!U24,Matriz_Esforço_Acompanhamento!U24)))</f>
+        <f t="array" ref="U24">IF(OR($B24="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!U24,Matriz_Esforço_Acompanhamento!U24)))</f>
         <v/>
       </c>
       <c r="V24" t="str" cm="1">
-        <f t="array" ref="V24">IF(OR($B24="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!V24,Matriz_Esforço_Acompanhamento!V24)))</f>
+        <f t="array" ref="V24">IF(OR($B24="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!V24,Matriz_Esforço_Acompanhamento!V24)))</f>
         <v/>
       </c>
       <c r="W24" t="str" cm="1">
-        <f t="array" ref="W24">IF(OR($B24="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!W24,Matriz_Esforço_Acompanhamento!W24)))</f>
+        <f t="array" ref="W24">IF(OR($B24="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!W24,Matriz_Esforço_Acompanhamento!W24)))</f>
         <v/>
       </c>
       <c r="X24" t="str" cm="1">
-        <f t="array" ref="X24">IF(OR($B24="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!X24,Matriz_Esforço_Acompanhamento!X24)))</f>
+        <f t="array" ref="X24">IF(OR($B24="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!X24,Matriz_Esforço_Acompanhamento!X24)))</f>
         <v/>
       </c>
       <c r="Y24" t="str" cm="1">
-        <f t="array" ref="Y24">IF(OR($B24="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Y24,Matriz_Esforço_Acompanhamento!Y24)))</f>
+        <f t="array" ref="Y24">IF(OR($B24="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Y24,Matriz_Esforço_Acompanhamento!Y24)))</f>
         <v/>
       </c>
       <c r="Z24" t="str" cm="1">
-        <f t="array" ref="Z24">IF(OR($B24="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Z24,Matriz_Esforço_Acompanhamento!Z24)))</f>
+        <f t="array" ref="Z24">IF(OR($B24="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!Z24,Matriz_Esforço_Acompanhamento!Z24)))</f>
         <v/>
       </c>
       <c r="AA24" t="str" cm="1">
-        <f t="array" ref="AA24">IF(OR($B24="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!AA24,Matriz_Esforço_Acompanhamento!AA24)))</f>
+        <f t="array" ref="AA24">IF(OR($B24="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!AA24,Matriz_Esforço_Acompanhamento!AA24)))</f>
         <v/>
       </c>
       <c r="AB24" t="str" cm="1">
-        <f t="array" ref="AB24">IF(OR($B24="",AB$2=""),"",IF(INDEX(Projetos!AB23:AB56,Matriz_Esforço_Atual!$B24)=2,"",IF(INDEX(Projetos!AB23:AB56,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!AB24,Matriz_Esforço_Acompanhamento!AB24)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB24">IF(OR($B24="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!AB24,Matriz_Esforço_Acompanhamento!AB24)))</f>
+        <v/>
+      </c>
+      <c r="AC24" t="str" cm="1">
+        <f t="array" ref="AC24">IF(OR($B24="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B24)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B24)=0,Matriz_Esforço_Análise!AC24,Matriz_Esforço_Acompanhamento!AC24)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
         <f>IF(Projetos!A24&lt;&gt;"",Projetos!A24,"")</f>
         <v/>
       </c>
       <c r="C25" t="str" cm="1">
-        <f t="array" ref="C25">IF(OR($B25="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!C25,Matriz_Esforço_Acompanhamento!C25)))</f>
+        <f t="array" ref="C25">IF(OR($B25="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!C25,Matriz_Esforço_Acompanhamento!C25)))</f>
         <v/>
       </c>
       <c r="D25" t="str" cm="1">
-        <f t="array" ref="D25">IF(OR($B25="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!D25,Matriz_Esforço_Acompanhamento!D25)))</f>
+        <f t="array" ref="D25">IF(OR($B25="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!D25,Matriz_Esforço_Acompanhamento!D25)))</f>
         <v/>
       </c>
       <c r="E25" t="str" cm="1">
-        <f t="array" ref="E25">IF(OR($B25="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!E25,Matriz_Esforço_Acompanhamento!E25)))</f>
+        <f t="array" ref="E25">IF(OR($B25="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!E25,Matriz_Esforço_Acompanhamento!E25)))</f>
         <v/>
       </c>
       <c r="F25" t="str" cm="1">
-        <f t="array" ref="F25">IF(OR($B25="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!F25,Matriz_Esforço_Acompanhamento!F25)))</f>
+        <f t="array" ref="F25">IF(OR($B25="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!F25,Matriz_Esforço_Acompanhamento!F25)))</f>
         <v/>
       </c>
       <c r="G25" t="str" cm="1">
-        <f t="array" ref="G25">IF(OR($B25="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!G25,Matriz_Esforço_Acompanhamento!G25)))</f>
+        <f t="array" ref="G25">IF(OR($B25="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!G25,Matriz_Esforço_Acompanhamento!G25)))</f>
         <v/>
       </c>
       <c r="H25" t="str" cm="1">
-        <f t="array" ref="H25">IF(OR($B25="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!H25,Matriz_Esforço_Acompanhamento!H25)))</f>
+        <f t="array" ref="H25">IF(OR($B25="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!H25,Matriz_Esforço_Acompanhamento!H25)))</f>
         <v/>
       </c>
       <c r="I25" t="str" cm="1">
-        <f t="array" ref="I25">IF(OR($B25="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!I25,Matriz_Esforço_Acompanhamento!I25)))</f>
+        <f t="array" ref="I25">IF(OR($B25="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!I25,Matriz_Esforço_Acompanhamento!I25)))</f>
         <v/>
       </c>
       <c r="J25" t="str" cm="1">
-        <f t="array" ref="J25">IF(OR($B25="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!J25,Matriz_Esforço_Acompanhamento!J25)))</f>
+        <f t="array" ref="J25">IF(OR($B25="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!J25,Matriz_Esforço_Acompanhamento!J25)))</f>
         <v/>
       </c>
       <c r="K25" t="str" cm="1">
-        <f t="array" ref="K25">IF(OR($B25="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!K25,Matriz_Esforço_Acompanhamento!K25)))</f>
+        <f t="array" ref="K25">IF(OR($B25="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!K25,Matriz_Esforço_Acompanhamento!K25)))</f>
         <v/>
       </c>
       <c r="L25" t="str" cm="1">
-        <f t="array" ref="L25">IF(OR($B25="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!L25,Matriz_Esforço_Acompanhamento!L25)))</f>
+        <f t="array" ref="L25">IF(OR($B25="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!L25,Matriz_Esforço_Acompanhamento!L25)))</f>
         <v/>
       </c>
       <c r="M25" t="str" cm="1">
-        <f t="array" ref="M25">IF(OR($B25="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!M25,Matriz_Esforço_Acompanhamento!M25)))</f>
+        <f t="array" ref="M25">IF(OR($B25="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!M25,Matriz_Esforço_Acompanhamento!M25)))</f>
         <v/>
       </c>
       <c r="N25" t="str" cm="1">
-        <f t="array" ref="N25">IF(OR($B25="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!N25,Matriz_Esforço_Acompanhamento!N25)))</f>
+        <f t="array" ref="N25">IF(OR($B25="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!N25,Matriz_Esforço_Acompanhamento!N25)))</f>
         <v/>
       </c>
       <c r="O25" t="str" cm="1">
-        <f t="array" ref="O25">IF(OR($B25="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!O25,Matriz_Esforço_Acompanhamento!O25)))</f>
+        <f t="array" ref="O25">IF(OR($B25="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!O25,Matriz_Esforço_Acompanhamento!O25)))</f>
         <v/>
       </c>
       <c r="P25" t="str" cm="1">
-        <f t="array" ref="P25">IF(OR($B25="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!P25,Matriz_Esforço_Acompanhamento!P25)))</f>
+        <f t="array" ref="P25">IF(OR($B25="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!P25,Matriz_Esforço_Acompanhamento!P25)))</f>
         <v/>
       </c>
       <c r="Q25" t="str" cm="1">
-        <f t="array" ref="Q25">IF(OR($B25="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Q25,Matriz_Esforço_Acompanhamento!Q25)))</f>
+        <f t="array" ref="Q25">IF(OR($B25="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Q25,Matriz_Esforço_Acompanhamento!Q25)))</f>
         <v/>
       </c>
       <c r="R25" t="str" cm="1">
-        <f t="array" ref="R25">IF(OR($B25="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!R25,Matriz_Esforço_Acompanhamento!R25)))</f>
+        <f t="array" ref="R25">IF(OR($B25="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!R25,Matriz_Esforço_Acompanhamento!R25)))</f>
         <v/>
       </c>
       <c r="S25" t="str" cm="1">
-        <f t="array" ref="S25">IF(OR($B25="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!S25,Matriz_Esforço_Acompanhamento!S25)))</f>
+        <f t="array" ref="S25">IF(OR($B25="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!S25,Matriz_Esforço_Acompanhamento!S25)))</f>
         <v/>
       </c>
       <c r="T25" t="str" cm="1">
-        <f t="array" ref="T25">IF(OR($B25="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!T25,Matriz_Esforço_Acompanhamento!T25)))</f>
+        <f t="array" ref="T25">IF(OR($B25="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!T25,Matriz_Esforço_Acompanhamento!T25)))</f>
         <v/>
       </c>
       <c r="U25" t="str" cm="1">
-        <f t="array" ref="U25">IF(OR($B25="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!U25,Matriz_Esforço_Acompanhamento!U25)))</f>
+        <f t="array" ref="U25">IF(OR($B25="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!U25,Matriz_Esforço_Acompanhamento!U25)))</f>
         <v/>
       </c>
       <c r="V25" t="str" cm="1">
-        <f t="array" ref="V25">IF(OR($B25="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!V25,Matriz_Esforço_Acompanhamento!V25)))</f>
+        <f t="array" ref="V25">IF(OR($B25="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!V25,Matriz_Esforço_Acompanhamento!V25)))</f>
         <v/>
       </c>
       <c r="W25" t="str" cm="1">
-        <f t="array" ref="W25">IF(OR($B25="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!W25,Matriz_Esforço_Acompanhamento!W25)))</f>
+        <f t="array" ref="W25">IF(OR($B25="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!W25,Matriz_Esforço_Acompanhamento!W25)))</f>
         <v/>
       </c>
       <c r="X25" t="str" cm="1">
-        <f t="array" ref="X25">IF(OR($B25="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!X25,Matriz_Esforço_Acompanhamento!X25)))</f>
+        <f t="array" ref="X25">IF(OR($B25="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!X25,Matriz_Esforço_Acompanhamento!X25)))</f>
         <v/>
       </c>
       <c r="Y25" t="str" cm="1">
-        <f t="array" ref="Y25">IF(OR($B25="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Y25,Matriz_Esforço_Acompanhamento!Y25)))</f>
+        <f t="array" ref="Y25">IF(OR($B25="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Y25,Matriz_Esforço_Acompanhamento!Y25)))</f>
         <v/>
       </c>
       <c r="Z25" t="str" cm="1">
-        <f t="array" ref="Z25">IF(OR($B25="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Z25,Matriz_Esforço_Acompanhamento!Z25)))</f>
+        <f t="array" ref="Z25">IF(OR($B25="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!Z25,Matriz_Esforço_Acompanhamento!Z25)))</f>
         <v/>
       </c>
       <c r="AA25" t="str" cm="1">
-        <f t="array" ref="AA25">IF(OR($B25="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!AA25,Matriz_Esforço_Acompanhamento!AA25)))</f>
+        <f t="array" ref="AA25">IF(OR($B25="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!AA25,Matriz_Esforço_Acompanhamento!AA25)))</f>
         <v/>
       </c>
       <c r="AB25" t="str" cm="1">
-        <f t="array" ref="AB25">IF(OR($B25="",AB$2=""),"",IF(INDEX(Projetos!AB24:AB57,Matriz_Esforço_Atual!$B25)=2,"",IF(INDEX(Projetos!AB24:AB57,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!AB25,Matriz_Esforço_Acompanhamento!AB25)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB25">IF(OR($B25="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!AB25,Matriz_Esforço_Acompanhamento!AB25)))</f>
+        <v/>
+      </c>
+      <c r="AC25" t="str" cm="1">
+        <f t="array" ref="AC25">IF(OR($B25="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B25)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B25)=0,Matriz_Esforço_Análise!AC25,Matriz_Esforço_Acompanhamento!AC25)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="str">
         <f>IF(Projetos!A25&lt;&gt;"",Projetos!A25,"")</f>
         <v/>
       </c>
       <c r="C26" t="str" cm="1">
-        <f t="array" ref="C26">IF(OR($B26="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!C26,Matriz_Esforço_Acompanhamento!C26)))</f>
+        <f t="array" ref="C26">IF(OR($B26="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!C26,Matriz_Esforço_Acompanhamento!C26)))</f>
         <v/>
       </c>
       <c r="D26" t="str" cm="1">
-        <f t="array" ref="D26">IF(OR($B26="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!D26,Matriz_Esforço_Acompanhamento!D26)))</f>
+        <f t="array" ref="D26">IF(OR($B26="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!D26,Matriz_Esforço_Acompanhamento!D26)))</f>
         <v/>
       </c>
       <c r="E26" t="str" cm="1">
-        <f t="array" ref="E26">IF(OR($B26="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!E26,Matriz_Esforço_Acompanhamento!E26)))</f>
+        <f t="array" ref="E26">IF(OR($B26="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!E26,Matriz_Esforço_Acompanhamento!E26)))</f>
         <v/>
       </c>
       <c r="F26" t="str" cm="1">
-        <f t="array" ref="F26">IF(OR($B26="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!F26,Matriz_Esforço_Acompanhamento!F26)))</f>
+        <f t="array" ref="F26">IF(OR($B26="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!F26,Matriz_Esforço_Acompanhamento!F26)))</f>
         <v/>
       </c>
       <c r="G26" t="str" cm="1">
-        <f t="array" ref="G26">IF(OR($B26="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!G26,Matriz_Esforço_Acompanhamento!G26)))</f>
+        <f t="array" ref="G26">IF(OR($B26="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!G26,Matriz_Esforço_Acompanhamento!G26)))</f>
         <v/>
       </c>
       <c r="H26" t="str" cm="1">
-        <f t="array" ref="H26">IF(OR($B26="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!H26,Matriz_Esforço_Acompanhamento!H26)))</f>
+        <f t="array" ref="H26">IF(OR($B26="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!H26,Matriz_Esforço_Acompanhamento!H26)))</f>
         <v/>
       </c>
       <c r="I26" t="str" cm="1">
-        <f t="array" ref="I26">IF(OR($B26="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!I26,Matriz_Esforço_Acompanhamento!I26)))</f>
+        <f t="array" ref="I26">IF(OR($B26="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!I26,Matriz_Esforço_Acompanhamento!I26)))</f>
         <v/>
       </c>
       <c r="J26" t="str" cm="1">
-        <f t="array" ref="J26">IF(OR($B26="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!J26,Matriz_Esforço_Acompanhamento!J26)))</f>
+        <f t="array" ref="J26">IF(OR($B26="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!J26,Matriz_Esforço_Acompanhamento!J26)))</f>
         <v/>
       </c>
       <c r="K26" t="str" cm="1">
-        <f t="array" ref="K26">IF(OR($B26="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!K26,Matriz_Esforço_Acompanhamento!K26)))</f>
+        <f t="array" ref="K26">IF(OR($B26="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!K26,Matriz_Esforço_Acompanhamento!K26)))</f>
         <v/>
       </c>
       <c r="L26" t="str" cm="1">
-        <f t="array" ref="L26">IF(OR($B26="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!L26,Matriz_Esforço_Acompanhamento!L26)))</f>
+        <f t="array" ref="L26">IF(OR($B26="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!L26,Matriz_Esforço_Acompanhamento!L26)))</f>
         <v/>
       </c>
       <c r="M26" t="str" cm="1">
-        <f t="array" ref="M26">IF(OR($B26="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!M26,Matriz_Esforço_Acompanhamento!M26)))</f>
+        <f t="array" ref="M26">IF(OR($B26="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!M26,Matriz_Esforço_Acompanhamento!M26)))</f>
         <v/>
       </c>
       <c r="N26" t="str" cm="1">
-        <f t="array" ref="N26">IF(OR($B26="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!N26,Matriz_Esforço_Acompanhamento!N26)))</f>
+        <f t="array" ref="N26">IF(OR($B26="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!N26,Matriz_Esforço_Acompanhamento!N26)))</f>
         <v/>
       </c>
       <c r="O26" t="str" cm="1">
-        <f t="array" ref="O26">IF(OR($B26="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!O26,Matriz_Esforço_Acompanhamento!O26)))</f>
+        <f t="array" ref="O26">IF(OR($B26="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!O26,Matriz_Esforço_Acompanhamento!O26)))</f>
         <v/>
       </c>
       <c r="P26" t="str" cm="1">
-        <f t="array" ref="P26">IF(OR($B26="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!P26,Matriz_Esforço_Acompanhamento!P26)))</f>
+        <f t="array" ref="P26">IF(OR($B26="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!P26,Matriz_Esforço_Acompanhamento!P26)))</f>
         <v/>
       </c>
       <c r="Q26" t="str" cm="1">
-        <f t="array" ref="Q26">IF(OR($B26="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Q26,Matriz_Esforço_Acompanhamento!Q26)))</f>
+        <f t="array" ref="Q26">IF(OR($B26="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Q26,Matriz_Esforço_Acompanhamento!Q26)))</f>
         <v/>
       </c>
       <c r="R26" t="str" cm="1">
-        <f t="array" ref="R26">IF(OR($B26="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!R26,Matriz_Esforço_Acompanhamento!R26)))</f>
+        <f t="array" ref="R26">IF(OR($B26="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!R26,Matriz_Esforço_Acompanhamento!R26)))</f>
         <v/>
       </c>
       <c r="S26" t="str" cm="1">
-        <f t="array" ref="S26">IF(OR($B26="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!S26,Matriz_Esforço_Acompanhamento!S26)))</f>
+        <f t="array" ref="S26">IF(OR($B26="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!S26,Matriz_Esforço_Acompanhamento!S26)))</f>
         <v/>
       </c>
       <c r="T26" t="str" cm="1">
-        <f t="array" ref="T26">IF(OR($B26="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!T26,Matriz_Esforço_Acompanhamento!T26)))</f>
+        <f t="array" ref="T26">IF(OR($B26="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!T26,Matriz_Esforço_Acompanhamento!T26)))</f>
         <v/>
       </c>
       <c r="U26" t="str" cm="1">
-        <f t="array" ref="U26">IF(OR($B26="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!U26,Matriz_Esforço_Acompanhamento!U26)))</f>
+        <f t="array" ref="U26">IF(OR($B26="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!U26,Matriz_Esforço_Acompanhamento!U26)))</f>
         <v/>
       </c>
       <c r="V26" t="str" cm="1">
-        <f t="array" ref="V26">IF(OR($B26="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!V26,Matriz_Esforço_Acompanhamento!V26)))</f>
+        <f t="array" ref="V26">IF(OR($B26="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!V26,Matriz_Esforço_Acompanhamento!V26)))</f>
         <v/>
       </c>
       <c r="W26" t="str" cm="1">
-        <f t="array" ref="W26">IF(OR($B26="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!W26,Matriz_Esforço_Acompanhamento!W26)))</f>
+        <f t="array" ref="W26">IF(OR($B26="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!W26,Matriz_Esforço_Acompanhamento!W26)))</f>
         <v/>
       </c>
       <c r="X26" t="str" cm="1">
-        <f t="array" ref="X26">IF(OR($B26="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!X26,Matriz_Esforço_Acompanhamento!X26)))</f>
+        <f t="array" ref="X26">IF(OR($B26="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!X26,Matriz_Esforço_Acompanhamento!X26)))</f>
         <v/>
       </c>
       <c r="Y26" t="str" cm="1">
-        <f t="array" ref="Y26">IF(OR($B26="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Y26,Matriz_Esforço_Acompanhamento!Y26)))</f>
+        <f t="array" ref="Y26">IF(OR($B26="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Y26,Matriz_Esforço_Acompanhamento!Y26)))</f>
         <v/>
       </c>
       <c r="Z26" t="str" cm="1">
-        <f t="array" ref="Z26">IF(OR($B26="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Z26,Matriz_Esforço_Acompanhamento!Z26)))</f>
+        <f t="array" ref="Z26">IF(OR($B26="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!Z26,Matriz_Esforço_Acompanhamento!Z26)))</f>
         <v/>
       </c>
       <c r="AA26" t="str" cm="1">
-        <f t="array" ref="AA26">IF(OR($B26="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!AA26,Matriz_Esforço_Acompanhamento!AA26)))</f>
+        <f t="array" ref="AA26">IF(OR($B26="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!AA26,Matriz_Esforço_Acompanhamento!AA26)))</f>
         <v/>
       </c>
       <c r="AB26" t="str" cm="1">
-        <f t="array" ref="AB26">IF(OR($B26="",AB$2=""),"",IF(INDEX(Projetos!AB25:AB58,Matriz_Esforço_Atual!$B26)=2,"",IF(INDEX(Projetos!AB25:AB58,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!AB26,Matriz_Esforço_Acompanhamento!AB26)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB26">IF(OR($B26="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!AB26,Matriz_Esforço_Acompanhamento!AB26)))</f>
+        <v/>
+      </c>
+      <c r="AC26" t="str" cm="1">
+        <f t="array" ref="AC26">IF(OR($B26="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B26)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B26)=0,Matriz_Esforço_Análise!AC26,Matriz_Esforço_Acompanhamento!AC26)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="str">
         <f>IF(Projetos!A26&lt;&gt;"",Projetos!A26,"")</f>
         <v/>
       </c>
       <c r="C27" t="str" cm="1">
-        <f t="array" ref="C27">IF(OR($B27="",C$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!C27,Matriz_Esforço_Acompanhamento!C27)))</f>
+        <f t="array" ref="C27">IF(OR($B27="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!C27,Matriz_Esforço_Acompanhamento!C27)))</f>
         <v/>
       </c>
       <c r="D27" t="str" cm="1">
-        <f t="array" ref="D27">IF(OR($B27="",D$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!D27,Matriz_Esforço_Acompanhamento!D27)))</f>
+        <f t="array" ref="D27">IF(OR($B27="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!D27,Matriz_Esforço_Acompanhamento!D27)))</f>
         <v/>
       </c>
       <c r="E27" t="str" cm="1">
-        <f t="array" ref="E27">IF(OR($B27="",E$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!E27,Matriz_Esforço_Acompanhamento!E27)))</f>
+        <f t="array" ref="E27">IF(OR($B27="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!E27,Matriz_Esforço_Acompanhamento!E27)))</f>
         <v/>
       </c>
       <c r="F27" t="str" cm="1">
-        <f t="array" ref="F27">IF(OR($B27="",F$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!F27,Matriz_Esforço_Acompanhamento!F27)))</f>
+        <f t="array" ref="F27">IF(OR($B27="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!F27,Matriz_Esforço_Acompanhamento!F27)))</f>
         <v/>
       </c>
       <c r="G27" t="str" cm="1">
-        <f t="array" ref="G27">IF(OR($B27="",G$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!G27,Matriz_Esforço_Acompanhamento!G27)))</f>
+        <f t="array" ref="G27">IF(OR($B27="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!G27,Matriz_Esforço_Acompanhamento!G27)))</f>
         <v/>
       </c>
       <c r="H27" t="str" cm="1">
-        <f t="array" ref="H27">IF(OR($B27="",H$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!H27,Matriz_Esforço_Acompanhamento!H27)))</f>
+        <f t="array" ref="H27">IF(OR($B27="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!H27,Matriz_Esforço_Acompanhamento!H27)))</f>
         <v/>
       </c>
       <c r="I27" t="str" cm="1">
-        <f t="array" ref="I27">IF(OR($B27="",I$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!I27,Matriz_Esforço_Acompanhamento!I27)))</f>
+        <f t="array" ref="I27">IF(OR($B27="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!I27,Matriz_Esforço_Acompanhamento!I27)))</f>
         <v/>
       </c>
       <c r="J27" t="str" cm="1">
-        <f t="array" ref="J27">IF(OR($B27="",J$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!J27,Matriz_Esforço_Acompanhamento!J27)))</f>
+        <f t="array" ref="J27">IF(OR($B27="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!J27,Matriz_Esforço_Acompanhamento!J27)))</f>
         <v/>
       </c>
       <c r="K27" t="str" cm="1">
-        <f t="array" ref="K27">IF(OR($B27="",K$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!K27,Matriz_Esforço_Acompanhamento!K27)))</f>
+        <f t="array" ref="K27">IF(OR($B27="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!K27,Matriz_Esforço_Acompanhamento!K27)))</f>
         <v/>
       </c>
       <c r="L27" t="str" cm="1">
-        <f t="array" ref="L27">IF(OR($B27="",L$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!L27,Matriz_Esforço_Acompanhamento!L27)))</f>
+        <f t="array" ref="L27">IF(OR($B27="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!L27,Matriz_Esforço_Acompanhamento!L27)))</f>
         <v/>
       </c>
       <c r="M27" t="str" cm="1">
-        <f t="array" ref="M27">IF(OR($B27="",M$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!M27,Matriz_Esforço_Acompanhamento!M27)))</f>
+        <f t="array" ref="M27">IF(OR($B27="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!M27,Matriz_Esforço_Acompanhamento!M27)))</f>
         <v/>
       </c>
       <c r="N27" t="str" cm="1">
-        <f t="array" ref="N27">IF(OR($B27="",N$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!N27,Matriz_Esforço_Acompanhamento!N27)))</f>
+        <f t="array" ref="N27">IF(OR($B27="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!N27,Matriz_Esforço_Acompanhamento!N27)))</f>
         <v/>
       </c>
       <c r="O27" t="str" cm="1">
-        <f t="array" ref="O27">IF(OR($B27="",O$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!O27,Matriz_Esforço_Acompanhamento!O27)))</f>
+        <f t="array" ref="O27">IF(OR($B27="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!O27,Matriz_Esforço_Acompanhamento!O27)))</f>
         <v/>
       </c>
       <c r="P27" t="str" cm="1">
-        <f t="array" ref="P27">IF(OR($B27="",P$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!P27,Matriz_Esforço_Acompanhamento!P27)))</f>
+        <f t="array" ref="P27">IF(OR($B27="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!P27,Matriz_Esforço_Acompanhamento!P27)))</f>
         <v/>
       </c>
       <c r="Q27" t="str" cm="1">
-        <f t="array" ref="Q27">IF(OR($B27="",Q$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Q27,Matriz_Esforço_Acompanhamento!Q27)))</f>
+        <f t="array" ref="Q27">IF(OR($B27="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Q27,Matriz_Esforço_Acompanhamento!Q27)))</f>
         <v/>
       </c>
       <c r="R27" t="str" cm="1">
-        <f t="array" ref="R27">IF(OR($B27="",R$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!R27,Matriz_Esforço_Acompanhamento!R27)))</f>
+        <f t="array" ref="R27">IF(OR($B27="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!R27,Matriz_Esforço_Acompanhamento!R27)))</f>
         <v/>
       </c>
       <c r="S27" t="str" cm="1">
-        <f t="array" ref="S27">IF(OR($B27="",S$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!S27,Matriz_Esforço_Acompanhamento!S27)))</f>
+        <f t="array" ref="S27">IF(OR($B27="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!S27,Matriz_Esforço_Acompanhamento!S27)))</f>
         <v/>
       </c>
       <c r="T27" t="str" cm="1">
-        <f t="array" ref="T27">IF(OR($B27="",T$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!T27,Matriz_Esforço_Acompanhamento!T27)))</f>
+        <f t="array" ref="T27">IF(OR($B27="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!T27,Matriz_Esforço_Acompanhamento!T27)))</f>
         <v/>
       </c>
       <c r="U27" t="str" cm="1">
-        <f t="array" ref="U27">IF(OR($B27="",U$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!U27,Matriz_Esforço_Acompanhamento!U27)))</f>
+        <f t="array" ref="U27">IF(OR($B27="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!U27,Matriz_Esforço_Acompanhamento!U27)))</f>
         <v/>
       </c>
       <c r="V27" t="str" cm="1">
-        <f t="array" ref="V27">IF(OR($B27="",V$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!V27,Matriz_Esforço_Acompanhamento!V27)))</f>
+        <f t="array" ref="V27">IF(OR($B27="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!V27,Matriz_Esforço_Acompanhamento!V27)))</f>
         <v/>
       </c>
       <c r="W27" t="str" cm="1">
-        <f t="array" ref="W27">IF(OR($B27="",W$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!W27,Matriz_Esforço_Acompanhamento!W27)))</f>
+        <f t="array" ref="W27">IF(OR($B27="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!W27,Matriz_Esforço_Acompanhamento!W27)))</f>
         <v/>
       </c>
       <c r="X27" t="str" cm="1">
-        <f t="array" ref="X27">IF(OR($B27="",X$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!X27,Matriz_Esforço_Acompanhamento!X27)))</f>
+        <f t="array" ref="X27">IF(OR($B27="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!X27,Matriz_Esforço_Acompanhamento!X27)))</f>
         <v/>
       </c>
       <c r="Y27" t="str" cm="1">
-        <f t="array" ref="Y27">IF(OR($B27="",Y$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Y27,Matriz_Esforço_Acompanhamento!Y27)))</f>
+        <f t="array" ref="Y27">IF(OR($B27="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Y27,Matriz_Esforço_Acompanhamento!Y27)))</f>
         <v/>
       </c>
       <c r="Z27" t="str" cm="1">
-        <f t="array" ref="Z27">IF(OR($B27="",Z$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Z27,Matriz_Esforço_Acompanhamento!Z27)))</f>
+        <f t="array" ref="Z27">IF(OR($B27="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!Z27,Matriz_Esforço_Acompanhamento!Z27)))</f>
         <v/>
       </c>
       <c r="AA27" t="str" cm="1">
-        <f t="array" ref="AA27">IF(OR($B27="",AA$2=""),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!AA27,Matriz_Esforço_Acompanhamento!AA27)))</f>
+        <f t="array" ref="AA27">IF(OR($B27="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!AA27,Matriz_Esforço_Acompanhamento!AA27)))</f>
         <v/>
       </c>
       <c r="AB27" t="str" cm="1">
-        <f t="array" ref="AB27">IF(OR($B27="",AB$2=""),"",IF(INDEX(Projetos!AB26:AB59,Matriz_Esforço_Atual!$B27)=2,"",IF(INDEX(Projetos!AB26:AB59,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!AB27,Matriz_Esforço_Acompanhamento!AB27)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB27">IF(OR($B27="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!AB27,Matriz_Esforço_Acompanhamento!AB27)))</f>
+        <v/>
+      </c>
+      <c r="AC27" t="str" cm="1">
+        <f t="array" ref="AC27">IF(OR($B27="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B27)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B27)=0,Matriz_Esforço_Análise!AC27,Matriz_Esforço_Acompanhamento!AC27)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="str">
         <f>IF(Projetos!A27&lt;&gt;"",Projetos!A27,"")</f>
         <v/>
       </c>
       <c r="C28" t="str" cm="1">
-        <f t="array" ref="C28">IF(OR($B28="",C$2=""),"",IF(INDEX(Projetos!C27:C60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!C27:C60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!C28,Matriz_Esforço_Acompanhamento!C28)))</f>
+        <f t="array" ref="C28">IF(OR($B28="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!C28,Matriz_Esforço_Acompanhamento!C28)))</f>
         <v/>
       </c>
       <c r="D28" t="str" cm="1">
-        <f t="array" ref="D28">IF(OR($B28="",D$2=""),"",IF(INDEX(Projetos!D27:D60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!D27:D60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!D28,Matriz_Esforço_Acompanhamento!D28)))</f>
+        <f t="array" ref="D28">IF(OR($B28="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!D28,Matriz_Esforço_Acompanhamento!D28)))</f>
         <v/>
       </c>
       <c r="E28" t="str" cm="1">
-        <f t="array" ref="E28">IF(OR($B28="",E$2=""),"",IF(INDEX(Projetos!E27:E60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!E27:E60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!E28,Matriz_Esforço_Acompanhamento!E28)))</f>
+        <f t="array" ref="E28">IF(OR($B28="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!E28,Matriz_Esforço_Acompanhamento!E28)))</f>
         <v/>
       </c>
       <c r="F28" t="str" cm="1">
-        <f t="array" ref="F28">IF(OR($B28="",F$2=""),"",IF(INDEX(Projetos!F27:F60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!F27:F60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!F28,Matriz_Esforço_Acompanhamento!F28)))</f>
+        <f t="array" ref="F28">IF(OR($B28="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!F28,Matriz_Esforço_Acompanhamento!F28)))</f>
         <v/>
       </c>
       <c r="G28" t="str" cm="1">
-        <f t="array" ref="G28">IF(OR($B28="",G$2=""),"",IF(INDEX(Projetos!G27:G60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!G27:G60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!G28,Matriz_Esforço_Acompanhamento!G28)))</f>
+        <f t="array" ref="G28">IF(OR($B28="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!G28,Matriz_Esforço_Acompanhamento!G28)))</f>
         <v/>
       </c>
       <c r="H28" t="str" cm="1">
-        <f t="array" ref="H28">IF(OR($B28="",H$2=""),"",IF(INDEX(Projetos!H27:H60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!H27:H60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!H28,Matriz_Esforço_Acompanhamento!H28)))</f>
+        <f t="array" ref="H28">IF(OR($B28="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!H28,Matriz_Esforço_Acompanhamento!H28)))</f>
         <v/>
       </c>
       <c r="I28" t="str" cm="1">
-        <f t="array" ref="I28">IF(OR($B28="",I$2=""),"",IF(INDEX(Projetos!I27:I60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!I27:I60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!I28,Matriz_Esforço_Acompanhamento!I28)))</f>
+        <f t="array" ref="I28">IF(OR($B28="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!I28,Matriz_Esforço_Acompanhamento!I28)))</f>
         <v/>
       </c>
       <c r="J28" t="str" cm="1">
-        <f t="array" ref="J28">IF(OR($B28="",J$2=""),"",IF(INDEX(Projetos!J27:J60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!J27:J60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!J28,Matriz_Esforço_Acompanhamento!J28)))</f>
+        <f t="array" ref="J28">IF(OR($B28="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!J28,Matriz_Esforço_Acompanhamento!J28)))</f>
         <v/>
       </c>
       <c r="K28" t="str" cm="1">
-        <f t="array" ref="K28">IF(OR($B28="",K$2=""),"",IF(INDEX(Projetos!K27:K60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!K27:K60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!K28,Matriz_Esforço_Acompanhamento!K28)))</f>
+        <f t="array" ref="K28">IF(OR($B28="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!K28,Matriz_Esforço_Acompanhamento!K28)))</f>
         <v/>
       </c>
       <c r="L28" t="str" cm="1">
-        <f t="array" ref="L28">IF(OR($B28="",L$2=""),"",IF(INDEX(Projetos!L27:L60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!L27:L60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!L28,Matriz_Esforço_Acompanhamento!L28)))</f>
+        <f t="array" ref="L28">IF(OR($B28="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!L28,Matriz_Esforço_Acompanhamento!L28)))</f>
         <v/>
       </c>
       <c r="M28" t="str" cm="1">
-        <f t="array" ref="M28">IF(OR($B28="",M$2=""),"",IF(INDEX(Projetos!M27:M60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!M27:M60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!M28,Matriz_Esforço_Acompanhamento!M28)))</f>
+        <f t="array" ref="M28">IF(OR($B28="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!M28,Matriz_Esforço_Acompanhamento!M28)))</f>
         <v/>
       </c>
       <c r="N28" t="str" cm="1">
-        <f t="array" ref="N28">IF(OR($B28="",N$2=""),"",IF(INDEX(Projetos!N27:N60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!N27:N60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!N28,Matriz_Esforço_Acompanhamento!N28)))</f>
+        <f t="array" ref="N28">IF(OR($B28="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!N28,Matriz_Esforço_Acompanhamento!N28)))</f>
         <v/>
       </c>
       <c r="O28" t="str" cm="1">
-        <f t="array" ref="O28">IF(OR($B28="",O$2=""),"",IF(INDEX(Projetos!O27:O60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!O27:O60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!O28,Matriz_Esforço_Acompanhamento!O28)))</f>
+        <f t="array" ref="O28">IF(OR($B28="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!O28,Matriz_Esforço_Acompanhamento!O28)))</f>
         <v/>
       </c>
       <c r="P28" t="str" cm="1">
-        <f t="array" ref="P28">IF(OR($B28="",P$2=""),"",IF(INDEX(Projetos!P27:P60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!P27:P60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!P28,Matriz_Esforço_Acompanhamento!P28)))</f>
+        <f t="array" ref="P28">IF(OR($B28="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!P28,Matriz_Esforço_Acompanhamento!P28)))</f>
         <v/>
       </c>
       <c r="Q28" t="str" cm="1">
-        <f t="array" ref="Q28">IF(OR($B28="",Q$2=""),"",IF(INDEX(Projetos!Q27:Q60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!Q27:Q60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Q28,Matriz_Esforço_Acompanhamento!Q28)))</f>
+        <f t="array" ref="Q28">IF(OR($B28="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Q28,Matriz_Esforço_Acompanhamento!Q28)))</f>
         <v/>
       </c>
       <c r="R28" t="str" cm="1">
-        <f t="array" ref="R28">IF(OR($B28="",R$2=""),"",IF(INDEX(Projetos!R27:R60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!R27:R60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!R28,Matriz_Esforço_Acompanhamento!R28)))</f>
+        <f t="array" ref="R28">IF(OR($B28="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!R28,Matriz_Esforço_Acompanhamento!R28)))</f>
         <v/>
       </c>
       <c r="S28" t="str" cm="1">
-        <f t="array" ref="S28">IF(OR($B28="",S$2=""),"",IF(INDEX(Projetos!S27:S60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!S27:S60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!S28,Matriz_Esforço_Acompanhamento!S28)))</f>
+        <f t="array" ref="S28">IF(OR($B28="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!S28,Matriz_Esforço_Acompanhamento!S28)))</f>
         <v/>
       </c>
       <c r="T28" t="str" cm="1">
-        <f t="array" ref="T28">IF(OR($B28="",T$2=""),"",IF(INDEX(Projetos!T27:T60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!T27:T60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!T28,Matriz_Esforço_Acompanhamento!T28)))</f>
+        <f t="array" ref="T28">IF(OR($B28="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!T28,Matriz_Esforço_Acompanhamento!T28)))</f>
         <v/>
       </c>
       <c r="U28" t="str" cm="1">
-        <f t="array" ref="U28">IF(OR($B28="",U$2=""),"",IF(INDEX(Projetos!U27:U60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!U27:U60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!U28,Matriz_Esforço_Acompanhamento!U28)))</f>
+        <f t="array" ref="U28">IF(OR($B28="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!U28,Matriz_Esforço_Acompanhamento!U28)))</f>
         <v/>
       </c>
       <c r="V28" t="str" cm="1">
-        <f t="array" ref="V28">IF(OR($B28="",V$2=""),"",IF(INDEX(Projetos!V27:V60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!V27:V60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!V28,Matriz_Esforço_Acompanhamento!V28)))</f>
+        <f t="array" ref="V28">IF(OR($B28="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!V28,Matriz_Esforço_Acompanhamento!V28)))</f>
         <v/>
       </c>
       <c r="W28" t="str" cm="1">
-        <f t="array" ref="W28">IF(OR($B28="",W$2=""),"",IF(INDEX(Projetos!W27:W60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!W27:W60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!W28,Matriz_Esforço_Acompanhamento!W28)))</f>
+        <f t="array" ref="W28">IF(OR($B28="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!W28,Matriz_Esforço_Acompanhamento!W28)))</f>
         <v/>
       </c>
       <c r="X28" t="str" cm="1">
-        <f t="array" ref="X28">IF(OR($B28="",X$2=""),"",IF(INDEX(Projetos!X27:X60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!X27:X60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!X28,Matriz_Esforço_Acompanhamento!X28)))</f>
+        <f t="array" ref="X28">IF(OR($B28="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!X28,Matriz_Esforço_Acompanhamento!X28)))</f>
         <v/>
       </c>
       <c r="Y28" t="str" cm="1">
-        <f t="array" ref="Y28">IF(OR($B28="",Y$2=""),"",IF(INDEX(Projetos!Y27:Y60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!Y27:Y60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Y28,Matriz_Esforço_Acompanhamento!Y28)))</f>
+        <f t="array" ref="Y28">IF(OR($B28="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Y28,Matriz_Esforço_Acompanhamento!Y28)))</f>
         <v/>
       </c>
       <c r="Z28" t="str" cm="1">
-        <f t="array" ref="Z28">IF(OR($B28="",Z$2=""),"",IF(INDEX(Projetos!Z27:Z60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!Z27:Z60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Z28,Matriz_Esforço_Acompanhamento!Z28)))</f>
+        <f t="array" ref="Z28">IF(OR($B28="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!Z28,Matriz_Esforço_Acompanhamento!Z28)))</f>
         <v/>
       </c>
       <c r="AA28" t="str" cm="1">
-        <f t="array" ref="AA28">IF(OR($B28="",AA$2=""),"",IF(INDEX(Projetos!AA27:AA60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!AA27:AA60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!AA28,Matriz_Esforço_Acompanhamento!AA28)))</f>
+        <f t="array" ref="AA28">IF(OR($B28="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!AA28,Matriz_Esforço_Acompanhamento!AA28)))</f>
         <v/>
       </c>
       <c r="AB28" t="str" cm="1">
-        <f t="array" ref="AB28">IF(OR($B28="",AB$2=""),"",IF(INDEX(Projetos!AB27:AB60,Matriz_Esforço_Atual!$B28)=2,"",IF(INDEX(Projetos!AB27:AB60,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!AB28,Matriz_Esforço_Acompanhamento!AB28)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB28">IF(OR($B28="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!AB28,Matriz_Esforço_Acompanhamento!AB28)))</f>
+        <v/>
+      </c>
+      <c r="AC28" t="str" cm="1">
+        <f t="array" ref="AC28">IF(OR($B28="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B28)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B28)=0,Matriz_Esforço_Análise!AC28,Matriz_Esforço_Acompanhamento!AC28)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="str">
         <f>IF(Projetos!A28&lt;&gt;"",Projetos!A28,"")</f>
         <v/>
       </c>
       <c r="C29" t="str" cm="1">
-        <f t="array" ref="C29">IF(OR($B29="",C$2=""),"",IF(INDEX(Projetos!C28:C61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!C28:C61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!C29,Matriz_Esforço_Acompanhamento!C29)))</f>
+        <f t="array" ref="C29">IF(OR($B29="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!C29,Matriz_Esforço_Acompanhamento!C29)))</f>
         <v/>
       </c>
       <c r="D29" t="str" cm="1">
-        <f t="array" ref="D29">IF(OR($B29="",D$2=""),"",IF(INDEX(Projetos!D28:D61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!D28:D61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!D29,Matriz_Esforço_Acompanhamento!D29)))</f>
+        <f t="array" ref="D29">IF(OR($B29="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!D29,Matriz_Esforço_Acompanhamento!D29)))</f>
         <v/>
       </c>
       <c r="E29" t="str" cm="1">
-        <f t="array" ref="E29">IF(OR($B29="",E$2=""),"",IF(INDEX(Projetos!E28:E61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!E28:E61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!E29,Matriz_Esforço_Acompanhamento!E29)))</f>
+        <f t="array" ref="E29">IF(OR($B29="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!E29,Matriz_Esforço_Acompanhamento!E29)))</f>
         <v/>
       </c>
       <c r="F29" t="str" cm="1">
-        <f t="array" ref="F29">IF(OR($B29="",F$2=""),"",IF(INDEX(Projetos!F28:F61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!F28:F61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!F29,Matriz_Esforço_Acompanhamento!F29)))</f>
+        <f t="array" ref="F29">IF(OR($B29="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!F29,Matriz_Esforço_Acompanhamento!F29)))</f>
         <v/>
       </c>
       <c r="G29" t="str" cm="1">
-        <f t="array" ref="G29">IF(OR($B29="",G$2=""),"",IF(INDEX(Projetos!G28:G61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!G28:G61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!G29,Matriz_Esforço_Acompanhamento!G29)))</f>
+        <f t="array" ref="G29">IF(OR($B29="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!G29,Matriz_Esforço_Acompanhamento!G29)))</f>
         <v/>
       </c>
       <c r="H29" t="str" cm="1">
-        <f t="array" ref="H29">IF(OR($B29="",H$2=""),"",IF(INDEX(Projetos!H28:H61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!H28:H61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!H29,Matriz_Esforço_Acompanhamento!H29)))</f>
+        <f t="array" ref="H29">IF(OR($B29="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!H29,Matriz_Esforço_Acompanhamento!H29)))</f>
         <v/>
       </c>
       <c r="I29" t="str" cm="1">
-        <f t="array" ref="I29">IF(OR($B29="",I$2=""),"",IF(INDEX(Projetos!I28:I61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!I28:I61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!I29,Matriz_Esforço_Acompanhamento!I29)))</f>
+        <f t="array" ref="I29">IF(OR($B29="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!I29,Matriz_Esforço_Acompanhamento!I29)))</f>
         <v/>
       </c>
       <c r="J29" t="str" cm="1">
-        <f t="array" ref="J29">IF(OR($B29="",J$2=""),"",IF(INDEX(Projetos!J28:J61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!J28:J61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!J29,Matriz_Esforço_Acompanhamento!J29)))</f>
+        <f t="array" ref="J29">IF(OR($B29="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!J29,Matriz_Esforço_Acompanhamento!J29)))</f>
         <v/>
       </c>
       <c r="K29" t="str" cm="1">
-        <f t="array" ref="K29">IF(OR($B29="",K$2=""),"",IF(INDEX(Projetos!K28:K61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!K28:K61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!K29,Matriz_Esforço_Acompanhamento!K29)))</f>
+        <f t="array" ref="K29">IF(OR($B29="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!K29,Matriz_Esforço_Acompanhamento!K29)))</f>
         <v/>
       </c>
       <c r="L29" t="str" cm="1">
-        <f t="array" ref="L29">IF(OR($B29="",L$2=""),"",IF(INDEX(Projetos!L28:L61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!L28:L61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!L29,Matriz_Esforço_Acompanhamento!L29)))</f>
+        <f t="array" ref="L29">IF(OR($B29="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!L29,Matriz_Esforço_Acompanhamento!L29)))</f>
         <v/>
       </c>
       <c r="M29" t="str" cm="1">
-        <f t="array" ref="M29">IF(OR($B29="",M$2=""),"",IF(INDEX(Projetos!M28:M61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!M28:M61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!M29,Matriz_Esforço_Acompanhamento!M29)))</f>
+        <f t="array" ref="M29">IF(OR($B29="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!M29,Matriz_Esforço_Acompanhamento!M29)))</f>
         <v/>
       </c>
       <c r="N29" t="str" cm="1">
-        <f t="array" ref="N29">IF(OR($B29="",N$2=""),"",IF(INDEX(Projetos!N28:N61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!N28:N61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!N29,Matriz_Esforço_Acompanhamento!N29)))</f>
+        <f t="array" ref="N29">IF(OR($B29="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!N29,Matriz_Esforço_Acompanhamento!N29)))</f>
         <v/>
       </c>
       <c r="O29" t="str" cm="1">
-        <f t="array" ref="O29">IF(OR($B29="",O$2=""),"",IF(INDEX(Projetos!O28:O61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!O28:O61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!O29,Matriz_Esforço_Acompanhamento!O29)))</f>
+        <f t="array" ref="O29">IF(OR($B29="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!O29,Matriz_Esforço_Acompanhamento!O29)))</f>
         <v/>
       </c>
       <c r="P29" t="str" cm="1">
-        <f t="array" ref="P29">IF(OR($B29="",P$2=""),"",IF(INDEX(Projetos!P28:P61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!P28:P61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!P29,Matriz_Esforço_Acompanhamento!P29)))</f>
+        <f t="array" ref="P29">IF(OR($B29="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!P29,Matriz_Esforço_Acompanhamento!P29)))</f>
         <v/>
       </c>
       <c r="Q29" t="str" cm="1">
-        <f t="array" ref="Q29">IF(OR($B29="",Q$2=""),"",IF(INDEX(Projetos!Q28:Q61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!Q28:Q61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Q29,Matriz_Esforço_Acompanhamento!Q29)))</f>
+        <f t="array" ref="Q29">IF(OR($B29="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Q29,Matriz_Esforço_Acompanhamento!Q29)))</f>
         <v/>
       </c>
       <c r="R29" t="str" cm="1">
-        <f t="array" ref="R29">IF(OR($B29="",R$2=""),"",IF(INDEX(Projetos!R28:R61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!R28:R61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!R29,Matriz_Esforço_Acompanhamento!R29)))</f>
+        <f t="array" ref="R29">IF(OR($B29="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!R29,Matriz_Esforço_Acompanhamento!R29)))</f>
         <v/>
       </c>
       <c r="S29" t="str" cm="1">
-        <f t="array" ref="S29">IF(OR($B29="",S$2=""),"",IF(INDEX(Projetos!S28:S61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!S28:S61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!S29,Matriz_Esforço_Acompanhamento!S29)))</f>
+        <f t="array" ref="S29">IF(OR($B29="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!S29,Matriz_Esforço_Acompanhamento!S29)))</f>
         <v/>
       </c>
       <c r="T29" t="str" cm="1">
-        <f t="array" ref="T29">IF(OR($B29="",T$2=""),"",IF(INDEX(Projetos!T28:T61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!T28:T61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!T29,Matriz_Esforço_Acompanhamento!T29)))</f>
+        <f t="array" ref="T29">IF(OR($B29="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!T29,Matriz_Esforço_Acompanhamento!T29)))</f>
         <v/>
       </c>
       <c r="U29" t="str" cm="1">
-        <f t="array" ref="U29">IF(OR($B29="",U$2=""),"",IF(INDEX(Projetos!U28:U61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!U28:U61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!U29,Matriz_Esforço_Acompanhamento!U29)))</f>
+        <f t="array" ref="U29">IF(OR($B29="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!U29,Matriz_Esforço_Acompanhamento!U29)))</f>
         <v/>
       </c>
       <c r="V29" t="str" cm="1">
-        <f t="array" ref="V29">IF(OR($B29="",V$2=""),"",IF(INDEX(Projetos!V28:V61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!V28:V61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!V29,Matriz_Esforço_Acompanhamento!V29)))</f>
+        <f t="array" ref="V29">IF(OR($B29="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!V29,Matriz_Esforço_Acompanhamento!V29)))</f>
         <v/>
       </c>
       <c r="W29" t="str" cm="1">
-        <f t="array" ref="W29">IF(OR($B29="",W$2=""),"",IF(INDEX(Projetos!W28:W61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!W28:W61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!W29,Matriz_Esforço_Acompanhamento!W29)))</f>
+        <f t="array" ref="W29">IF(OR($B29="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!W29,Matriz_Esforço_Acompanhamento!W29)))</f>
         <v/>
       </c>
       <c r="X29" t="str" cm="1">
-        <f t="array" ref="X29">IF(OR($B29="",X$2=""),"",IF(INDEX(Projetos!X28:X61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!X28:X61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!X29,Matriz_Esforço_Acompanhamento!X29)))</f>
+        <f t="array" ref="X29">IF(OR($B29="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!X29,Matriz_Esforço_Acompanhamento!X29)))</f>
         <v/>
       </c>
       <c r="Y29" t="str" cm="1">
-        <f t="array" ref="Y29">IF(OR($B29="",Y$2=""),"",IF(INDEX(Projetos!Y28:Y61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!Y28:Y61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Y29,Matriz_Esforço_Acompanhamento!Y29)))</f>
+        <f t="array" ref="Y29">IF(OR($B29="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Y29,Matriz_Esforço_Acompanhamento!Y29)))</f>
         <v/>
       </c>
       <c r="Z29" t="str" cm="1">
-        <f t="array" ref="Z29">IF(OR($B29="",Z$2=""),"",IF(INDEX(Projetos!Z28:Z61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!Z28:Z61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Z29,Matriz_Esforço_Acompanhamento!Z29)))</f>
+        <f t="array" ref="Z29">IF(OR($B29="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!Z29,Matriz_Esforço_Acompanhamento!Z29)))</f>
         <v/>
       </c>
       <c r="AA29" t="str" cm="1">
-        <f t="array" ref="AA29">IF(OR($B29="",AA$2=""),"",IF(INDEX(Projetos!AA28:AA61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!AA28:AA61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!AA29,Matriz_Esforço_Acompanhamento!AA29)))</f>
+        <f t="array" ref="AA29">IF(OR($B29="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!AA29,Matriz_Esforço_Acompanhamento!AA29)))</f>
         <v/>
       </c>
       <c r="AB29" t="str" cm="1">
-        <f t="array" ref="AB29">IF(OR($B29="",AB$2=""),"",IF(INDEX(Projetos!AB28:AB61,Matriz_Esforço_Atual!$B29)=2,"",IF(INDEX(Projetos!AB28:AB61,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!AB29,Matriz_Esforço_Acompanhamento!AB29)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB29">IF(OR($B29="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!AB29,Matriz_Esforço_Acompanhamento!AB29)))</f>
+        <v/>
+      </c>
+      <c r="AC29" t="str" cm="1">
+        <f t="array" ref="AC29">IF(OR($B29="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B29)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B29)=0,Matriz_Esforço_Análise!AC29,Matriz_Esforço_Acompanhamento!AC29)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="str">
         <f>IF(Projetos!A29&lt;&gt;"",Projetos!A29,"")</f>
         <v/>
       </c>
       <c r="C30" t="str" cm="1">
-        <f t="array" ref="C30">IF(OR($B30="",C$2=""),"",IF(INDEX(Projetos!C29:C62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!C29:C62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!C30,Matriz_Esforço_Acompanhamento!C30)))</f>
+        <f t="array" ref="C30">IF(OR($B30="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!C30,Matriz_Esforço_Acompanhamento!C30)))</f>
         <v/>
       </c>
       <c r="D30" t="str" cm="1">
-        <f t="array" ref="D30">IF(OR($B30="",D$2=""),"",IF(INDEX(Projetos!D29:D62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!D29:D62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!D30,Matriz_Esforço_Acompanhamento!D30)))</f>
+        <f t="array" ref="D30">IF(OR($B30="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!D30,Matriz_Esforço_Acompanhamento!D30)))</f>
         <v/>
       </c>
       <c r="E30" t="str" cm="1">
-        <f t="array" ref="E30">IF(OR($B30="",E$2=""),"",IF(INDEX(Projetos!E29:E62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!E29:E62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!E30,Matriz_Esforço_Acompanhamento!E30)))</f>
+        <f t="array" ref="E30">IF(OR($B30="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!E30,Matriz_Esforço_Acompanhamento!E30)))</f>
         <v/>
       </c>
       <c r="F30" t="str" cm="1">
-        <f t="array" ref="F30">IF(OR($B30="",F$2=""),"",IF(INDEX(Projetos!F29:F62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!F29:F62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!F30,Matriz_Esforço_Acompanhamento!F30)))</f>
+        <f t="array" ref="F30">IF(OR($B30="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!F30,Matriz_Esforço_Acompanhamento!F30)))</f>
         <v/>
       </c>
       <c r="G30" t="str" cm="1">
-        <f t="array" ref="G30">IF(OR($B30="",G$2=""),"",IF(INDEX(Projetos!G29:G62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!G29:G62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!G30,Matriz_Esforço_Acompanhamento!G30)))</f>
+        <f t="array" ref="G30">IF(OR($B30="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!G30,Matriz_Esforço_Acompanhamento!G30)))</f>
         <v/>
       </c>
       <c r="H30" t="str" cm="1">
-        <f t="array" ref="H30">IF(OR($B30="",H$2=""),"",IF(INDEX(Projetos!H29:H62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!H29:H62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!H30,Matriz_Esforço_Acompanhamento!H30)))</f>
+        <f t="array" ref="H30">IF(OR($B30="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!H30,Matriz_Esforço_Acompanhamento!H30)))</f>
         <v/>
       </c>
       <c r="I30" t="str" cm="1">
-        <f t="array" ref="I30">IF(OR($B30="",I$2=""),"",IF(INDEX(Projetos!I29:I62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!I29:I62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!I30,Matriz_Esforço_Acompanhamento!I30)))</f>
+        <f t="array" ref="I30">IF(OR($B30="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!I30,Matriz_Esforço_Acompanhamento!I30)))</f>
         <v/>
       </c>
       <c r="J30" t="str" cm="1">
-        <f t="array" ref="J30">IF(OR($B30="",J$2=""),"",IF(INDEX(Projetos!J29:J62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!J29:J62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!J30,Matriz_Esforço_Acompanhamento!J30)))</f>
+        <f t="array" ref="J30">IF(OR($B30="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!J30,Matriz_Esforço_Acompanhamento!J30)))</f>
         <v/>
       </c>
       <c r="K30" t="str" cm="1">
-        <f t="array" ref="K30">IF(OR($B30="",K$2=""),"",IF(INDEX(Projetos!K29:K62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!K29:K62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!K30,Matriz_Esforço_Acompanhamento!K30)))</f>
+        <f t="array" ref="K30">IF(OR($B30="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!K30,Matriz_Esforço_Acompanhamento!K30)))</f>
         <v/>
       </c>
       <c r="L30" t="str" cm="1">
-        <f t="array" ref="L30">IF(OR($B30="",L$2=""),"",IF(INDEX(Projetos!L29:L62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!L29:L62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!L30,Matriz_Esforço_Acompanhamento!L30)))</f>
+        <f t="array" ref="L30">IF(OR($B30="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!L30,Matriz_Esforço_Acompanhamento!L30)))</f>
         <v/>
       </c>
       <c r="M30" t="str" cm="1">
-        <f t="array" ref="M30">IF(OR($B30="",M$2=""),"",IF(INDEX(Projetos!M29:M62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!M29:M62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!M30,Matriz_Esforço_Acompanhamento!M30)))</f>
+        <f t="array" ref="M30">IF(OR($B30="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!M30,Matriz_Esforço_Acompanhamento!M30)))</f>
         <v/>
       </c>
       <c r="N30" t="str" cm="1">
-        <f t="array" ref="N30">IF(OR($B30="",N$2=""),"",IF(INDEX(Projetos!N29:N62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!N29:N62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!N30,Matriz_Esforço_Acompanhamento!N30)))</f>
+        <f t="array" ref="N30">IF(OR($B30="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!N30,Matriz_Esforço_Acompanhamento!N30)))</f>
         <v/>
       </c>
       <c r="O30" t="str" cm="1">
-        <f t="array" ref="O30">IF(OR($B30="",O$2=""),"",IF(INDEX(Projetos!O29:O62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!O29:O62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!O30,Matriz_Esforço_Acompanhamento!O30)))</f>
+        <f t="array" ref="O30">IF(OR($B30="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!O30,Matriz_Esforço_Acompanhamento!O30)))</f>
         <v/>
       </c>
       <c r="P30" t="str" cm="1">
-        <f t="array" ref="P30">IF(OR($B30="",P$2=""),"",IF(INDEX(Projetos!P29:P62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!P29:P62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!P30,Matriz_Esforço_Acompanhamento!P30)))</f>
+        <f t="array" ref="P30">IF(OR($B30="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!P30,Matriz_Esforço_Acompanhamento!P30)))</f>
         <v/>
       </c>
       <c r="Q30" t="str" cm="1">
-        <f t="array" ref="Q30">IF(OR($B30="",Q$2=""),"",IF(INDEX(Projetos!Q29:Q62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!Q29:Q62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Q30,Matriz_Esforço_Acompanhamento!Q30)))</f>
+        <f t="array" ref="Q30">IF(OR($B30="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Q30,Matriz_Esforço_Acompanhamento!Q30)))</f>
         <v/>
       </c>
       <c r="R30" t="str" cm="1">
-        <f t="array" ref="R30">IF(OR($B30="",R$2=""),"",IF(INDEX(Projetos!R29:R62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!R29:R62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!R30,Matriz_Esforço_Acompanhamento!R30)))</f>
+        <f t="array" ref="R30">IF(OR($B30="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!R30,Matriz_Esforço_Acompanhamento!R30)))</f>
         <v/>
       </c>
       <c r="S30" t="str" cm="1">
-        <f t="array" ref="S30">IF(OR($B30="",S$2=""),"",IF(INDEX(Projetos!S29:S62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!S29:S62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!S30,Matriz_Esforço_Acompanhamento!S30)))</f>
+        <f t="array" ref="S30">IF(OR($B30="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!S30,Matriz_Esforço_Acompanhamento!S30)))</f>
         <v/>
       </c>
       <c r="T30" t="str" cm="1">
-        <f t="array" ref="T30">IF(OR($B30="",T$2=""),"",IF(INDEX(Projetos!T29:T62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!T29:T62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!T30,Matriz_Esforço_Acompanhamento!T30)))</f>
+        <f t="array" ref="T30">IF(OR($B30="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!T30,Matriz_Esforço_Acompanhamento!T30)))</f>
         <v/>
       </c>
       <c r="U30" t="str" cm="1">
-        <f t="array" ref="U30">IF(OR($B30="",U$2=""),"",IF(INDEX(Projetos!U29:U62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!U29:U62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!U30,Matriz_Esforço_Acompanhamento!U30)))</f>
+        <f t="array" ref="U30">IF(OR($B30="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!U30,Matriz_Esforço_Acompanhamento!U30)))</f>
         <v/>
       </c>
       <c r="V30" t="str" cm="1">
-        <f t="array" ref="V30">IF(OR($B30="",V$2=""),"",IF(INDEX(Projetos!V29:V62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!V29:V62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!V30,Matriz_Esforço_Acompanhamento!V30)))</f>
+        <f t="array" ref="V30">IF(OR($B30="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!V30,Matriz_Esforço_Acompanhamento!V30)))</f>
         <v/>
       </c>
       <c r="W30" t="str" cm="1">
-        <f t="array" ref="W30">IF(OR($B30="",W$2=""),"",IF(INDEX(Projetos!W29:W62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!W29:W62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!W30,Matriz_Esforço_Acompanhamento!W30)))</f>
+        <f t="array" ref="W30">IF(OR($B30="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!W30,Matriz_Esforço_Acompanhamento!W30)))</f>
         <v/>
       </c>
       <c r="X30" t="str" cm="1">
-        <f t="array" ref="X30">IF(OR($B30="",X$2=""),"",IF(INDEX(Projetos!X29:X62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!X29:X62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!X30,Matriz_Esforço_Acompanhamento!X30)))</f>
+        <f t="array" ref="X30">IF(OR($B30="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!X30,Matriz_Esforço_Acompanhamento!X30)))</f>
         <v/>
       </c>
       <c r="Y30" t="str" cm="1">
-        <f t="array" ref="Y30">IF(OR($B30="",Y$2=""),"",IF(INDEX(Projetos!Y29:Y62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!Y29:Y62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Y30,Matriz_Esforço_Acompanhamento!Y30)))</f>
+        <f t="array" ref="Y30">IF(OR($B30="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Y30,Matriz_Esforço_Acompanhamento!Y30)))</f>
         <v/>
       </c>
       <c r="Z30" t="str" cm="1">
-        <f t="array" ref="Z30">IF(OR($B30="",Z$2=""),"",IF(INDEX(Projetos!Z29:Z62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!Z29:Z62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Z30,Matriz_Esforço_Acompanhamento!Z30)))</f>
+        <f t="array" ref="Z30">IF(OR($B30="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!Z30,Matriz_Esforço_Acompanhamento!Z30)))</f>
         <v/>
       </c>
       <c r="AA30" t="str" cm="1">
-        <f t="array" ref="AA30">IF(OR($B30="",AA$2=""),"",IF(INDEX(Projetos!AA29:AA62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!AA29:AA62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!AA30,Matriz_Esforço_Acompanhamento!AA30)))</f>
+        <f t="array" ref="AA30">IF(OR($B30="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!AA30,Matriz_Esforço_Acompanhamento!AA30)))</f>
         <v/>
       </c>
       <c r="AB30" t="str" cm="1">
-        <f t="array" ref="AB30">IF(OR($B30="",AB$2=""),"",IF(INDEX(Projetos!AB29:AB62,Matriz_Esforço_Atual!$B30)=2,"",IF(INDEX(Projetos!AB29:AB62,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!AB30,Matriz_Esforço_Acompanhamento!AB30)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB30">IF(OR($B30="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!AB30,Matriz_Esforço_Acompanhamento!AB30)))</f>
+        <v/>
+      </c>
+      <c r="AC30" t="str" cm="1">
+        <f t="array" ref="AC30">IF(OR($B30="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B30)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B30)=0,Matriz_Esforço_Análise!AC30,Matriz_Esforço_Acompanhamento!AC30)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="str">
         <f>IF(Projetos!A30&lt;&gt;"",Projetos!A30,"")</f>
         <v/>
       </c>
       <c r="C31" t="str" cm="1">
-        <f t="array" ref="C31">IF(OR($B31="",C$2=""),"",IF(INDEX(Projetos!C30:C63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!C30:C63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!C31,Matriz_Esforço_Acompanhamento!C31)))</f>
+        <f t="array" ref="C31">IF(OR($B31="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!C31,Matriz_Esforço_Acompanhamento!C31)))</f>
         <v/>
       </c>
       <c r="D31" t="str" cm="1">
-        <f t="array" ref="D31">IF(OR($B31="",D$2=""),"",IF(INDEX(Projetos!D30:D63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!D30:D63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!D31,Matriz_Esforço_Acompanhamento!D31)))</f>
+        <f t="array" ref="D31">IF(OR($B31="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!D31,Matriz_Esforço_Acompanhamento!D31)))</f>
         <v/>
       </c>
       <c r="E31" t="str" cm="1">
-        <f t="array" ref="E31">IF(OR($B31="",E$2=""),"",IF(INDEX(Projetos!E30:E63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!E30:E63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!E31,Matriz_Esforço_Acompanhamento!E31)))</f>
+        <f t="array" ref="E31">IF(OR($B31="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!E31,Matriz_Esforço_Acompanhamento!E31)))</f>
         <v/>
       </c>
       <c r="F31" t="str" cm="1">
-        <f t="array" ref="F31">IF(OR($B31="",F$2=""),"",IF(INDEX(Projetos!F30:F63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!F30:F63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!F31,Matriz_Esforço_Acompanhamento!F31)))</f>
+        <f t="array" ref="F31">IF(OR($B31="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!F31,Matriz_Esforço_Acompanhamento!F31)))</f>
         <v/>
       </c>
       <c r="G31" t="str" cm="1">
-        <f t="array" ref="G31">IF(OR($B31="",G$2=""),"",IF(INDEX(Projetos!G30:G63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!G30:G63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!G31,Matriz_Esforço_Acompanhamento!G31)))</f>
+        <f t="array" ref="G31">IF(OR($B31="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!G31,Matriz_Esforço_Acompanhamento!G31)))</f>
         <v/>
       </c>
       <c r="H31" t="str" cm="1">
-        <f t="array" ref="H31">IF(OR($B31="",H$2=""),"",IF(INDEX(Projetos!H30:H63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!H30:H63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!H31,Matriz_Esforço_Acompanhamento!H31)))</f>
+        <f t="array" ref="H31">IF(OR($B31="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!H31,Matriz_Esforço_Acompanhamento!H31)))</f>
         <v/>
       </c>
       <c r="I31" t="str" cm="1">
-        <f t="array" ref="I31">IF(OR($B31="",I$2=""),"",IF(INDEX(Projetos!I30:I63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!I30:I63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!I31,Matriz_Esforço_Acompanhamento!I31)))</f>
+        <f t="array" ref="I31">IF(OR($B31="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!I31,Matriz_Esforço_Acompanhamento!I31)))</f>
         <v/>
       </c>
       <c r="J31" t="str" cm="1">
-        <f t="array" ref="J31">IF(OR($B31="",J$2=""),"",IF(INDEX(Projetos!J30:J63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!J30:J63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!J31,Matriz_Esforço_Acompanhamento!J31)))</f>
+        <f t="array" ref="J31">IF(OR($B31="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!J31,Matriz_Esforço_Acompanhamento!J31)))</f>
         <v/>
       </c>
       <c r="K31" t="str" cm="1">
-        <f t="array" ref="K31">IF(OR($B31="",K$2=""),"",IF(INDEX(Projetos!K30:K63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!K30:K63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!K31,Matriz_Esforço_Acompanhamento!K31)))</f>
+        <f t="array" ref="K31">IF(OR($B31="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!K31,Matriz_Esforço_Acompanhamento!K31)))</f>
         <v/>
       </c>
       <c r="L31" t="str" cm="1">
-        <f t="array" ref="L31">IF(OR($B31="",L$2=""),"",IF(INDEX(Projetos!L30:L63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!L30:L63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!L31,Matriz_Esforço_Acompanhamento!L31)))</f>
+        <f t="array" ref="L31">IF(OR($B31="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!L31,Matriz_Esforço_Acompanhamento!L31)))</f>
         <v/>
       </c>
       <c r="M31" t="str" cm="1">
-        <f t="array" ref="M31">IF(OR($B31="",M$2=""),"",IF(INDEX(Projetos!M30:M63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!M30:M63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!M31,Matriz_Esforço_Acompanhamento!M31)))</f>
+        <f t="array" ref="M31">IF(OR($B31="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!M31,Matriz_Esforço_Acompanhamento!M31)))</f>
         <v/>
       </c>
       <c r="N31" t="str" cm="1">
-        <f t="array" ref="N31">IF(OR($B31="",N$2=""),"",IF(INDEX(Projetos!N30:N63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!N30:N63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!N31,Matriz_Esforço_Acompanhamento!N31)))</f>
+        <f t="array" ref="N31">IF(OR($B31="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!N31,Matriz_Esforço_Acompanhamento!N31)))</f>
         <v/>
       </c>
       <c r="O31" t="str" cm="1">
-        <f t="array" ref="O31">IF(OR($B31="",O$2=""),"",IF(INDEX(Projetos!O30:O63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!O30:O63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!O31,Matriz_Esforço_Acompanhamento!O31)))</f>
+        <f t="array" ref="O31">IF(OR($B31="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!O31,Matriz_Esforço_Acompanhamento!O31)))</f>
         <v/>
       </c>
       <c r="P31" t="str" cm="1">
-        <f t="array" ref="P31">IF(OR($B31="",P$2=""),"",IF(INDEX(Projetos!P30:P63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!P30:P63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!P31,Matriz_Esforço_Acompanhamento!P31)))</f>
+        <f t="array" ref="P31">IF(OR($B31="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!P31,Matriz_Esforço_Acompanhamento!P31)))</f>
         <v/>
       </c>
       <c r="Q31" t="str" cm="1">
-        <f t="array" ref="Q31">IF(OR($B31="",Q$2=""),"",IF(INDEX(Projetos!Q30:Q63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!Q30:Q63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Q31,Matriz_Esforço_Acompanhamento!Q31)))</f>
+        <f t="array" ref="Q31">IF(OR($B31="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Q31,Matriz_Esforço_Acompanhamento!Q31)))</f>
         <v/>
       </c>
       <c r="R31" t="str" cm="1">
-        <f t="array" ref="R31">IF(OR($B31="",R$2=""),"",IF(INDEX(Projetos!R30:R63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!R30:R63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!R31,Matriz_Esforço_Acompanhamento!R31)))</f>
+        <f t="array" ref="R31">IF(OR($B31="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!R31,Matriz_Esforço_Acompanhamento!R31)))</f>
         <v/>
       </c>
       <c r="S31" t="str" cm="1">
-        <f t="array" ref="S31">IF(OR($B31="",S$2=""),"",IF(INDEX(Projetos!S30:S63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!S30:S63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!S31,Matriz_Esforço_Acompanhamento!S31)))</f>
+        <f t="array" ref="S31">IF(OR($B31="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!S31,Matriz_Esforço_Acompanhamento!S31)))</f>
         <v/>
       </c>
       <c r="T31" t="str" cm="1">
-        <f t="array" ref="T31">IF(OR($B31="",T$2=""),"",IF(INDEX(Projetos!T30:T63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!T30:T63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!T31,Matriz_Esforço_Acompanhamento!T31)))</f>
+        <f t="array" ref="T31">IF(OR($B31="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!T31,Matriz_Esforço_Acompanhamento!T31)))</f>
         <v/>
       </c>
       <c r="U31" t="str" cm="1">
-        <f t="array" ref="U31">IF(OR($B31="",U$2=""),"",IF(INDEX(Projetos!U30:U63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!U30:U63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!U31,Matriz_Esforço_Acompanhamento!U31)))</f>
+        <f t="array" ref="U31">IF(OR($B31="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!U31,Matriz_Esforço_Acompanhamento!U31)))</f>
         <v/>
       </c>
       <c r="V31" t="str" cm="1">
-        <f t="array" ref="V31">IF(OR($B31="",V$2=""),"",IF(INDEX(Projetos!V30:V63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!V30:V63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!V31,Matriz_Esforço_Acompanhamento!V31)))</f>
+        <f t="array" ref="V31">IF(OR($B31="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!V31,Matriz_Esforço_Acompanhamento!V31)))</f>
         <v/>
       </c>
       <c r="W31" t="str" cm="1">
-        <f t="array" ref="W31">IF(OR($B31="",W$2=""),"",IF(INDEX(Projetos!W30:W63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!W30:W63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!W31,Matriz_Esforço_Acompanhamento!W31)))</f>
+        <f t="array" ref="W31">IF(OR($B31="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!W31,Matriz_Esforço_Acompanhamento!W31)))</f>
         <v/>
       </c>
       <c r="X31" t="str" cm="1">
-        <f t="array" ref="X31">IF(OR($B31="",X$2=""),"",IF(INDEX(Projetos!X30:X63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!X30:X63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!X31,Matriz_Esforço_Acompanhamento!X31)))</f>
+        <f t="array" ref="X31">IF(OR($B31="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!X31,Matriz_Esforço_Acompanhamento!X31)))</f>
         <v/>
       </c>
       <c r="Y31" t="str" cm="1">
-        <f t="array" ref="Y31">IF(OR($B31="",Y$2=""),"",IF(INDEX(Projetos!Y30:Y63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!Y30:Y63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Y31,Matriz_Esforço_Acompanhamento!Y31)))</f>
+        <f t="array" ref="Y31">IF(OR($B31="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Y31,Matriz_Esforço_Acompanhamento!Y31)))</f>
         <v/>
       </c>
       <c r="Z31" t="str" cm="1">
-        <f t="array" ref="Z31">IF(OR($B31="",Z$2=""),"",IF(INDEX(Projetos!Z30:Z63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!Z30:Z63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Z31,Matriz_Esforço_Acompanhamento!Z31)))</f>
+        <f t="array" ref="Z31">IF(OR($B31="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!Z31,Matriz_Esforço_Acompanhamento!Z31)))</f>
         <v/>
       </c>
       <c r="AA31" t="str" cm="1">
-        <f t="array" ref="AA31">IF(OR($B31="",AA$2=""),"",IF(INDEX(Projetos!AA30:AA63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!AA30:AA63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!AA31,Matriz_Esforço_Acompanhamento!AA31)))</f>
+        <f t="array" ref="AA31">IF(OR($B31="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!AA31,Matriz_Esforço_Acompanhamento!AA31)))</f>
         <v/>
       </c>
       <c r="AB31" t="str" cm="1">
-        <f t="array" ref="AB31">IF(OR($B31="",AB$2=""),"",IF(INDEX(Projetos!AB30:AB63,Matriz_Esforço_Atual!$B31)=2,"",IF(INDEX(Projetos!AB30:AB63,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!AB31,Matriz_Esforço_Acompanhamento!AB31)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB31">IF(OR($B31="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!AB31,Matriz_Esforço_Acompanhamento!AB31)))</f>
+        <v/>
+      </c>
+      <c r="AC31" t="str" cm="1">
+        <f t="array" ref="AC31">IF(OR($B31="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B31)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B31)=0,Matriz_Esforço_Análise!AC31,Matriz_Esforço_Acompanhamento!AC31)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="str">
         <f>IF(Projetos!A31&lt;&gt;"",Projetos!A31,"")</f>
         <v/>
       </c>
       <c r="C32" t="str" cm="1">
-        <f t="array" ref="C32">IF(OR($B32="",C$2=""),"",IF(INDEX(Projetos!C31:C64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!C31:C64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!C32,Matriz_Esforço_Acompanhamento!C32)))</f>
+        <f t="array" ref="C32">IF(OR($B32="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!C32,Matriz_Esforço_Acompanhamento!C32)))</f>
         <v/>
       </c>
       <c r="D32" t="str" cm="1">
-        <f t="array" ref="D32">IF(OR($B32="",D$2=""),"",IF(INDEX(Projetos!D31:D64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!D31:D64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!D32,Matriz_Esforço_Acompanhamento!D32)))</f>
+        <f t="array" ref="D32">IF(OR($B32="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!D32,Matriz_Esforço_Acompanhamento!D32)))</f>
         <v/>
       </c>
       <c r="E32" t="str" cm="1">
-        <f t="array" ref="E32">IF(OR($B32="",E$2=""),"",IF(INDEX(Projetos!E31:E64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!E31:E64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!E32,Matriz_Esforço_Acompanhamento!E32)))</f>
+        <f t="array" ref="E32">IF(OR($B32="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!E32,Matriz_Esforço_Acompanhamento!E32)))</f>
         <v/>
       </c>
       <c r="F32" t="str" cm="1">
-        <f t="array" ref="F32">IF(OR($B32="",F$2=""),"",IF(INDEX(Projetos!F31:F64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!F31:F64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!F32,Matriz_Esforço_Acompanhamento!F32)))</f>
+        <f t="array" ref="F32">IF(OR($B32="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!F32,Matriz_Esforço_Acompanhamento!F32)))</f>
         <v/>
       </c>
       <c r="G32" t="str" cm="1">
-        <f t="array" ref="G32">IF(OR($B32="",G$2=""),"",IF(INDEX(Projetos!G31:G64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!G31:G64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!G32,Matriz_Esforço_Acompanhamento!G32)))</f>
+        <f t="array" ref="G32">IF(OR($B32="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!G32,Matriz_Esforço_Acompanhamento!G32)))</f>
         <v/>
       </c>
       <c r="H32" t="str" cm="1">
-        <f t="array" ref="H32">IF(OR($B32="",H$2=""),"",IF(INDEX(Projetos!H31:H64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!H31:H64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!H32,Matriz_Esforço_Acompanhamento!H32)))</f>
+        <f t="array" ref="H32">IF(OR($B32="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!H32,Matriz_Esforço_Acompanhamento!H32)))</f>
         <v/>
       </c>
       <c r="I32" t="str" cm="1">
-        <f t="array" ref="I32">IF(OR($B32="",I$2=""),"",IF(INDEX(Projetos!I31:I64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!I31:I64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!I32,Matriz_Esforço_Acompanhamento!I32)))</f>
+        <f t="array" ref="I32">IF(OR($B32="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!I32,Matriz_Esforço_Acompanhamento!I32)))</f>
         <v/>
       </c>
       <c r="J32" t="str" cm="1">
-        <f t="array" ref="J32">IF(OR($B32="",J$2=""),"",IF(INDEX(Projetos!J31:J64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!J31:J64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!J32,Matriz_Esforço_Acompanhamento!J32)))</f>
+        <f t="array" ref="J32">IF(OR($B32="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!J32,Matriz_Esforço_Acompanhamento!J32)))</f>
         <v/>
       </c>
       <c r="K32" t="str" cm="1">
-        <f t="array" ref="K32">IF(OR($B32="",K$2=""),"",IF(INDEX(Projetos!K31:K64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!K31:K64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!K32,Matriz_Esforço_Acompanhamento!K32)))</f>
+        <f t="array" ref="K32">IF(OR($B32="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!K32,Matriz_Esforço_Acompanhamento!K32)))</f>
         <v/>
       </c>
       <c r="L32" t="str" cm="1">
-        <f t="array" ref="L32">IF(OR($B32="",L$2=""),"",IF(INDEX(Projetos!L31:L64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!L31:L64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!L32,Matriz_Esforço_Acompanhamento!L32)))</f>
+        <f t="array" ref="L32">IF(OR($B32="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!L32,Matriz_Esforço_Acompanhamento!L32)))</f>
         <v/>
       </c>
       <c r="M32" t="str" cm="1">
-        <f t="array" ref="M32">IF(OR($B32="",M$2=""),"",IF(INDEX(Projetos!M31:M64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!M31:M64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!M32,Matriz_Esforço_Acompanhamento!M32)))</f>
+        <f t="array" ref="M32">IF(OR($B32="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!M32,Matriz_Esforço_Acompanhamento!M32)))</f>
         <v/>
       </c>
       <c r="N32" t="str" cm="1">
-        <f t="array" ref="N32">IF(OR($B32="",N$2=""),"",IF(INDEX(Projetos!N31:N64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!N31:N64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!N32,Matriz_Esforço_Acompanhamento!N32)))</f>
+        <f t="array" ref="N32">IF(OR($B32="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!N32,Matriz_Esforço_Acompanhamento!N32)))</f>
         <v/>
       </c>
       <c r="O32" t="str" cm="1">
-        <f t="array" ref="O32">IF(OR($B32="",O$2=""),"",IF(INDEX(Projetos!O31:O64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!O31:O64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!O32,Matriz_Esforço_Acompanhamento!O32)))</f>
+        <f t="array" ref="O32">IF(OR($B32="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!O32,Matriz_Esforço_Acompanhamento!O32)))</f>
         <v/>
       </c>
       <c r="P32" t="str" cm="1">
-        <f t="array" ref="P32">IF(OR($B32="",P$2=""),"",IF(INDEX(Projetos!P31:P64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!P31:P64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!P32,Matriz_Esforço_Acompanhamento!P32)))</f>
+        <f t="array" ref="P32">IF(OR($B32="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!P32,Matriz_Esforço_Acompanhamento!P32)))</f>
         <v/>
       </c>
       <c r="Q32" t="str" cm="1">
-        <f t="array" ref="Q32">IF(OR($B32="",Q$2=""),"",IF(INDEX(Projetos!Q31:Q64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!Q31:Q64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Q32,Matriz_Esforço_Acompanhamento!Q32)))</f>
+        <f t="array" ref="Q32">IF(OR($B32="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Q32,Matriz_Esforço_Acompanhamento!Q32)))</f>
         <v/>
       </c>
       <c r="R32" t="str" cm="1">
-        <f t="array" ref="R32">IF(OR($B32="",R$2=""),"",IF(INDEX(Projetos!R31:R64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!R31:R64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!R32,Matriz_Esforço_Acompanhamento!R32)))</f>
+        <f t="array" ref="R32">IF(OR($B32="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!R32,Matriz_Esforço_Acompanhamento!R32)))</f>
         <v/>
       </c>
       <c r="S32" t="str" cm="1">
-        <f t="array" ref="S32">IF(OR($B32="",S$2=""),"",IF(INDEX(Projetos!S31:S64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!S31:S64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!S32,Matriz_Esforço_Acompanhamento!S32)))</f>
+        <f t="array" ref="S32">IF(OR($B32="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!S32,Matriz_Esforço_Acompanhamento!S32)))</f>
         <v/>
       </c>
       <c r="T32" t="str" cm="1">
-        <f t="array" ref="T32">IF(OR($B32="",T$2=""),"",IF(INDEX(Projetos!T31:T64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!T31:T64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!T32,Matriz_Esforço_Acompanhamento!T32)))</f>
+        <f t="array" ref="T32">IF(OR($B32="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!T32,Matriz_Esforço_Acompanhamento!T32)))</f>
         <v/>
       </c>
       <c r="U32" t="str" cm="1">
-        <f t="array" ref="U32">IF(OR($B32="",U$2=""),"",IF(INDEX(Projetos!U31:U64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!U31:U64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!U32,Matriz_Esforço_Acompanhamento!U32)))</f>
+        <f t="array" ref="U32">IF(OR($B32="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!U32,Matriz_Esforço_Acompanhamento!U32)))</f>
         <v/>
       </c>
       <c r="V32" t="str" cm="1">
-        <f t="array" ref="V32">IF(OR($B32="",V$2=""),"",IF(INDEX(Projetos!V31:V64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!V31:V64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!V32,Matriz_Esforço_Acompanhamento!V32)))</f>
+        <f t="array" ref="V32">IF(OR($B32="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!V32,Matriz_Esforço_Acompanhamento!V32)))</f>
         <v/>
       </c>
       <c r="W32" t="str" cm="1">
-        <f t="array" ref="W32">IF(OR($B32="",W$2=""),"",IF(INDEX(Projetos!W31:W64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!W31:W64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!W32,Matriz_Esforço_Acompanhamento!W32)))</f>
+        <f t="array" ref="W32">IF(OR($B32="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!W32,Matriz_Esforço_Acompanhamento!W32)))</f>
         <v/>
       </c>
       <c r="X32" t="str" cm="1">
-        <f t="array" ref="X32">IF(OR($B32="",X$2=""),"",IF(INDEX(Projetos!X31:X64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!X31:X64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!X32,Matriz_Esforço_Acompanhamento!X32)))</f>
+        <f t="array" ref="X32">IF(OR($B32="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!X32,Matriz_Esforço_Acompanhamento!X32)))</f>
         <v/>
       </c>
       <c r="Y32" t="str" cm="1">
-        <f t="array" ref="Y32">IF(OR($B32="",Y$2=""),"",IF(INDEX(Projetos!Y31:Y64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!Y31:Y64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Y32,Matriz_Esforço_Acompanhamento!Y32)))</f>
+        <f t="array" ref="Y32">IF(OR($B32="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Y32,Matriz_Esforço_Acompanhamento!Y32)))</f>
         <v/>
       </c>
       <c r="Z32" t="str" cm="1">
-        <f t="array" ref="Z32">IF(OR($B32="",Z$2=""),"",IF(INDEX(Projetos!Z31:Z64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!Z31:Z64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Z32,Matriz_Esforço_Acompanhamento!Z32)))</f>
+        <f t="array" ref="Z32">IF(OR($B32="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!Z32,Matriz_Esforço_Acompanhamento!Z32)))</f>
         <v/>
       </c>
       <c r="AA32" t="str" cm="1">
-        <f t="array" ref="AA32">IF(OR($B32="",AA$2=""),"",IF(INDEX(Projetos!AA31:AA64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!AA31:AA64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!AA32,Matriz_Esforço_Acompanhamento!AA32)))</f>
+        <f t="array" ref="AA32">IF(OR($B32="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!AA32,Matriz_Esforço_Acompanhamento!AA32)))</f>
         <v/>
       </c>
       <c r="AB32" t="str" cm="1">
-        <f t="array" ref="AB32">IF(OR($B32="",AB$2=""),"",IF(INDEX(Projetos!AB31:AB64,Matriz_Esforço_Atual!$B32)=2,"",IF(INDEX(Projetos!AB31:AB64,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!AB32,Matriz_Esforço_Acompanhamento!AB32)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB32">IF(OR($B32="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!AB32,Matriz_Esforço_Acompanhamento!AB32)))</f>
+        <v/>
+      </c>
+      <c r="AC32" t="str" cm="1">
+        <f t="array" ref="AC32">IF(OR($B32="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B32)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B32)=0,Matriz_Esforço_Análise!AC32,Matriz_Esforço_Acompanhamento!AC32)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="str">
         <f>IF(Projetos!A32&lt;&gt;"",Projetos!A32,"")</f>
         <v/>
       </c>
       <c r="C33" t="str" cm="1">
-        <f t="array" ref="C33">IF(OR($B33="",C$2=""),"",IF(INDEX(Projetos!C32:C65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!C32:C65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!C33,Matriz_Esforço_Acompanhamento!C33)))</f>
+        <f t="array" ref="C33">IF(OR($B33="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!C33,Matriz_Esforço_Acompanhamento!C33)))</f>
         <v/>
       </c>
       <c r="D33" t="str" cm="1">
-        <f t="array" ref="D33">IF(OR($B33="",D$2=""),"",IF(INDEX(Projetos!D32:D65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!D32:D65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!D33,Matriz_Esforço_Acompanhamento!D33)))</f>
+        <f t="array" ref="D33">IF(OR($B33="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!D33,Matriz_Esforço_Acompanhamento!D33)))</f>
         <v/>
       </c>
       <c r="E33" t="str" cm="1">
-        <f t="array" ref="E33">IF(OR($B33="",E$2=""),"",IF(INDEX(Projetos!E32:E65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!E32:E65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!E33,Matriz_Esforço_Acompanhamento!E33)))</f>
+        <f t="array" ref="E33">IF(OR($B33="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!E33,Matriz_Esforço_Acompanhamento!E33)))</f>
         <v/>
       </c>
       <c r="F33" t="str" cm="1">
-        <f t="array" ref="F33">IF(OR($B33="",F$2=""),"",IF(INDEX(Projetos!F32:F65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!F32:F65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!F33,Matriz_Esforço_Acompanhamento!F33)))</f>
+        <f t="array" ref="F33">IF(OR($B33="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!F33,Matriz_Esforço_Acompanhamento!F33)))</f>
         <v/>
       </c>
       <c r="G33" t="str" cm="1">
-        <f t="array" ref="G33">IF(OR($B33="",G$2=""),"",IF(INDEX(Projetos!G32:G65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!G32:G65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!G33,Matriz_Esforço_Acompanhamento!G33)))</f>
+        <f t="array" ref="G33">IF(OR($B33="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!G33,Matriz_Esforço_Acompanhamento!G33)))</f>
         <v/>
       </c>
       <c r="H33" t="str" cm="1">
-        <f t="array" ref="H33">IF(OR($B33="",H$2=""),"",IF(INDEX(Projetos!H32:H65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!H32:H65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!H33,Matriz_Esforço_Acompanhamento!H33)))</f>
+        <f t="array" ref="H33">IF(OR($B33="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!H33,Matriz_Esforço_Acompanhamento!H33)))</f>
         <v/>
       </c>
       <c r="I33" t="str" cm="1">
-        <f t="array" ref="I33">IF(OR($B33="",I$2=""),"",IF(INDEX(Projetos!I32:I65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!I32:I65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!I33,Matriz_Esforço_Acompanhamento!I33)))</f>
+        <f t="array" ref="I33">IF(OR($B33="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!I33,Matriz_Esforço_Acompanhamento!I33)))</f>
         <v/>
       </c>
       <c r="J33" t="str" cm="1">
-        <f t="array" ref="J33">IF(OR($B33="",J$2=""),"",IF(INDEX(Projetos!J32:J65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!J32:J65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!J33,Matriz_Esforço_Acompanhamento!J33)))</f>
+        <f t="array" ref="J33">IF(OR($B33="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!J33,Matriz_Esforço_Acompanhamento!J33)))</f>
         <v/>
       </c>
       <c r="K33" t="str" cm="1">
-        <f t="array" ref="K33">IF(OR($B33="",K$2=""),"",IF(INDEX(Projetos!K32:K65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!K32:K65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!K33,Matriz_Esforço_Acompanhamento!K33)))</f>
+        <f t="array" ref="K33">IF(OR($B33="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!K33,Matriz_Esforço_Acompanhamento!K33)))</f>
         <v/>
       </c>
       <c r="L33" t="str" cm="1">
-        <f t="array" ref="L33">IF(OR($B33="",L$2=""),"",IF(INDEX(Projetos!L32:L65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!L32:L65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!L33,Matriz_Esforço_Acompanhamento!L33)))</f>
+        <f t="array" ref="L33">IF(OR($B33="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!L33,Matriz_Esforço_Acompanhamento!L33)))</f>
         <v/>
       </c>
       <c r="M33" t="str" cm="1">
-        <f t="array" ref="M33">IF(OR($B33="",M$2=""),"",IF(INDEX(Projetos!M32:M65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!M32:M65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!M33,Matriz_Esforço_Acompanhamento!M33)))</f>
+        <f t="array" ref="M33">IF(OR($B33="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!M33,Matriz_Esforço_Acompanhamento!M33)))</f>
         <v/>
       </c>
       <c r="N33" t="str" cm="1">
-        <f t="array" ref="N33">IF(OR($B33="",N$2=""),"",IF(INDEX(Projetos!N32:N65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!N32:N65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!N33,Matriz_Esforço_Acompanhamento!N33)))</f>
+        <f t="array" ref="N33">IF(OR($B33="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!N33,Matriz_Esforço_Acompanhamento!N33)))</f>
         <v/>
       </c>
       <c r="O33" t="str" cm="1">
-        <f t="array" ref="O33">IF(OR($B33="",O$2=""),"",IF(INDEX(Projetos!O32:O65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!O32:O65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!O33,Matriz_Esforço_Acompanhamento!O33)))</f>
+        <f t="array" ref="O33">IF(OR($B33="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!O33,Matriz_Esforço_Acompanhamento!O33)))</f>
         <v/>
       </c>
       <c r="P33" t="str" cm="1">
-        <f t="array" ref="P33">IF(OR($B33="",P$2=""),"",IF(INDEX(Projetos!P32:P65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!P32:P65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!P33,Matriz_Esforço_Acompanhamento!P33)))</f>
+        <f t="array" ref="P33">IF(OR($B33="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!P33,Matriz_Esforço_Acompanhamento!P33)))</f>
         <v/>
       </c>
       <c r="Q33" t="str" cm="1">
-        <f t="array" ref="Q33">IF(OR($B33="",Q$2=""),"",IF(INDEX(Projetos!Q32:Q65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!Q32:Q65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Q33,Matriz_Esforço_Acompanhamento!Q33)))</f>
+        <f t="array" ref="Q33">IF(OR($B33="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Q33,Matriz_Esforço_Acompanhamento!Q33)))</f>
         <v/>
       </c>
       <c r="R33" t="str" cm="1">
-        <f t="array" ref="R33">IF(OR($B33="",R$2=""),"",IF(INDEX(Projetos!R32:R65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!R32:R65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!R33,Matriz_Esforço_Acompanhamento!R33)))</f>
+        <f t="array" ref="R33">IF(OR($B33="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!R33,Matriz_Esforço_Acompanhamento!R33)))</f>
         <v/>
       </c>
       <c r="S33" t="str" cm="1">
-        <f t="array" ref="S33">IF(OR($B33="",S$2=""),"",IF(INDEX(Projetos!S32:S65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!S32:S65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!S33,Matriz_Esforço_Acompanhamento!S33)))</f>
+        <f t="array" ref="S33">IF(OR($B33="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!S33,Matriz_Esforço_Acompanhamento!S33)))</f>
         <v/>
       </c>
       <c r="T33" t="str" cm="1">
-        <f t="array" ref="T33">IF(OR($B33="",T$2=""),"",IF(INDEX(Projetos!T32:T65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!T32:T65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!T33,Matriz_Esforço_Acompanhamento!T33)))</f>
+        <f t="array" ref="T33">IF(OR($B33="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!T33,Matriz_Esforço_Acompanhamento!T33)))</f>
         <v/>
       </c>
       <c r="U33" t="str" cm="1">
-        <f t="array" ref="U33">IF(OR($B33="",U$2=""),"",IF(INDEX(Projetos!U32:U65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!U32:U65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!U33,Matriz_Esforço_Acompanhamento!U33)))</f>
+        <f t="array" ref="U33">IF(OR($B33="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!U33,Matriz_Esforço_Acompanhamento!U33)))</f>
         <v/>
       </c>
       <c r="V33" t="str" cm="1">
-        <f t="array" ref="V33">IF(OR($B33="",V$2=""),"",IF(INDEX(Projetos!V32:V65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!V32:V65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!V33,Matriz_Esforço_Acompanhamento!V33)))</f>
+        <f t="array" ref="V33">IF(OR($B33="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!V33,Matriz_Esforço_Acompanhamento!V33)))</f>
         <v/>
       </c>
       <c r="W33" t="str" cm="1">
-        <f t="array" ref="W33">IF(OR($B33="",W$2=""),"",IF(INDEX(Projetos!W32:W65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!W32:W65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!W33,Matriz_Esforço_Acompanhamento!W33)))</f>
+        <f t="array" ref="W33">IF(OR($B33="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!W33,Matriz_Esforço_Acompanhamento!W33)))</f>
         <v/>
       </c>
       <c r="X33" t="str" cm="1">
-        <f t="array" ref="X33">IF(OR($B33="",X$2=""),"",IF(INDEX(Projetos!X32:X65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!X32:X65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!X33,Matriz_Esforço_Acompanhamento!X33)))</f>
+        <f t="array" ref="X33">IF(OR($B33="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!X33,Matriz_Esforço_Acompanhamento!X33)))</f>
         <v/>
       </c>
       <c r="Y33" t="str" cm="1">
-        <f t="array" ref="Y33">IF(OR($B33="",Y$2=""),"",IF(INDEX(Projetos!Y32:Y65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!Y32:Y65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Y33,Matriz_Esforço_Acompanhamento!Y33)))</f>
+        <f t="array" ref="Y33">IF(OR($B33="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Y33,Matriz_Esforço_Acompanhamento!Y33)))</f>
         <v/>
       </c>
       <c r="Z33" t="str" cm="1">
-        <f t="array" ref="Z33">IF(OR($B33="",Z$2=""),"",IF(INDEX(Projetos!Z32:Z65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!Z32:Z65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Z33,Matriz_Esforço_Acompanhamento!Z33)))</f>
+        <f t="array" ref="Z33">IF(OR($B33="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!Z33,Matriz_Esforço_Acompanhamento!Z33)))</f>
         <v/>
       </c>
       <c r="AA33" t="str" cm="1">
-        <f t="array" ref="AA33">IF(OR($B33="",AA$2=""),"",IF(INDEX(Projetos!AA32:AA65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!AA32:AA65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!AA33,Matriz_Esforço_Acompanhamento!AA33)))</f>
+        <f t="array" ref="AA33">IF(OR($B33="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!AA33,Matriz_Esforço_Acompanhamento!AA33)))</f>
         <v/>
       </c>
       <c r="AB33" t="str" cm="1">
-        <f t="array" ref="AB33">IF(OR($B33="",AB$2=""),"",IF(INDEX(Projetos!AB32:AB65,Matriz_Esforço_Atual!$B33)=2,"",IF(INDEX(Projetos!AB32:AB65,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!AB33,Matriz_Esforço_Acompanhamento!AB33)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.25">
+        <f t="array" ref="AB33">IF(OR($B33="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!AB33,Matriz_Esforço_Acompanhamento!AB33)))</f>
+        <v/>
+      </c>
+      <c r="AC33" t="str" cm="1">
+        <f t="array" ref="AC33">IF(OR($B33="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B33)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B33)=0,Matriz_Esforço_Análise!AC33,Matriz_Esforço_Acompanhamento!AC33)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="str">
         <f>IF(Projetos!A33&lt;&gt;"",Projetos!A33,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C34" t="str" cm="1">
+        <f t="array" ref="C34">IF(OR($B34="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!C34,Matriz_Esforço_Acompanhamento!C34)))</f>
+        <v/>
+      </c>
+      <c r="D34" t="str" cm="1">
+        <f t="array" ref="D34">IF(OR($B34="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!D34,Matriz_Esforço_Acompanhamento!D34)))</f>
+        <v/>
+      </c>
+      <c r="E34" t="str" cm="1">
+        <f t="array" ref="E34">IF(OR($B34="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!E34,Matriz_Esforço_Acompanhamento!E34)))</f>
+        <v/>
+      </c>
+      <c r="F34" t="str" cm="1">
+        <f t="array" ref="F34">IF(OR($B34="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!F34,Matriz_Esforço_Acompanhamento!F34)))</f>
+        <v/>
+      </c>
+      <c r="G34" t="str" cm="1">
+        <f t="array" ref="G34">IF(OR($B34="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!G34,Matriz_Esforço_Acompanhamento!G34)))</f>
+        <v/>
+      </c>
+      <c r="H34" t="str" cm="1">
+        <f t="array" ref="H34">IF(OR($B34="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!H34,Matriz_Esforço_Acompanhamento!H34)))</f>
+        <v/>
+      </c>
+      <c r="I34" t="str" cm="1">
+        <f t="array" ref="I34">IF(OR($B34="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!I34,Matriz_Esforço_Acompanhamento!I34)))</f>
+        <v/>
+      </c>
+      <c r="J34" t="str" cm="1">
+        <f t="array" ref="J34">IF(OR($B34="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!J34,Matriz_Esforço_Acompanhamento!J34)))</f>
+        <v/>
+      </c>
+      <c r="K34" t="str" cm="1">
+        <f t="array" ref="K34">IF(OR($B34="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!K34,Matriz_Esforço_Acompanhamento!K34)))</f>
+        <v/>
+      </c>
+      <c r="L34" t="str" cm="1">
+        <f t="array" ref="L34">IF(OR($B34="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!L34,Matriz_Esforço_Acompanhamento!L34)))</f>
+        <v/>
+      </c>
+      <c r="M34" t="str" cm="1">
+        <f t="array" ref="M34">IF(OR($B34="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!M34,Matriz_Esforço_Acompanhamento!M34)))</f>
+        <v/>
+      </c>
+      <c r="N34" t="str" cm="1">
+        <f t="array" ref="N34">IF(OR($B34="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!N34,Matriz_Esforço_Acompanhamento!N34)))</f>
+        <v/>
+      </c>
+      <c r="O34" t="str" cm="1">
+        <f t="array" ref="O34">IF(OR($B34="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!O34,Matriz_Esforço_Acompanhamento!O34)))</f>
+        <v/>
+      </c>
+      <c r="P34" t="str" cm="1">
+        <f t="array" ref="P34">IF(OR($B34="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!P34,Matriz_Esforço_Acompanhamento!P34)))</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str" cm="1">
+        <f t="array" ref="Q34">IF(OR($B34="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!Q34,Matriz_Esforço_Acompanhamento!Q34)))</f>
+        <v/>
+      </c>
+      <c r="R34" t="str" cm="1">
+        <f t="array" ref="R34">IF(OR($B34="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!R34,Matriz_Esforço_Acompanhamento!R34)))</f>
+        <v/>
+      </c>
+      <c r="S34" t="str" cm="1">
+        <f t="array" ref="S34">IF(OR($B34="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!S34,Matriz_Esforço_Acompanhamento!S34)))</f>
+        <v/>
+      </c>
+      <c r="T34" t="str" cm="1">
+        <f t="array" ref="T34">IF(OR($B34="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!T34,Matriz_Esforço_Acompanhamento!T34)))</f>
+        <v/>
+      </c>
+      <c r="U34" t="str" cm="1">
+        <f t="array" ref="U34">IF(OR($B34="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!U34,Matriz_Esforço_Acompanhamento!U34)))</f>
+        <v/>
+      </c>
+      <c r="V34" t="str" cm="1">
+        <f t="array" ref="V34">IF(OR($B34="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!V34,Matriz_Esforço_Acompanhamento!V34)))</f>
+        <v/>
+      </c>
+      <c r="W34" t="str" cm="1">
+        <f t="array" ref="W34">IF(OR($B34="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!W34,Matriz_Esforço_Acompanhamento!W34)))</f>
+        <v/>
+      </c>
+      <c r="X34" t="str" cm="1">
+        <f t="array" ref="X34">IF(OR($B34="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!X34,Matriz_Esforço_Acompanhamento!X34)))</f>
+        <v/>
+      </c>
+      <c r="Y34" t="str" cm="1">
+        <f t="array" ref="Y34">IF(OR($B34="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!Y34,Matriz_Esforço_Acompanhamento!Y34)))</f>
+        <v/>
+      </c>
+      <c r="Z34" t="str" cm="1">
+        <f t="array" ref="Z34">IF(OR($B34="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!Z34,Matriz_Esforço_Acompanhamento!Z34)))</f>
+        <v/>
+      </c>
+      <c r="AA34" t="str" cm="1">
+        <f t="array" ref="AA34">IF(OR($B34="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!AA34,Matriz_Esforço_Acompanhamento!AA34)))</f>
+        <v/>
+      </c>
+      <c r="AB34" t="str" cm="1">
+        <f t="array" ref="AB34">IF(OR($B34="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!AB34,Matriz_Esforço_Acompanhamento!AB34)))</f>
+        <v/>
+      </c>
+      <c r="AC34" t="str" cm="1">
+        <f t="array" ref="AC34">IF(OR($B34="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B34)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B34)=0,Matriz_Esforço_Análise!AC34,Matriz_Esforço_Acompanhamento!AC34)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="str">
         <f>IF(Projetos!A34&lt;&gt;"",Projetos!A34,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C35" t="str" cm="1">
+        <f t="array" ref="C35">IF(OR($B35="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!C35,Matriz_Esforço_Acompanhamento!C35)))</f>
+        <v/>
+      </c>
+      <c r="D35" t="str" cm="1">
+        <f t="array" ref="D35">IF(OR($B35="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!D35,Matriz_Esforço_Acompanhamento!D35)))</f>
+        <v/>
+      </c>
+      <c r="E35" t="str" cm="1">
+        <f t="array" ref="E35">IF(OR($B35="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!E35,Matriz_Esforço_Acompanhamento!E35)))</f>
+        <v/>
+      </c>
+      <c r="F35" t="str" cm="1">
+        <f t="array" ref="F35">IF(OR($B35="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!F35,Matriz_Esforço_Acompanhamento!F35)))</f>
+        <v/>
+      </c>
+      <c r="G35" t="str" cm="1">
+        <f t="array" ref="G35">IF(OR($B35="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!G35,Matriz_Esforço_Acompanhamento!G35)))</f>
+        <v/>
+      </c>
+      <c r="H35" t="str" cm="1">
+        <f t="array" ref="H35">IF(OR($B35="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!H35,Matriz_Esforço_Acompanhamento!H35)))</f>
+        <v/>
+      </c>
+      <c r="I35" t="str" cm="1">
+        <f t="array" ref="I35">IF(OR($B35="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!I35,Matriz_Esforço_Acompanhamento!I35)))</f>
+        <v/>
+      </c>
+      <c r="J35" t="str" cm="1">
+        <f t="array" ref="J35">IF(OR($B35="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!J35,Matriz_Esforço_Acompanhamento!J35)))</f>
+        <v/>
+      </c>
+      <c r="K35" t="str" cm="1">
+        <f t="array" ref="K35">IF(OR($B35="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!K35,Matriz_Esforço_Acompanhamento!K35)))</f>
+        <v/>
+      </c>
+      <c r="L35" t="str" cm="1">
+        <f t="array" ref="L35">IF(OR($B35="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!L35,Matriz_Esforço_Acompanhamento!L35)))</f>
+        <v/>
+      </c>
+      <c r="M35" t="str" cm="1">
+        <f t="array" ref="M35">IF(OR($B35="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!M35,Matriz_Esforço_Acompanhamento!M35)))</f>
+        <v/>
+      </c>
+      <c r="N35" t="str" cm="1">
+        <f t="array" ref="N35">IF(OR($B35="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!N35,Matriz_Esforço_Acompanhamento!N35)))</f>
+        <v/>
+      </c>
+      <c r="O35" t="str" cm="1">
+        <f t="array" ref="O35">IF(OR($B35="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!O35,Matriz_Esforço_Acompanhamento!O35)))</f>
+        <v/>
+      </c>
+      <c r="P35" t="str" cm="1">
+        <f t="array" ref="P35">IF(OR($B35="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!P35,Matriz_Esforço_Acompanhamento!P35)))</f>
+        <v/>
+      </c>
+      <c r="Q35" t="str" cm="1">
+        <f t="array" ref="Q35">IF(OR($B35="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!Q35,Matriz_Esforço_Acompanhamento!Q35)))</f>
+        <v/>
+      </c>
+      <c r="R35" t="str" cm="1">
+        <f t="array" ref="R35">IF(OR($B35="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!R35,Matriz_Esforço_Acompanhamento!R35)))</f>
+        <v/>
+      </c>
+      <c r="S35" t="str" cm="1">
+        <f t="array" ref="S35">IF(OR($B35="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!S35,Matriz_Esforço_Acompanhamento!S35)))</f>
+        <v/>
+      </c>
+      <c r="T35" t="str" cm="1">
+        <f t="array" ref="T35">IF(OR($B35="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!T35,Matriz_Esforço_Acompanhamento!T35)))</f>
+        <v/>
+      </c>
+      <c r="U35" t="str" cm="1">
+        <f t="array" ref="U35">IF(OR($B35="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!U35,Matriz_Esforço_Acompanhamento!U35)))</f>
+        <v/>
+      </c>
+      <c r="V35" t="str" cm="1">
+        <f t="array" ref="V35">IF(OR($B35="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!V35,Matriz_Esforço_Acompanhamento!V35)))</f>
+        <v/>
+      </c>
+      <c r="W35" t="str" cm="1">
+        <f t="array" ref="W35">IF(OR($B35="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!W35,Matriz_Esforço_Acompanhamento!W35)))</f>
+        <v/>
+      </c>
+      <c r="X35" t="str" cm="1">
+        <f t="array" ref="X35">IF(OR($B35="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!X35,Matriz_Esforço_Acompanhamento!X35)))</f>
+        <v/>
+      </c>
+      <c r="Y35" t="str" cm="1">
+        <f t="array" ref="Y35">IF(OR($B35="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!Y35,Matriz_Esforço_Acompanhamento!Y35)))</f>
+        <v/>
+      </c>
+      <c r="Z35" t="str" cm="1">
+        <f t="array" ref="Z35">IF(OR($B35="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!Z35,Matriz_Esforço_Acompanhamento!Z35)))</f>
+        <v/>
+      </c>
+      <c r="AA35" t="str" cm="1">
+        <f t="array" ref="AA35">IF(OR($B35="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!AA35,Matriz_Esforço_Acompanhamento!AA35)))</f>
+        <v/>
+      </c>
+      <c r="AB35" t="str" cm="1">
+        <f t="array" ref="AB35">IF(OR($B35="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!AB35,Matriz_Esforço_Acompanhamento!AB35)))</f>
+        <v/>
+      </c>
+      <c r="AC35" t="str" cm="1">
+        <f t="array" ref="AC35">IF(OR($B35="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B35)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B35)=0,Matriz_Esforço_Análise!AC35,Matriz_Esforço_Acompanhamento!AC35)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="str">
         <f>IF(Projetos!A35&lt;&gt;"",Projetos!A35,"")</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="C36" t="str" cm="1">
+        <f t="array" ref="C36">IF(OR($B36="",C$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!C$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=C$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!C36,Matriz_Esforço_Acompanhamento!C36)))</f>
+        <v/>
+      </c>
+      <c r="D36" t="str" cm="1">
+        <f t="array" ref="D36">IF(OR($B36="",D$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!D$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=D$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!D36,Matriz_Esforço_Acompanhamento!D36)))</f>
+        <v/>
+      </c>
+      <c r="E36" t="str" cm="1">
+        <f t="array" ref="E36">IF(OR($B36="",E$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!E$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=E$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!E36,Matriz_Esforço_Acompanhamento!E36)))</f>
+        <v/>
+      </c>
+      <c r="F36" t="str" cm="1">
+        <f t="array" ref="F36">IF(OR($B36="",F$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!F$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=F$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!F36,Matriz_Esforço_Acompanhamento!F36)))</f>
+        <v/>
+      </c>
+      <c r="G36" t="str" cm="1">
+        <f t="array" ref="G36">IF(OR($B36="",G$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!G$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=G$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!G36,Matriz_Esforço_Acompanhamento!G36)))</f>
+        <v/>
+      </c>
+      <c r="H36" t="str" cm="1">
+        <f t="array" ref="H36">IF(OR($B36="",H$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!H$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=H$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!H36,Matriz_Esforço_Acompanhamento!H36)))</f>
+        <v/>
+      </c>
+      <c r="I36" t="str" cm="1">
+        <f t="array" ref="I36">IF(OR($B36="",I$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!I$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=I$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!I36,Matriz_Esforço_Acompanhamento!I36)))</f>
+        <v/>
+      </c>
+      <c r="J36" t="str" cm="1">
+        <f t="array" ref="J36">IF(OR($B36="",J$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!J$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=J$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!J36,Matriz_Esforço_Acompanhamento!J36)))</f>
+        <v/>
+      </c>
+      <c r="K36" t="str" cm="1">
+        <f t="array" ref="K36">IF(OR($B36="",K$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!K$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=K$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!K36,Matriz_Esforço_Acompanhamento!K36)))</f>
+        <v/>
+      </c>
+      <c r="L36" t="str" cm="1">
+        <f t="array" ref="L36">IF(OR($B36="",L$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!L$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=L$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!L36,Matriz_Esforço_Acompanhamento!L36)))</f>
+        <v/>
+      </c>
+      <c r="M36" t="str" cm="1">
+        <f t="array" ref="M36">IF(OR($B36="",M$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!M$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=M$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!M36,Matriz_Esforço_Acompanhamento!M36)))</f>
+        <v/>
+      </c>
+      <c r="N36" t="str" cm="1">
+        <f t="array" ref="N36">IF(OR($B36="",N$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!N$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=N$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!N36,Matriz_Esforço_Acompanhamento!N36)))</f>
+        <v/>
+      </c>
+      <c r="O36" t="str" cm="1">
+        <f t="array" ref="O36">IF(OR($B36="",O$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!O$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=O$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!O36,Matriz_Esforço_Acompanhamento!O36)))</f>
+        <v/>
+      </c>
+      <c r="P36" t="str" cm="1">
+        <f t="array" ref="P36">IF(OR($B36="",P$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!P$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=P$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!P36,Matriz_Esforço_Acompanhamento!P36)))</f>
+        <v/>
+      </c>
+      <c r="Q36" t="str" cm="1">
+        <f t="array" ref="Q36">IF(OR($B36="",Q$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Q$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=Q$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!Q36,Matriz_Esforço_Acompanhamento!Q36)))</f>
+        <v/>
+      </c>
+      <c r="R36" t="str" cm="1">
+        <f t="array" ref="R36">IF(OR($B36="",R$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!R$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=R$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!R36,Matriz_Esforço_Acompanhamento!R36)))</f>
+        <v/>
+      </c>
+      <c r="S36" t="str" cm="1">
+        <f t="array" ref="S36">IF(OR($B36="",S$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!S$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=S$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!S36,Matriz_Esforço_Acompanhamento!S36)))</f>
+        <v/>
+      </c>
+      <c r="T36" t="str" cm="1">
+        <f t="array" ref="T36">IF(OR($B36="",T$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!T$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=T$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!T36,Matriz_Esforço_Acompanhamento!T36)))</f>
+        <v/>
+      </c>
+      <c r="U36" t="str" cm="1">
+        <f t="array" ref="U36">IF(OR($B36="",U$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!U$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=U$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!U36,Matriz_Esforço_Acompanhamento!U36)))</f>
+        <v/>
+      </c>
+      <c r="V36" t="str" cm="1">
+        <f t="array" ref="V36">IF(OR($B36="",V$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!V$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=V$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!V36,Matriz_Esforço_Acompanhamento!V36)))</f>
+        <v/>
+      </c>
+      <c r="W36" t="str" cm="1">
+        <f t="array" ref="W36">IF(OR($B36="",W$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!W$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=W$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!W36,Matriz_Esforço_Acompanhamento!W36)))</f>
+        <v/>
+      </c>
+      <c r="X36" t="str" cm="1">
+        <f t="array" ref="X36">IF(OR($B36="",X$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!X$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=X$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!X36,Matriz_Esforço_Acompanhamento!X36)))</f>
+        <v/>
+      </c>
+      <c r="Y36" t="str" cm="1">
+        <f t="array" ref="Y36">IF(OR($B36="",Y$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Y$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=Y$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!Y36,Matriz_Esforço_Acompanhamento!Y36)))</f>
+        <v/>
+      </c>
+      <c r="Z36" t="str" cm="1">
+        <f t="array" ref="Z36">IF(OR($B36="",Z$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!Z$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=Z$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!Z36,Matriz_Esforço_Acompanhamento!Z36)))</f>
+        <v/>
+      </c>
+      <c r="AA36" t="str" cm="1">
+        <f t="array" ref="AA36">IF(OR($B36="",AA$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AA$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=AA$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!AA36,Matriz_Esforço_Acompanhamento!AA36)))</f>
+        <v/>
+      </c>
+      <c r="AB36" t="str" cm="1">
+        <f t="array" ref="AB36">IF(OR($B36="",AB$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AB$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=AB$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!AB36,Matriz_Esforço_Acompanhamento!AB36)))</f>
+        <v/>
+      </c>
+      <c r="AC36" t="str" cm="1">
+        <f t="array" ref="AC36">IF(OR($B36="",AC$2=""),"",IF(OR(INDEX(Técnicos!$B$2:$B$35,Matriz_Esforço_Atual!AC$2)=0,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=2,INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=3,INDEX(Projetos!$D$2:$D$35,Matriz_Esforço_Atual!$B36)=AC$2),"",IF(INDEX(Projetos!$C$2:$C$35,Matriz_Esforço_Atual!$B36)=0,Matriz_Esforço_Análise!AC36,Matriz_Esforço_Acompanhamento!AC36)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="str">
         <f>IF(Técnicos!A36&lt;&gt;"",Técnicos!A36,"")</f>
         <v/>
@@ -5480,18 +5928,18 @@
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="3" cm="1">
         <f t="array" ref="D2:AP2">IF(TRANSPOSE(Técnicos!A2:A40)&lt;&gt;"",TRANSPOSE(Técnicos!A2:A40),"")</f>
@@ -14633,18 +15081,18 @@
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B1"/>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="3" cm="1">
         <f t="array" ref="D2:AP2">IF(TRANSPOSE(Técnicos!A2:A40)&lt;&gt;"",TRANSPOSE(Técnicos!A2:A40),"")</f>
@@ -23772,8 +24220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9443A2C-A03B-4F5C-8CE9-B5C8C855F053}">
   <dimension ref="A2:AJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23895,7 +24343,7 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <f>IF(B2="","",SUMPRODUCT(Matriz_Alocação_Análise!D3:D36,Matriz_Esforço_Análise!C3:C36))</f>
@@ -24012,7 +24460,7 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <f>IF(B2="","",SUMPRODUCT(Matriz_Alocação_Acompanhamento!D3:D36,Matriz_Esforço_Acompanhamento!C3:C36))</f>
@@ -24129,7 +24577,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <f>IF(B2="","",SUM(B3:B4))</f>

--- a/states_experiences/states.xlsx
+++ b/states_experiences/states.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\bolsa_meu\states_experiences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E87818E-D49B-4DB1-9557-A86E6F6AED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458B1B00-6FBB-4470-9DAF-EB019B4CAFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projetos" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1364,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1886,7 @@
   <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5915,7 +5915,7 @@
   <dimension ref="A1:AP1284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15068,7 +15068,7 @@
   <dimension ref="A1:AP1284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24220,8 +24220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9443A2C-A03B-4F5C-8CE9-B5C8C855F053}">
   <dimension ref="A2:AJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
